--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,3214 +53,3726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B400"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="true"/>
-    <col min="2" max="2" width="11.453125" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712767482025349</v>
+        <v>48.712782000739289</v>
       </c>
       <c r="B1" s="0">
-        <v>2.1979619584936745</v>
+        <v>2.2008250350188456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712767265593122</v>
+        <v>48.7128737954421</v>
       </c>
       <c r="B2" s="0">
-        <v>2.197962063464614</v>
+        <v>2.2006416373379612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712766690151746</v>
+        <v>48.712946578589005</v>
       </c>
       <c r="B3" s="0">
-        <v>2.1979621218719823</v>
+        <v>2.2004957033518644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712767206897475</v>
+        <v>48.712997325476607</v>
       </c>
       <c r="B4" s="0">
-        <v>2.1979622195832169</v>
+        <v>2.2003941380208234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.71276635841334</v>
+        <v>48.713012500421343</v>
       </c>
       <c r="B5" s="0">
-        <v>2.1979622289187914</v>
+        <v>2.2003638080579226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712766292924862</v>
+        <v>48.713012051968846</v>
       </c>
       <c r="B6" s="0">
-        <v>2.197962209549408</v>
+        <v>2.2003648263429723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712766138353452</v>
+        <v>48.713012478059412</v>
       </c>
       <c r="B7" s="0">
-        <v>2.1979622978235431</v>
+        <v>2.2003641460688042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.712766191577721</v>
+        <v>48.713012368184266</v>
       </c>
       <c r="B8" s="0">
-        <v>2.197962344716645</v>
+        <v>2.2003644730742349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712766143198934</v>
+        <v>48.713012643075409</v>
       </c>
       <c r="B9" s="0">
-        <v>2.1979624589498248</v>
+        <v>2.2003639717057362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712765568666285</v>
+        <v>48.713012334186431</v>
       </c>
       <c r="B10" s="0">
-        <v>2.197962464416459</v>
+        <v>2.2003646870347562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.712765400776313</v>
+        <v>48.713012375691058</v>
       </c>
       <c r="B11" s="0">
-        <v>2.197962517806344</v>
+        <v>2.2003646930052732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712765594747097</v>
+        <v>48.713012323521667</v>
       </c>
       <c r="B12" s="0">
-        <v>2.1979625457549319</v>
+        <v>2.2003649693607752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712764980147377</v>
+        <v>48.713012279863449</v>
       </c>
       <c r="B13" s="0">
-        <v>2.1979625950115973</v>
+        <v>2.2003650698169288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712764815543323</v>
+        <v>48.713014280804394</v>
       </c>
       <c r="B14" s="0">
-        <v>2.1979626035230129</v>
+        <v>2.2003611567188299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.712765029266791</v>
+        <v>48.713014879063778</v>
       </c>
       <c r="B15" s="0">
-        <v>2.1979627396372994</v>
+        <v>2.2003600170133724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712764308524079</v>
+        <v>48.712794326342262</v>
       </c>
       <c r="B16" s="0">
-        <v>2.1979627710995731</v>
+        <v>2.2008025958018647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712763988261195</v>
+        <v>48.712756387113579</v>
       </c>
       <c r="B17" s="0">
-        <v>2.1979627863749505</v>
+        <v>2.2008790978035187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712764591332167</v>
+        <v>48.712756286395113</v>
       </c>
       <c r="B18" s="0">
-        <v>2.197962853138439</v>
+        <v>2.2008794203731403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712763250592985</v>
+        <v>48.712756381927854</v>
       </c>
       <c r="B19" s="0">
-        <v>2.1979628594074781</v>
+        <v>2.2008795233675063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.71276362571637</v>
+        <v>48.712756468917611</v>
       </c>
       <c r="B20" s="0">
-        <v>2.1979629325443035</v>
+        <v>2.2008794877241153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712763655064137</v>
+        <v>48.712756547077248</v>
       </c>
       <c r="B21" s="0">
-        <v>2.1979630405127106</v>
+        <v>2.2008793944928695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712763148056148</v>
+        <v>48.712755929657263</v>
       </c>
       <c r="B22" s="0">
-        <v>2.1979630464819633</v>
+        <v>2.2008807689927323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712763637260963</v>
+        <v>48.712756218340033</v>
       </c>
       <c r="B23" s="0">
-        <v>2.1979631657315411</v>
+        <v>2.2008804743409574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712763037100345</v>
+        <v>48.712756281358566</v>
       </c>
       <c r="B24" s="0">
-        <v>2.197963204687603</v>
+        <v>2.2008806623586663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712763147735359</v>
+        <v>48.712756186964604</v>
       </c>
       <c r="B25" s="0">
-        <v>2.1979632796084774</v>
+        <v>2.2008809572067474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712763276350799</v>
+        <v>48.712756121958748</v>
       </c>
       <c r="B26" s="0">
-        <v>2.1979633287930813</v>
+        <v>2.2008811998418398</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712762516000673</v>
+        <v>48.712755451044913</v>
       </c>
       <c r="B27" s="0">
-        <v>2.1979633815358102</v>
+        <v>2.2008826819415939</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712762745296011</v>
+        <v>48.712756007114159</v>
       </c>
       <c r="B28" s="0">
-        <v>2.1979634334634177</v>
+        <v>2.2008817424502589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.7127624852533</v>
+        <v>48.71221902080984</v>
       </c>
       <c r="B29" s="0">
-        <v>2.1979634888959119</v>
+        <v>2.2018405539271466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712762187395143</v>
+        <v>48.712832081923125</v>
       </c>
       <c r="B30" s="0">
-        <v>2.1979635554768473</v>
+        <v>2.2006093147073349</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712762206143367</v>
+        <v>48.712784015171664</v>
       </c>
       <c r="B31" s="0">
-        <v>2.1979635617300097</v>
+        <v>2.2007047290200599</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712761437489618</v>
+        <v>48.712994389454359</v>
       </c>
       <c r="B32" s="0">
-        <v>2.1979636011328569</v>
+        <v>2.2002809414083639</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712761808763453</v>
+        <v>48.712784457730429</v>
       </c>
       <c r="B33" s="0">
-        <v>2.1979637287738019</v>
+        <v>2.2007014262855606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.71276158231052</v>
+        <v>48.712824742397274</v>
       </c>
       <c r="B34" s="0">
-        <v>2.1979638137757078</v>
+        <v>2.2006207245759546</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712761896461132</v>
+        <v>48.712969808475158</v>
       </c>
       <c r="B35" s="0">
-        <v>2.1979639008601084</v>
+        <v>2.2003263179482304</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712761371716951</v>
+        <v>48.712944305377739</v>
       </c>
       <c r="B36" s="0">
-        <v>2.1979639004936922</v>
+        <v>2.2003761748694282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712761737571583</v>
+        <v>48.713043930627151</v>
       </c>
       <c r="B37" s="0">
-        <v>2.1979639528536783</v>
+        <v>2.2001720547075165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712761090455324</v>
+        <v>48.712720256877702</v>
       </c>
       <c r="B38" s="0">
-        <v>2.1979640501469162</v>
+        <v>2.2008232603888627</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.712761640026528</v>
+        <v>48.713095703846946</v>
       </c>
       <c r="B39" s="0">
-        <v>2.1979640846717312</v>
+        <v>2.2000671319709109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712760961528517</v>
+        <v>48.713017268833333</v>
       </c>
       <c r="B40" s="0">
-        <v>2.1979641778240935</v>
+        <v>2.2002227316955496</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712761018891655</v>
+        <v>48.713021990732379</v>
       </c>
       <c r="B41" s="0">
-        <v>2.1979641938079215</v>
+        <v>2.2002123742267732</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712760608503686</v>
+        <v>48.713075606526935</v>
       </c>
       <c r="B42" s="0">
-        <v>2.1979642784682976</v>
+        <v>2.2001023329109386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712760486098048</v>
+        <v>48.713060443923816</v>
       </c>
       <c r="B43" s="0">
-        <v>2.1979643086409202</v>
+        <v>2.2001304248298053</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712760776513576</v>
+        <v>48.713226654748951</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1979643647462939</v>
+        <v>2.1997933434721517</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712759939262888</v>
+        <v>48.713557795514134</v>
       </c>
       <c r="B45" s="0">
-        <v>2.1979644185027127</v>
+        <v>2.1991235972406087</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712760133684427</v>
+        <v>48.713251912058354</v>
       </c>
       <c r="B46" s="0">
-        <v>2.1979644706241097</v>
+        <v>2.199738286244767</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712760050437716</v>
+        <v>48.713489864975216</v>
       </c>
       <c r="B47" s="0">
-        <v>2.1979645272962514</v>
+        <v>2.1992561082231328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712759493091028</v>
+        <v>48.713571748797875</v>
       </c>
       <c r="B48" s="0">
-        <v>2.197964565994655</v>
+        <v>2.1990896913658085</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.71275953920815</v>
+        <v>48.713843273545862</v>
       </c>
       <c r="B49" s="0">
-        <v>2.1979646515395248</v>
+        <v>2.1985413300976262</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712759875004458</v>
+        <v>48.713837201738841</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1979646876584118</v>
+        <v>2.1985497809576904</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.71275915355681</v>
+        <v>48.713934712646171</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1979647563698621</v>
+        <v>2.1983525499823919</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712759172923903</v>
+        <v>48.713937162181601</v>
       </c>
       <c r="B52" s="0">
-        <v>2.1979648313593136</v>
+        <v>2.198345716274261</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712759190005819</v>
+        <v>48.714026215277556</v>
       </c>
       <c r="B53" s="0">
-        <v>2.197964922879422</v>
+        <v>2.19813007517965</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712759122444304</v>
+        <v>48.713544574143583</v>
       </c>
       <c r="B54" s="0">
-        <v>2.1979649785257314</v>
+        <v>2.1990891235766306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712758727013728</v>
+        <v>48.713664804905157</v>
       </c>
       <c r="B55" s="0">
-        <v>2.1979649427891044</v>
+        <v>2.1988479559265919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712758452667643</v>
+        <v>48.713874671472425</v>
       </c>
       <c r="B56" s="0">
-        <v>2.1979650498257164</v>
+        <v>2.1984235662163987</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712758810916853</v>
+        <v>48.713791720106379</v>
       </c>
       <c r="B57" s="0">
-        <v>2.1979651920236711</v>
+        <v>2.1985881775099205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.71275847733483</v>
+        <v>48.713744846059292</v>
       </c>
       <c r="B58" s="0">
-        <v>2.1979652201754187</v>
+        <v>2.1986756080070924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712758177762701</v>
+        <v>48.713842960247064</v>
       </c>
       <c r="B59" s="0">
-        <v>2.1979653247279751</v>
+        <v>2.1984729883736627</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712757883607821</v>
+        <v>48.713804608942482</v>
       </c>
       <c r="B60" s="0">
-        <v>2.1979653011498606</v>
+        <v>2.1985488882529367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712757448479664</v>
+        <v>48.713821819961311</v>
       </c>
       <c r="B61" s="0">
-        <v>2.1979653985966614</v>
+        <v>2.1985246749500251</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712757236569608</v>
+        <v>48.713940887255667</v>
       </c>
       <c r="B62" s="0">
-        <v>2.1979654310073484</v>
+        <v>2.1982977698336299</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712757213953005</v>
+        <v>48.713953704229347</v>
       </c>
       <c r="B63" s="0">
-        <v>2.197965484812169</v>
+        <v>2.1982770628476951</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712756777676368</v>
+        <v>48.714042382104466</v>
       </c>
       <c r="B64" s="0">
-        <v>2.1979655372441225</v>
+        <v>2.1980949757490911</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712756144724437</v>
+        <v>48.71403925632189</v>
       </c>
       <c r="B65" s="0">
-        <v>2.1979655912397895</v>
+        <v>2.1981004531201349</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712756260832919</v>
+        <v>48.714034917424641</v>
       </c>
       <c r="B66" s="0">
-        <v>2.1979656392114735</v>
+        <v>2.1981101736787569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712756035584</v>
+        <v>48.714029855209624</v>
       </c>
       <c r="B67" s="0">
-        <v>2.1979656966925845</v>
+        <v>2.1981205079375545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.71275581965709</v>
+        <v>48.714025573125952</v>
       </c>
       <c r="B68" s="0">
-        <v>2.1979657491016198</v>
+        <v>2.1981289468599949</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712756215321669</v>
+        <v>48.71402164520989</v>
       </c>
       <c r="B69" s="0">
-        <v>2.1979658217800293</v>
+        <v>2.1981394445109101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712755993302231</v>
+        <v>48.714016677930339</v>
       </c>
       <c r="B70" s="0">
-        <v>2.197965904296701</v>
+        <v>2.1981498915024384</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712755726043255</v>
+        <v>48.714011708056105</v>
       </c>
       <c r="B71" s="0">
-        <v>2.197966047584893</v>
+        <v>2.198159691403752</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712755434026661</v>
+        <v>48.714007472809833</v>
       </c>
       <c r="B72" s="0">
-        <v>2.197965985909593</v>
+        <v>2.1981705646583483</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712755497776342</v>
+        <v>48.714002554403578</v>
       </c>
       <c r="B73" s="0">
-        <v>2.1979660851649885</v>
+        <v>2.1981812726820174</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712755410086558</v>
+        <v>48.713995189557082</v>
       </c>
       <c r="B74" s="0">
-        <v>2.1979661275874429</v>
+        <v>2.1981977168965692</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712755197442164</v>
+        <v>48.713991252296012</v>
       </c>
       <c r="B75" s="0">
-        <v>2.1979662450307433</v>
+        <v>2.198207819133033</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712754962865198</v>
+        <v>48.713985719663604</v>
       </c>
       <c r="B76" s="0">
-        <v>2.1979662714279815</v>
+        <v>2.1982198625195979</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712755057172089</v>
+        <v>48.713981869321792</v>
       </c>
       <c r="B77" s="0">
-        <v>2.197966331179992</v>
+        <v>2.1982299730636141</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712754826064405</v>
+        <v>48.713978030523755</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1979664020571801</v>
+        <v>2.1982380373789514</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712754639929379</v>
+        <v>48.713972234368335</v>
       </c>
       <c r="B79" s="0">
-        <v>2.1979665078691788</v>
+        <v>2.198249626256509</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712754177001976</v>
+        <v>48.713968208588078</v>
       </c>
       <c r="B80" s="0">
-        <v>2.1979665121088021</v>
+        <v>2.1982616201654262</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712754689547687</v>
+        <v>48.713964445597299</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1979666270989209</v>
+        <v>2.1982719345650503</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712754038047088</v>
+        <v>48.713959371865094</v>
       </c>
       <c r="B82" s="0">
-        <v>2.1979666151594182</v>
+        <v>2.1982828232994223</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712753741601702</v>
+        <v>48.713954632823437</v>
       </c>
       <c r="B83" s="0">
-        <v>2.1979667130567404</v>
+        <v>2.1982958733309617</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712753621713418</v>
+        <v>48.713864585865153</v>
       </c>
       <c r="B84" s="0">
-        <v>2.1979667745584228</v>
+        <v>2.1984797508959053</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712753802317174</v>
+        <v>48.713660728315318</v>
       </c>
       <c r="B85" s="0">
-        <v>2.1979668537709141</v>
+        <v>2.1988944631667948</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712753243023322</v>
+        <v>48.713764000094322</v>
       </c>
       <c r="B86" s="0">
-        <v>2.1979669001007158</v>
+        <v>2.1986874452657963</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712753065661929</v>
+        <v>48.71339699245641</v>
       </c>
       <c r="B87" s="0">
-        <v>2.1979669400892719</v>
+        <v>2.1994321286833372</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712752934430974</v>
+        <v>48.71339699245641</v>
       </c>
       <c r="B88" s="0">
-        <v>2.1979670070004986</v>
+        <v>2.1994321286833372</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712753093181895</v>
+        <v>48.712662469098781</v>
       </c>
       <c r="B89" s="0">
-        <v>2.1979671299817922</v>
+        <v>2.2009270408339878</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712752819617784</v>
+        <v>48.712017666035116</v>
       </c>
       <c r="B90" s="0">
-        <v>2.1979671174123703</v>
+        <v>2.2022361966019952</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712752351631473</v>
+        <v>48.712017666035116</v>
       </c>
       <c r="B91" s="0">
-        <v>2.1979672231563034</v>
+        <v>2.2022361966019952</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712752366491252</v>
+        <v>48.712017666035116</v>
       </c>
       <c r="B92" s="0">
-        <v>2.1979672468376013</v>
+        <v>2.2022361966019952</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712752599576362</v>
+        <v>48.710109266964174</v>
       </c>
       <c r="B93" s="0">
-        <v>2.1979672647536583</v>
+        <v>2.2061107501984241</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712752194149942</v>
+        <v>48.710108490662385</v>
       </c>
       <c r="B94" s="0">
-        <v>2.1979672954238905</v>
+        <v>2.2061148047736787</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712752386763896</v>
+        <v>48.710242957834247</v>
       </c>
       <c r="B95" s="0">
-        <v>2.1979674350301828</v>
+        <v>2.2058406480773223</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.71275170538599</v>
+        <v>48.710278157474605</v>
       </c>
       <c r="B96" s="0">
-        <v>2.197967451694895</v>
+        <v>2.2057672723888371</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712751585120046</v>
+        <v>48.710645826334705</v>
       </c>
       <c r="B97" s="0">
-        <v>2.1979675255567028</v>
+        <v>2.2050198381947195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712751289023345</v>
+        <v>48.710097699627923</v>
       </c>
       <c r="B98" s="0">
-        <v>2.1979675998531807</v>
+        <v>2.2061305025106761</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.71275122146367</v>
+        <v>48.710541838028092</v>
       </c>
       <c r="B99" s="0">
-        <v>2.1979677104907487</v>
+        <v>2.2052295450356536</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712750766382442</v>
+        <v>48.710610822219557</v>
       </c>
       <c r="B100" s="0">
-        <v>2.1979677018405983</v>
+        <v>2.2050890905329577</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712750536604034</v>
+        <v>48.710782572115448</v>
       </c>
       <c r="B101" s="0">
-        <v>2.1979677837535725</v>
+        <v>2.204739435529814</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712750453093484</v>
+        <v>48.710851642283934</v>
       </c>
       <c r="B102" s="0">
-        <v>2.1979678203050295</v>
+        <v>2.2045980956199491</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712750480432447</v>
+        <v>48.710653823629563</v>
       </c>
       <c r="B103" s="0">
-        <v>2.1979678596287671</v>
+        <v>2.204999055301847</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.712750036569268</v>
+        <v>48.710815455855467</v>
       </c>
       <c r="B104" s="0">
-        <v>2.1979678780581113</v>
+        <v>2.2046756225412532</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712750038093269</v>
+        <v>48.710947386713954</v>
       </c>
       <c r="B105" s="0">
-        <v>2.1979680200210261</v>
+        <v>2.204406131901155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712750027020299</v>
+        <v>48.71087455506639</v>
       </c>
       <c r="B106" s="0">
-        <v>2.1979680838423494</v>
+        <v>2.2045530935838098</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.712749893597142</v>
+        <v>48.710948547950444</v>
       </c>
       <c r="B107" s="0">
-        <v>2.1979681851756232</v>
+        <v>2.2044003943109773</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712749608510855</v>
+        <v>48.711280255171801</v>
       </c>
       <c r="B108" s="0">
-        <v>2.1979682338920385</v>
+        <v>2.2037252701970367</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.712749797329678</v>
+        <v>48.711028914048995</v>
       </c>
       <c r="B109" s="0">
-        <v>2.1979683292911223</v>
+        <v>2.2042347064691383</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712749404513488</v>
+        <v>48.711063547104217</v>
       </c>
       <c r="B110" s="0">
-        <v>2.1979683240674413</v>
+        <v>2.2041616548809064</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712749164351962</v>
+        <v>48.711266647801594</v>
       </c>
       <c r="B111" s="0">
-        <v>2.1979684607408805</v>
+        <v>2.203715435550305</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712748398803619</v>
+        <v>48.711383884170282</v>
       </c>
       <c r="B112" s="0">
-        <v>2.1979684835873292</v>
+        <v>2.203477506652074</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.712749095715651</v>
+        <v>48.711165201994206</v>
       </c>
       <c r="B113" s="0">
-        <v>2.1979685447740378</v>
+        <v>2.2039195813352546</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712749329064955</v>
+        <v>48.711240458050391</v>
       </c>
       <c r="B114" s="0">
-        <v>2.1979686850942231</v>
+        <v>2.2037459992975874</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712749227917428</v>
+        <v>48.711280047704925</v>
       </c>
       <c r="B115" s="0">
-        <v>2.197968730848817</v>
+        <v>2.2037156504178492</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712749375093594</v>
+        <v>48.711277158866508</v>
       </c>
       <c r="B116" s="0">
-        <v>2.1979687567351904</v>
+        <v>2.2037529283819084</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712749302243331</v>
+        <v>48.711366947985852</v>
       </c>
       <c r="B117" s="0">
-        <v>2.1979688709959762</v>
+        <v>2.2035384656432848</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.712748635564743</v>
+        <v>48.711212849647701</v>
       </c>
       <c r="B118" s="0">
-        <v>2.1979689036347638</v>
+        <v>2.2038874516878817</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.712748724568627</v>
+        <v>48.711472462863455</v>
       </c>
       <c r="B119" s="0">
-        <v>2.1979690123699491</v>
+        <v>2.2032924050599543</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.71274793721507</v>
+        <v>48.711475916245391</v>
       </c>
       <c r="B120" s="0">
-        <v>2.1979689838625385</v>
+        <v>2.2032900806645537</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712748396181361</v>
+        <v>48.71147147534986</v>
       </c>
       <c r="B121" s="0">
-        <v>2.1979690514709658</v>
+        <v>2.2032947624775154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.712748151200806</v>
+        <v>48.711468816253884</v>
       </c>
       <c r="B122" s="0">
-        <v>2.1979691447034853</v>
+        <v>2.2033036071261933</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712747898932001</v>
+        <v>48.711463896574841</v>
       </c>
       <c r="B123" s="0">
-        <v>2.1979692038232988</v>
+        <v>2.2033156901028956</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712747298402462</v>
+        <v>48.711460423986957</v>
       </c>
       <c r="B124" s="0">
-        <v>2.1979693001092828</v>
+        <v>2.2033270456097584</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712746892243665</v>
+        <v>48.711456232925258</v>
       </c>
       <c r="B125" s="0">
-        <v>2.1979693092125294</v>
+        <v>2.2033390089055875</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.71274678640026</v>
+        <v>48.711450588455072</v>
       </c>
       <c r="B126" s="0">
-        <v>2.1979693630720019</v>
+        <v>2.2033517971919681</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712747326322464</v>
+        <v>48.711446017436671</v>
       </c>
       <c r="B127" s="0">
-        <v>2.197969459198462</v>
+        <v>2.2033647263733349</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.712747437697672</v>
+        <v>48.711441581958354</v>
       </c>
       <c r="B128" s="0">
-        <v>2.1979695688208043</v>
+        <v>2.2033767648737377</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712746751324332</v>
+        <v>48.71143582577708</v>
       </c>
       <c r="B129" s="0">
-        <v>2.1979696745354764</v>
+        <v>2.2033915682551824</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712747096164328</v>
+        <v>48.711431035264802</v>
       </c>
       <c r="B130" s="0">
-        <v>2.1979696755592189</v>
+        <v>2.2034041443269747</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712745799045905</v>
+        <v>48.711427704233536</v>
       </c>
       <c r="B131" s="0">
-        <v>2.1979697264729059</v>
+        <v>2.2034142212317667</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712745675063403</v>
+        <v>48.711422444766029</v>
       </c>
       <c r="B132" s="0">
-        <v>2.1979696986955917</v>
+        <v>2.2034259783100652</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712745756417064</v>
+        <v>48.711418093269565</v>
       </c>
       <c r="B133" s="0">
-        <v>2.197969871059458</v>
+        <v>2.2034372309383845</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712745431645963</v>
+        <v>48.711413874413246</v>
       </c>
       <c r="B134" s="0">
-        <v>2.1979698891717248</v>
+        <v>2.2034501423872821</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712746174198529</v>
+        <v>48.71140897905569</v>
       </c>
       <c r="B135" s="0">
-        <v>2.1979700326002911</v>
+        <v>2.2034631910333973</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712745432210539</v>
+        <v>48.711403887616889</v>
       </c>
       <c r="B136" s="0">
-        <v>2.1979701275632233</v>
+        <v>2.2034764087837559</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712745452923407</v>
+        <v>48.711399360165181</v>
       </c>
       <c r="B137" s="0">
-        <v>2.1979701486020837</v>
+        <v>2.2034892460694064</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712745009974192</v>
+        <v>48.711393961438176</v>
       </c>
       <c r="B138" s="0">
-        <v>2.197970106529918</v>
+        <v>2.2035030743651474</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712745036581353</v>
+        <v>48.7113883004127</v>
       </c>
       <c r="B139" s="0">
-        <v>2.1979703088473022</v>
+        <v>2.2035160418954929</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.71274487804326</v>
+        <v>48.71138319449485</v>
       </c>
       <c r="B140" s="0">
-        <v>2.1979703303337796</v>
+        <v>2.2035296973835057</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712744658115085</v>
+        <v>48.711005212705189</v>
       </c>
       <c r="B141" s="0">
-        <v>2.1979704085833407</v>
+        <v>2.2043018602005851</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712744335172935</v>
+        <v>48.711167737251841</v>
       </c>
       <c r="B142" s="0">
-        <v>2.1979704561406202</v>
+        <v>2.2039708286935706</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712744073116781</v>
+        <v>48.710474570426328</v>
       </c>
       <c r="B143" s="0">
-        <v>2.1979705169812864</v>
+        <v>2.2053865667068875</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.712743975004102</v>
+        <v>48.710635389645986</v>
       </c>
       <c r="B144" s="0">
-        <v>2.1979706526298806</v>
+        <v>2.2050604718436553</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.712743531669318</v>
+        <v>48.710541744704067</v>
       </c>
       <c r="B145" s="0">
-        <v>2.1979707107179558</v>
+        <v>2.205250960892176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.712744230802009</v>
+        <v>48.710401480562311</v>
       </c>
       <c r="B146" s="0">
-        <v>2.1979707811501395</v>
+        <v>2.2055385856235175</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712743928107095</v>
+        <v>48.710372997599848</v>
       </c>
       <c r="B147" s="0">
-        <v>2.1979708028134781</v>
+        <v>2.2056024343783198</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712743983275026</v>
+        <v>48.710441488827222</v>
       </c>
       <c r="B148" s="0">
-        <v>2.1979708740817698</v>
+        <v>2.2054565579872918</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712743165200301</v>
+        <v>48.710241038737735</v>
       </c>
       <c r="B149" s="0">
-        <v>2.1979709996264059</v>
+        <v>2.2058689668383349</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712744306496433</v>
+        <v>48.710449817006229</v>
       </c>
       <c r="B150" s="0">
-        <v>2.1979711210241781</v>
+        <v>2.2054414629629333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712743441368723</v>
+        <v>48.710397151800628</v>
       </c>
       <c r="B151" s="0">
-        <v>2.1979711121492005</v>
+        <v>2.2055473782824047</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712743311307577</v>
+        <v>48.710300119596752</v>
       </c>
       <c r="B152" s="0">
-        <v>2.1979712208150453</v>
+        <v>2.2057461154724361</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712742922031062</v>
+        <v>48.710760217525198</v>
       </c>
       <c r="B153" s="0">
-        <v>2.1979712404348191</v>
+        <v>2.2048062969064453</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712742792158096</v>
+        <v>48.71079292991778</v>
       </c>
       <c r="B154" s="0">
-        <v>2.1979712671806473</v>
+        <v>2.2047388101935397</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712742383625262</v>
+        <v>48.710819808578997</v>
       </c>
       <c r="B155" s="0">
-        <v>2.1979713829521854</v>
+        <v>2.2046822067739878</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712742495849618</v>
+        <v>48.710846847341856</v>
       </c>
       <c r="B156" s="0">
-        <v>2.1979714124361909</v>
+        <v>2.2046271254418102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712742410182045</v>
+        <v>48.711099933432351</v>
       </c>
       <c r="B157" s="0">
-        <v>2.1979714762975053</v>
+        <v>2.2041083413787828</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.71274217981388</v>
+        <v>48.711150060442954</v>
       </c>
       <c r="B158" s="0">
-        <v>2.1979715399067392</v>
+        <v>2.2040049820440695</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712742131389959</v>
+        <v>48.711324948563871</v>
       </c>
       <c r="B159" s="0">
-        <v>2.1979716054403986</v>
+        <v>2.2036481397738421</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712741590725017</v>
+        <v>48.711162248918136</v>
       </c>
       <c r="B160" s="0">
-        <v>2.1979716693825124</v>
+        <v>2.2039810048168023</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712741457865889</v>
+        <v>48.711148839557595</v>
       </c>
       <c r="B161" s="0">
-        <v>2.1979717551405105</v>
+        <v>2.2040070658876041</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712741502986567</v>
+        <v>48.711260157115248</v>
       </c>
       <c r="B162" s="0">
-        <v>2.1979718751687245</v>
+        <v>2.203781016067456</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712741595979075</v>
+        <v>48.711428853706686</v>
       </c>
       <c r="B163" s="0">
-        <v>2.1979719462005702</v>
+        <v>2.203437202012557</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712740781678967</v>
+        <v>48.711050389214655</v>
       </c>
       <c r="B164" s="0">
-        <v>2.1979718776779702</v>
+        <v>2.2042088936711513</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712740821403415</v>
+        <v>48.711054106621631</v>
       </c>
       <c r="B165" s="0">
-        <v>2.1979720763809731</v>
+        <v>2.2042234967743668</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712740245583071</v>
+        <v>48.711054106621631</v>
       </c>
       <c r="B166" s="0">
-        <v>2.1979721810163495</v>
+        <v>2.2042234967743668</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712740440574606</v>
+        <v>48.711174006028365</v>
       </c>
       <c r="B167" s="0">
-        <v>2.1979722818283398</v>
+        <v>2.2039732127618561</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712740508253063</v>
+        <v>48.71131052935916</v>
       </c>
       <c r="B168" s="0">
-        <v>2.1979723136818192</v>
+        <v>2.203699600476829</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712740027392158</v>
+        <v>48.711186463323529</v>
       </c>
       <c r="B169" s="0">
-        <v>2.1979723240343572</v>
+        <v>2.2039508193603141</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712739855640464</v>
+        <v>48.71117127238719</v>
       </c>
       <c r="B170" s="0">
-        <v>2.1979724354899584</v>
+        <v>2.2039812924425881</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712739659847365</v>
+        <v>48.711387523486131</v>
       </c>
       <c r="B171" s="0">
-        <v>2.1979725674806399</v>
+        <v>2.2035394683764307</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712739417399298</v>
+        <v>48.71136020890421</v>
       </c>
       <c r="B172" s="0">
-        <v>2.1979725613274619</v>
+        <v>2.2035975236854508</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712739772980534</v>
+        <v>48.711362887267228</v>
       </c>
       <c r="B173" s="0">
-        <v>2.1979726713045786</v>
+        <v>2.2035950285923405</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712739853261297</v>
+        <v>48.711360605309984</v>
       </c>
       <c r="B174" s="0">
-        <v>2.1979727603772532</v>
+        <v>2.2035981093168844</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712739771235164</v>
+        <v>48.711355733409995</v>
       </c>
       <c r="B175" s="0">
-        <v>2.1979728034959822</v>
+        <v>2.2036084693957574</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712739446994412</v>
+        <v>48.711350519940432</v>
       </c>
       <c r="B176" s="0">
-        <v>2.1979728860919337</v>
+        <v>2.2036190221941996</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712739479513225</v>
+        <v>48.711345060277772</v>
       </c>
       <c r="B177" s="0">
-        <v>2.1979729739385214</v>
+        <v>2.2036311478665533</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.71273976463835</v>
+        <v>48.711339473988218</v>
       </c>
       <c r="B178" s="0">
-        <v>2.1979730328874458</v>
+        <v>2.2036435011483566</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712739412178145</v>
+        <v>48.71133404568203</v>
       </c>
       <c r="B179" s="0">
-        <v>2.1979731270781557</v>
+        <v>2.2036562927800656</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712738974562193</v>
+        <v>48.711328617615557</v>
       </c>
       <c r="B180" s="0">
-        <v>2.1979731272466303</v>
+        <v>2.2036691200663983</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712739262696175</v>
+        <v>48.711322302626598</v>
       </c>
       <c r="B181" s="0">
-        <v>2.1979732126031881</v>
+        <v>2.2036829286987594</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712738877521581</v>
+        <v>48.711317555458869</v>
       </c>
       <c r="B182" s="0">
-        <v>2.197973294713107</v>
+        <v>2.2036945250980833</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712738076009281</v>
+        <v>48.711313063658004</v>
       </c>
       <c r="B183" s="0">
-        <v>2.1979733112354651</v>
+        <v>2.2037069678106915</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712738098153565</v>
+        <v>48.711307488674834</v>
       </c>
       <c r="B184" s="0">
-        <v>2.1979733873629015</v>
+        <v>2.2037218671102745</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712738299626551</v>
+        <v>48.711302638298122</v>
       </c>
       <c r="B185" s="0">
-        <v>2.1979734971247824</v>
+        <v>2.2037351580311961</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712737761071807</v>
+        <v>48.711297161993635</v>
       </c>
       <c r="B186" s="0">
-        <v>2.1979735644203067</v>
+        <v>2.203750390368699</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712737238748709</v>
+        <v>48.711292333374004</v>
       </c>
       <c r="B187" s="0">
-        <v>2.1979735919171701</v>
+        <v>2.2037627714997004</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.71273801452567</v>
+        <v>48.711288135933842</v>
       </c>
       <c r="B188" s="0">
-        <v>2.1979736788163748</v>
+        <v>2.2037726916284797</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712737567531129</v>
+        <v>48.711281638482575</v>
       </c>
       <c r="B189" s="0">
-        <v>2.1979737832267698</v>
+        <v>2.2037865431211028</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712737316767452</v>
+        <v>48.711358020205211</v>
       </c>
       <c r="B190" s="0">
-        <v>2.1979738771543946</v>
+        <v>2.2036316585822799</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.71273688929864</v>
+        <v>48.711403017533996</v>
       </c>
       <c r="B191" s="0">
-        <v>2.1979739160071854</v>
+        <v>2.2035409367405152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712736668682197</v>
+        <v>48.71133336077488</v>
       </c>
       <c r="B192" s="0">
-        <v>2.1979740244585311</v>
+        <v>2.2036852303885515</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.712736683026506</v>
+        <v>48.711095583713657</v>
       </c>
       <c r="B193" s="0">
-        <v>2.1979740530189638</v>
+        <v>2.204175092667096</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.712736256252917</v>
+        <v>48.711095583713657</v>
       </c>
       <c r="B194" s="0">
-        <v>2.1979741838887912</v>
+        <v>2.204175092667096</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712736243032175</v>
+        <v>48.710619445528494</v>
       </c>
       <c r="B195" s="0">
-        <v>2.1979742056908971</v>
+        <v>2.2051537566723689</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712736389710869</v>
+        <v>48.710586355040896</v>
       </c>
       <c r="B196" s="0">
-        <v>2.1979742743856554</v>
+        <v>2.2052220046195497</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.712735741326505</v>
+        <v>48.710261673429038</v>
       </c>
       <c r="B197" s="0">
-        <v>2.1979743382621391</v>
+        <v>2.2058903049407497</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.712735747733532</v>
+        <v>48.710261673429038</v>
       </c>
       <c r="B198" s="0">
-        <v>2.1979744168855175</v>
+        <v>2.2058903049407497</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.71273552030776</v>
+        <v>48.710261673429038</v>
       </c>
       <c r="B199" s="0">
-        <v>2.1979744792899054</v>
+        <v>2.2058903049407497</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.712735397425128</v>
+        <v>48.710261673429038</v>
       </c>
       <c r="B200" s="0">
-        <v>2.1979745085594953</v>
+        <v>2.2058903049407497</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.712734713063277</v>
+        <v>48.709039758780428</v>
       </c>
       <c r="B201" s="0">
-        <v>2.1979746355197021</v>
+        <v>2.2084025297592675</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.712734713011607</v>
+        <v>48.709269342359647</v>
       </c>
       <c r="B202" s="0">
-        <v>2.1979747688450906</v>
+        <v>2.2079302312767957</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.712734605591862</v>
+        <v>48.709269342359647</v>
       </c>
       <c r="B203" s="0">
-        <v>2.1979747920577175</v>
+        <v>2.2079302312767957</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.712734627695681</v>
+        <v>48.709730500096363</v>
       </c>
       <c r="B204" s="0">
-        <v>2.197974808869541</v>
+        <v>2.206983021003329</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.712734797222701</v>
+        <v>48.709730500096363</v>
       </c>
       <c r="B205" s="0">
-        <v>2.1979749062243847</v>
+        <v>2.206983021003329</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.712734336026202</v>
+        <v>48.710190583014828</v>
       </c>
       <c r="B206" s="0">
-        <v>2.1979749502728301</v>
+        <v>2.2060367216438128</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712734617108822</v>
+        <v>48.710296966028771</v>
       </c>
       <c r="B207" s="0">
-        <v>2.1979750602394974</v>
+        <v>2.2058178095572494</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.712733959376749</v>
+        <v>48.710312960936392</v>
       </c>
       <c r="B208" s="0">
-        <v>2.1979751233060387</v>
+        <v>2.2057843392915695</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712733647989154</v>
+        <v>48.710325771634359</v>
       </c>
       <c r="B209" s="0">
-        <v>2.1979752712666794</v>
+        <v>2.2057568280716997</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.71273368014193</v>
+        <v>48.710547388483342</v>
       </c>
       <c r="B210" s="0">
-        <v>2.1979752332938185</v>
+        <v>2.2053006554398804</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.712733737740024</v>
+        <v>48.710338663038506</v>
       </c>
       <c r="B211" s="0">
-        <v>2.1979753928418413</v>
+        <v>2.2057290941606214</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712733579937684</v>
+        <v>48.710636692976131</v>
       </c>
       <c r="B212" s="0">
-        <v>2.1979754223715808</v>
+        <v>2.2051153479054393</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712733939623689</v>
+        <v>48.71066953174882</v>
       </c>
       <c r="B213" s="0">
-        <v>2.1979755046981504</v>
+        <v>2.2050464256033431</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712732604782161</v>
+        <v>48.710968610247051</v>
       </c>
       <c r="B214" s="0">
-        <v>2.1979755138249195</v>
+        <v>2.2044317379518024</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.712733164273992</v>
+        <v>48.710867783060664</v>
       </c>
       <c r="B215" s="0">
-        <v>2.1979756361395113</v>
+        <v>2.2046391960370841</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712733036816196</v>
+        <v>48.71072165579691</v>
       </c>
       <c r="B216" s="0">
-        <v>2.1979756743304417</v>
+        <v>2.2049364762506256</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.71273309287124</v>
+        <v>48.710816979449454</v>
       </c>
       <c r="B217" s="0">
-        <v>2.1979757950579453</v>
+        <v>2.2047297379623414</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712732652839691</v>
+        <v>48.710787675327751</v>
       </c>
       <c r="B218" s="0">
-        <v>2.1979758256109725</v>
+        <v>2.2047886726874246</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.712732409264142</v>
+        <v>48.710816044550384</v>
       </c>
       <c r="B219" s="0">
-        <v>2.1979758674901508</v>
+        <v>2.2047315985646199</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.712732034422551</v>
+        <v>48.710768602314936</v>
       </c>
       <c r="B220" s="0">
-        <v>2.1979759764910285</v>
+        <v>2.2048277913446004</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712732288735772</v>
+        <v>48.710916279359346</v>
       </c>
       <c r="B221" s="0">
-        <v>2.1979760459034741</v>
+        <v>2.2045243541360256</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712731860943436</v>
+        <v>48.711043359916246</v>
       </c>
       <c r="B222" s="0">
-        <v>2.1979762055034988</v>
+        <v>2.204264309994743</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.712731701772185</v>
+        <v>48.711304893824817</v>
       </c>
       <c r="B223" s="0">
-        <v>2.1979762237132432</v>
+        <v>2.2037272512886465</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712731881766274</v>
+        <v>48.711136122037189</v>
       </c>
       <c r="B224" s="0">
-        <v>2.1979762908008191</v>
+        <v>2.2040615191247377</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712731465171501</v>
+        <v>48.711131587956963</v>
       </c>
       <c r="B225" s="0">
-        <v>2.1979764352059634</v>
+        <v>2.2040657164913826</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.712731300896763</v>
+        <v>48.71112780774935</v>
       </c>
       <c r="B226" s="0">
-        <v>2.1979764913960573</v>
+        <v>2.2040743300135577</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.71273086433245</v>
+        <v>48.711123109954059</v>
       </c>
       <c r="B227" s="0">
-        <v>2.1979766095284936</v>
+        <v>2.2040866973665061</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712731103098001</v>
+        <v>48.711118112909972</v>
       </c>
       <c r="B228" s="0">
-        <v>2.1979766298559738</v>
+        <v>2.2040980249932978</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712730938768274</v>
+        <v>48.711114041213065</v>
       </c>
       <c r="B229" s="0">
-        <v>2.197976683314256</v>
+        <v>2.2041101183408802</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712730583381408</v>
+        <v>48.711109621660711</v>
       </c>
       <c r="B230" s="0">
-        <v>2.1979767907560204</v>
+        <v>2.2041227316153669</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.71272990377949</v>
+        <v>48.711103460273023</v>
       </c>
       <c r="B231" s="0">
-        <v>2.1979768468368426</v>
+        <v>2.2041379588097891</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712729860760511</v>
+        <v>48.711098753356133</v>
       </c>
       <c r="B232" s="0">
-        <v>2.1979769676465528</v>
+        <v>2.2041494562056658</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712729794074818</v>
+        <v>48.71109359413574</v>
       </c>
       <c r="B233" s="0">
-        <v>2.1979770794797298</v>
+        <v>2.2041611769340581</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712728956783771</v>
+        <v>48.711087438678049</v>
       </c>
       <c r="B234" s="0">
-        <v>2.1979770569591892</v>
+        <v>2.2041750543895113</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712729694210808</v>
+        <v>48.711082233939663</v>
       </c>
       <c r="B235" s="0">
-        <v>2.197977261493107</v>
+        <v>2.2041866252481484</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.71272918145295</v>
+        <v>48.711077290183454</v>
       </c>
       <c r="B236" s="0">
-        <v>2.197977321178116</v>
+        <v>2.2041997710257348</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.712728481656768</v>
+        <v>48.711071608803309</v>
       </c>
       <c r="B237" s="0">
-        <v>2.1979773691085942</v>
+        <v>2.2042133385864045</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.7127281838182</v>
+        <v>48.711065764390199</v>
       </c>
       <c r="B238" s="0">
-        <v>2.1979774542476665</v>
+        <v>2.2042261025625991</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.712728147697383</v>
+        <v>48.711060773527315</v>
       </c>
       <c r="B239" s="0">
-        <v>2.1979775979478355</v>
+        <v>2.2042378826483304</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712727889570608</v>
+        <v>48.711055640488354</v>
       </c>
       <c r="B240" s="0">
-        <v>2.1979776420031527</v>
+        <v>2.2042496542037728</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712727451906375</v>
+        <v>48.711048688693396</v>
       </c>
       <c r="B241" s="0">
-        <v>2.1979776398688844</v>
+        <v>2.2042640677081709</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.712727517702952</v>
+        <v>48.711042296608703</v>
       </c>
       <c r="B242" s="0">
-        <v>2.1979777255857638</v>
+        <v>2.2042786826109486</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.712728106484242</v>
+        <v>48.711163657556753</v>
       </c>
       <c r="B243" s="0">
-        <v>2.1979778466880124</v>
+        <v>2.2040298905782869</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.712727300066078</v>
+        <v>48.711103781021137</v>
       </c>
       <c r="B244" s="0">
-        <v>2.1979777890853001</v>
+        <v>2.2041533325912126</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.712726961059687</v>
+        <v>48.710952239871325</v>
       </c>
       <c r="B245" s="0">
-        <v>2.1979779522598597</v>
+        <v>2.2044670402032605</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.712726940372676</v>
+        <v>48.710483365405644</v>
       </c>
       <c r="B246" s="0">
-        <v>2.1979780715747732</v>
+        <v>2.2054353559824613</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712726976568391</v>
+        <v>48.710339776214234</v>
       </c>
       <c r="B247" s="0">
-        <v>2.1979781313885862</v>
+        <v>2.2057325279683768</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712726727226873</v>
+        <v>48.710405827035501</v>
       </c>
       <c r="B248" s="0">
-        <v>2.1979782085817918</v>
+        <v>2.2055959031688741</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.712726589996031</v>
+        <v>48.710164133207208</v>
       </c>
       <c r="B249" s="0">
-        <v>2.1979782255896017</v>
+        <v>2.2060974201268784</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.712726801341667</v>
+        <v>48.710069443877146</v>
       </c>
       <c r="B250" s="0">
-        <v>2.1979782521514033</v>
+        <v>2.2062986092911725</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.712726201689826</v>
+        <v>48.709698353739093</v>
       </c>
       <c r="B251" s="0">
-        <v>2.1979784193137091</v>
+        <v>2.2070610314707411</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.712726559711427</v>
+        <v>48.709997574217496</v>
       </c>
       <c r="B252" s="0">
-        <v>2.1979784821645141</v>
+        <v>2.2064432074292699</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.712726359449015</v>
+        <v>48.710242798834038</v>
       </c>
       <c r="B253" s="0">
-        <v>2.1979785213599294</v>
+        <v>2.2059376983017782</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.712726315549752</v>
+        <v>48.710085715480709</v>
       </c>
       <c r="B254" s="0">
-        <v>2.1979785532504974</v>
+        <v>2.2062638676776332</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.712726035388968</v>
+        <v>48.710184222949486</v>
       </c>
       <c r="B255" s="0">
-        <v>2.1979787041741528</v>
+        <v>2.2060608545431948</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.712726019558524</v>
+        <v>48.710078192371761</v>
       </c>
       <c r="B256" s="0">
-        <v>2.1979787956977246</v>
+        <v>2.2062792559538087</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.712725772290867</v>
+        <v>48.710264584877315</v>
       </c>
       <c r="B257" s="0">
-        <v>2.1979788228994961</v>
+        <v>2.2058951418206996</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712725524574118</v>
+        <v>48.710368224989473</v>
       </c>
       <c r="B258" s="0">
-        <v>2.197978974743084</v>
+        <v>2.205679324025192</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712725431927517</v>
+        <v>48.710323741254335</v>
       </c>
       <c r="B259" s="0">
-        <v>2.1979790941606123</v>
+        <v>2.2057696117384964</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712725380417574</v>
+        <v>48.710338355398783</v>
       </c>
       <c r="B260" s="0">
-        <v>2.1979791083140992</v>
+        <v>2.2057382339635696</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.712725275189286</v>
+        <v>48.710365732724277</v>
       </c>
       <c r="B261" s="0">
-        <v>2.1979792608582427</v>
+        <v>2.2056811243146943</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712725244445288</v>
+        <v>48.710532679538602</v>
       </c>
       <c r="B262" s="0">
-        <v>2.1979793926944451</v>
+        <v>2.205335475521693</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712725267693458</v>
+        <v>48.710475247470306</v>
       </c>
       <c r="B263" s="0">
-        <v>2.1979794292050059</v>
+        <v>2.205453770913699</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.712724704474987</v>
+        <v>48.710595804716093</v>
       </c>
       <c r="B264" s="0">
-        <v>2.197979576258374</v>
+        <v>2.2052048419136532</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.712724784291296</v>
+        <v>48.71086988173024</v>
       </c>
       <c r="B265" s="0">
-        <v>2.1979796190986232</v>
+        <v>2.2046394202242992</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712724424882012</v>
+        <v>48.71082560257755</v>
       </c>
       <c r="B266" s="0">
-        <v>2.1979796678728638</v>
+        <v>2.2047536508587782</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712724457222919</v>
+        <v>48.710727695663039</v>
       </c>
       <c r="B267" s="0">
-        <v>2.1979797544858206</v>
+        <v>2.2049465384576483</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712724249188248</v>
+        <v>48.71082112250582</v>
       </c>
       <c r="B268" s="0">
-        <v>2.1979797869183995</v>
+        <v>2.2047508739941457</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.712723754348161</v>
+        <v>48.711066017876803</v>
       </c>
       <c r="B269" s="0">
-        <v>2.1979799436172138</v>
+        <v>2.2042484044445656</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712723389024205</v>
+        <v>48.711074220445546</v>
       </c>
       <c r="B270" s="0">
-        <v>2.1979800486105647</v>
+        <v>2.204235056609158</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712723800147906</v>
+        <v>48.711075775253491</v>
       </c>
       <c r="B271" s="0">
-        <v>2.1979800113379091</v>
+        <v>2.2042340290609404</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712723475426017</v>
+        <v>48.711125329420028</v>
       </c>
       <c r="B272" s="0">
-        <v>2.1979802690671706</v>
+        <v>2.2041170324469022</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.71272324024357</v>
+        <v>48.7112341731846</v>
       </c>
       <c r="B273" s="0">
-        <v>2.1979802699762034</v>
+        <v>2.2038954324825943</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.71272327393757</v>
+        <v>48.711293487372124</v>
       </c>
       <c r="B274" s="0">
-        <v>2.1979803687596036</v>
+        <v>2.2037643903025321</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.71272299890353</v>
+        <v>48.711281189479749</v>
       </c>
       <c r="B275" s="0">
-        <v>2.1979804646396808</v>
+        <v>2.203804308238611</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.712722054995446</v>
+        <v>48.711234821859264</v>
       </c>
       <c r="B276" s="0">
-        <v>2.1979805081557671</v>
+        <v>2.203891770273251</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712722210198869</v>
+        <v>48.711231260157653</v>
       </c>
       <c r="B277" s="0">
-        <v>2.1979806348550506</v>
+        <v>2.203900055484767</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712722302211006</v>
+        <v>48.711225803303187</v>
       </c>
       <c r="B278" s="0">
-        <v>2.1979806616821827</v>
+        <v>2.203910292064784</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.712721261528564</v>
+        <v>48.711220386861712</v>
       </c>
       <c r="B279" s="0">
-        <v>2.1979807929463919</v>
+        <v>2.2039236620792595</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712721448905207</v>
+        <v>48.711215513784616</v>
       </c>
       <c r="B280" s="0">
-        <v>2.1979808602519406</v>
+        <v>2.2039347469811279</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712721442359104</v>
+        <v>48.711210709217568</v>
       </c>
       <c r="B281" s="0">
-        <v>2.1979809439363729</v>
+        <v>2.2039434903909534</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712720450544097</v>
+        <v>48.711205215214051</v>
       </c>
       <c r="B282" s="0">
-        <v>2.1979809959389867</v>
+        <v>2.2039567658738806</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712720283641964</v>
+        <v>48.711200514771789</v>
       </c>
       <c r="B283" s="0">
-        <v>2.1979811431049918</v>
+        <v>2.20396854834447</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.712720614112868</v>
+        <v>48.711195274935918</v>
       </c>
       <c r="B284" s="0">
-        <v>2.1979811977861306</v>
+        <v>2.2039796888653767</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712720252629829</v>
+        <v>48.711190567342854</v>
       </c>
       <c r="B285" s="0">
-        <v>2.1979813190390107</v>
+        <v>2.2039920476453476</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.712720095109084</v>
+        <v>48.711186020380914</v>
       </c>
       <c r="B286" s="0">
-        <v>2.1979814087958323</v>
+        <v>2.2040032289247007</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712719976489517</v>
+        <v>48.711179947816788</v>
       </c>
       <c r="B287" s="0">
-        <v>2.1979815151960267</v>
+        <v>2.2040164386064101</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.712719960450102</v>
+        <v>48.711174685869338</v>
       </c>
       <c r="B288" s="0">
-        <v>2.197981496397206</v>
+        <v>2.2040279687540796</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.712719605901455</v>
+        <v>48.711168165754756</v>
       </c>
       <c r="B289" s="0">
-        <v>2.1979817137278905</v>
+        <v>2.2040410245149227</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712720322707661</v>
+        <v>48.711163001029192</v>
       </c>
       <c r="B290" s="0">
-        <v>2.1979817017525494</v>
+        <v>2.2040523452086656</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.7127194799452</v>
+        <v>48.711158006678367</v>
       </c>
       <c r="B291" s="0">
-        <v>2.1979818677396499</v>
+        <v>2.2040643939298783</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.712719448577829</v>
+        <v>48.711152168194744</v>
       </c>
       <c r="B292" s="0">
-        <v>2.1979818332599921</v>
+        <v>2.2040785092073274</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712719405011597</v>
+        <v>48.711147108415886</v>
       </c>
       <c r="B293" s="0">
-        <v>2.1979819313157547</v>
+        <v>2.2040917035248588</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712719221834149</v>
+        <v>48.711141617659763</v>
       </c>
       <c r="B294" s="0">
-        <v>2.1979820430931465</v>
+        <v>2.2041041608826655</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.712719058476047</v>
+        <v>48.710902129243301</v>
       </c>
       <c r="B295" s="0">
-        <v>2.1979820337107112</v>
+        <v>2.2046031945492906</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712718789113104</v>
+        <v>48.710836208586379</v>
       </c>
       <c r="B296" s="0">
-        <v>2.197982192281033</v>
+        <v>2.2047419438536608</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.71271863634535</v>
+        <v>48.710766573932105</v>
       </c>
       <c r="B297" s="0">
-        <v>2.1979822966611677</v>
+        <v>2.2048859203277957</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.712718345719324</v>
+        <v>48.710488637734521</v>
       </c>
       <c r="B298" s="0">
-        <v>2.1979823699023306</v>
+        <v>2.2054622763365832</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712718417790036</v>
+        <v>48.710563756326216</v>
       </c>
       <c r="B299" s="0">
-        <v>2.197982456338186</v>
+        <v>2.2053062818096256</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.712718661535895</v>
+        <v>48.710444410172407</v>
       </c>
       <c r="B300" s="0">
-        <v>2.1979825166539846</v>
+        <v>2.2055533407475903</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712717741882301</v>
+        <v>48.710188909895734</v>
       </c>
       <c r="B301" s="0">
-        <v>2.1979825731954206</v>
+        <v>2.2060854684869047</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.712718183283855</v>
+        <v>48.710188909895734</v>
       </c>
       <c r="B302" s="0">
-        <v>2.1979827805775658</v>
+        <v>2.2060854684869047</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712717808887121</v>
+        <v>48.709705438722217</v>
       </c>
       <c r="B303" s="0">
-        <v>2.1979828218415767</v>
+        <v>2.2070904595838146</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.712717580642483</v>
+        <v>48.709706726695039</v>
       </c>
       <c r="B304" s="0">
-        <v>2.1979829428497588</v>
+        <v>2.2070867589525038</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712717372603294</v>
+        <v>48.709867595676272</v>
       </c>
       <c r="B305" s="0">
-        <v>2.1979829803648068</v>
+        <v>2.2067527163794925</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.71271676025826</v>
+        <v>48.709833993870213</v>
       </c>
       <c r="B306" s="0">
-        <v>2.1979831450691325</v>
+        <v>2.2068217887881727</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.712716777084367</v>
+        <v>48.709833993870213</v>
       </c>
       <c r="B307" s="0">
-        <v>2.197983218635716</v>
+        <v>2.2068217887881727</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712716662498728</v>
+        <v>48.709768983323073</v>
       </c>
       <c r="B308" s="0">
-        <v>2.1979832734758409</v>
+        <v>2.2069527554986617</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.71271684016083</v>
+        <v>48.70991072759049</v>
       </c>
       <c r="B309" s="0">
-        <v>2.1979833414573511</v>
+        <v>2.2066591410645744</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712715917013817</v>
+        <v>48.709967343874894</v>
       </c>
       <c r="B310" s="0">
-        <v>2.1979834788616612</v>
+        <v>2.2065413515197654</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712715842752445</v>
+        <v>48.710244411591248</v>
       </c>
       <c r="B311" s="0">
-        <v>2.1979835317990815</v>
+        <v>2.2059641325631807</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712715588185645</v>
+        <v>48.710272079526654</v>
       </c>
       <c r="B312" s="0">
-        <v>2.1979836632560734</v>
+        <v>2.2059072305915923</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.712715636313092</v>
+        <v>48.709985643274962</v>
       </c>
       <c r="B313" s="0">
-        <v>2.1979837481719988</v>
+        <v>2.206501681890245</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.712715551609186</v>
+        <v>48.709892551487243</v>
       </c>
       <c r="B314" s="0">
-        <v>2.1979837936683544</v>
+        <v>2.2066946241628913</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.712715715139225</v>
+        <v>48.710335267306107</v>
       </c>
       <c r="B315" s="0">
-        <v>2.1979838323457819</v>
+        <v>2.2057759325415782</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.71271544543108</v>
+        <v>48.710548263623352</v>
       </c>
       <c r="B316" s="0">
-        <v>2.1979839501825107</v>
+        <v>2.205335414620607</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712714503405813</v>
+        <v>48.710776666148909</v>
       </c>
       <c r="B317" s="0">
-        <v>2.1979840634487471</v>
+        <v>2.2048602916841666</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712714382065457</v>
+        <v>48.710746639186716</v>
       </c>
       <c r="B318" s="0">
-        <v>2.1979842519170312</v>
+        <v>2.2049373269261801</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712714090513877</v>
+        <v>48.710429133342188</v>
       </c>
       <c r="B319" s="0">
-        <v>2.197984245951353</v>
+        <v>2.2055929380059656</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712713674687507</v>
+        <v>48.710747821262508</v>
       </c>
       <c r="B320" s="0">
-        <v>2.1979843775379919</v>
+        <v>2.2049288282677542</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712713928495283</v>
+        <v>48.710790135291489</v>
       </c>
       <c r="B321" s="0">
-        <v>2.1979844447622181</v>
+        <v>2.2048327799314382</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.712713699401654</v>
+        <v>48.710544662189712</v>
       </c>
       <c r="B322" s="0">
-        <v>2.197984459356821</v>
+        <v>2.2053544709464328</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712713436031947</v>
+        <v>48.710527262859387</v>
       </c>
       <c r="B323" s="0">
-        <v>2.1979845723924849</v>
+        <v>2.2053877631901222</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.712712999352085</v>
+        <v>48.710521809208757</v>
       </c>
       <c r="B324" s="0">
-        <v>2.1979846913728833</v>
+        <v>2.205392006565134</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.712712834008656</v>
+        <v>48.710525867242964</v>
       </c>
       <c r="B325" s="0">
-        <v>2.1979847926851539</v>
+        <v>2.2053828201829253</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.712712800363924</v>
+        <v>48.710596899487413</v>
       </c>
       <c r="B326" s="0">
-        <v>2.1979848216138107</v>
+        <v>2.2052367245009878</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712713052070008</v>
+        <v>48.71071949242139</v>
       </c>
       <c r="B327" s="0">
-        <v>2.1979849697990264</v>
+        <v>2.2049871868309405</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.712712530002193</v>
+        <v>48.710612702381908</v>
       </c>
       <c r="B328" s="0">
-        <v>2.1979850743899032</v>
+        <v>2.2052149537816668</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712712258248708</v>
+        <v>48.710608220473823</v>
       </c>
       <c r="B329" s="0">
-        <v>2.1979851154575814</v>
+        <v>2.2052170114369054</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712711462302977</v>
+        <v>48.710604826777399</v>
       </c>
       <c r="B330" s="0">
-        <v>2.1979853161806897</v>
+        <v>2.2052262949636106</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712712093786465</v>
+        <v>48.710599991076109</v>
       </c>
       <c r="B331" s="0">
-        <v>2.1979853434726446</v>
+        <v>2.2052371404977125</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712711887980134</v>
+        <v>48.710594350242758</v>
       </c>
       <c r="B332" s="0">
-        <v>2.1979854626157844</v>
+        <v>2.205249779694852</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712711727094067</v>
+        <v>48.710589011189718</v>
       </c>
       <c r="B333" s="0">
-        <v>2.1979855466851759</v>
+        <v>2.2052619565277292</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712711691747501</v>
+        <v>48.710583983936076</v>
       </c>
       <c r="B334" s="0">
-        <v>2.1979856348874969</v>
+        <v>2.2052737137036393</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712711441229231</v>
+        <v>48.710578717295967</v>
       </c>
       <c r="B335" s="0">
-        <v>2.1979856520599888</v>
+        <v>2.2052850916037574</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712711495893487</v>
+        <v>48.710573286426921</v>
       </c>
       <c r="B336" s="0">
-        <v>2.1979858221657054</v>
+        <v>2.205296818955782</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.712711503776369</v>
+        <v>48.710566749827272</v>
       </c>
       <c r="B337" s="0">
-        <v>2.1979858155150001</v>
+        <v>2.2053119895945992</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712711610570146</v>
+        <v>48.710562085302428</v>
       </c>
       <c r="B338" s="0">
-        <v>2.1979859708008576</v>
+        <v>2.2053223321476083</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712711035614333</v>
+        <v>48.710556772815274</v>
       </c>
       <c r="B339" s="0">
-        <v>2.1979859735769689</v>
+        <v>2.2053335309455546</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712710852962914</v>
+        <v>48.710550888986425</v>
       </c>
       <c r="B340" s="0">
-        <v>2.197986075363985</v>
+        <v>2.2053463530026574</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.71271039536061</v>
+        <v>48.710545830427194</v>
       </c>
       <c r="B341" s="0">
-        <v>2.1979862204890344</v>
+        <v>2.2053577634932262</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.712710176587947</v>
+        <v>48.710539716665082</v>
       </c>
       <c r="B342" s="0">
-        <v>2.1979863290591948</v>
+        <v>2.2053701703394455</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.71270970694075</v>
+        <v>48.710533428784089</v>
       </c>
       <c r="B343" s="0">
-        <v>2.1979864052480043</v>
+        <v>2.2053835872474319</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712709531773726</v>
+        <v>48.710766461667411</v>
       </c>
       <c r="B344" s="0">
-        <v>2.1979865263107903</v>
+        <v>2.2049003998152137</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712709570541165</v>
+        <v>48.710760113385156</v>
       </c>
       <c r="B345" s="0">
-        <v>2.1979866823848546</v>
+        <v>2.2049143464972691</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.712708656861984</v>
+        <v>48.710755174275306</v>
       </c>
       <c r="B346" s="0">
-        <v>2.1979867381071863</v>
+        <v>2.2049268501353203</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712708128367865</v>
+        <v>48.710690369230605</v>
       </c>
       <c r="B347" s="0">
-        <v>2.197986814606606</v>
+        <v>2.2050627646367351</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.712708801716694</v>
+        <v>48.710618585029636</v>
       </c>
       <c r="B348" s="0">
-        <v>2.1979869097593712</v>
+        <v>2.205212785051696</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.712708498088837</v>
+        <v>48.710433245367504</v>
       </c>
       <c r="B349" s="0">
-        <v>2.1979870451577739</v>
+        <v>2.2055982987375429</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.712707543712874</v>
+        <v>48.710226139973365</v>
       </c>
       <c r="B350" s="0">
-        <v>2.1979871407862532</v>
+        <v>2.2060304102389243</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.712707912048529</v>
+        <v>48.709802786138972</v>
       </c>
       <c r="B351" s="0">
-        <v>2.197987211102503</v>
+        <v>2.2069112756982756</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.712707684645345</v>
+        <v>48.709870778969652</v>
       </c>
       <c r="B352" s="0">
-        <v>2.197987258022168</v>
+        <v>2.2067717298103453</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.712708326357607</v>
+        <v>48.70966572430364</v>
       </c>
       <c r="B353" s="0">
-        <v>2.1979874073938603</v>
+        <v>2.2071989609095879</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.712707744752613</v>
+        <v>48.70973078041191</v>
       </c>
       <c r="B354" s="0">
-        <v>2.1979874528250822</v>
+        <v>2.2070678275477955</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.712707491853081</v>
+        <v>48.709804468999629</v>
       </c>
       <c r="B355" s="0">
-        <v>2.1979875993904634</v>
+        <v>2.2069132908215181</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.712707355059258</v>
+        <v>48.70982357403696</v>
       </c>
       <c r="B356" s="0">
-        <v>2.197987666102613</v>
+        <v>2.2068713223872889</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.712707050307536</v>
+        <v>48.709552487408466</v>
       </c>
       <c r="B357" s="0">
-        <v>2.1979877368377285</v>
+        <v>2.2074356616218553</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.712707108883535</v>
+        <v>48.70944971778188</v>
       </c>
       <c r="B358" s="0">
-        <v>2.19798779759545</v>
+        <v>2.2076480606207873</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.712705997627253</v>
+        <v>48.709480978197632</v>
       </c>
       <c r="B359" s="0">
-        <v>2.197987865973706</v>
+        <v>2.207582876765438</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.712706243377646</v>
+        <v>48.709943774074127</v>
       </c>
       <c r="B360" s="0">
-        <v>2.1979880026982675</v>
+        <v>2.206618649257253</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.71270675512347</v>
+        <v>48.709877073480392</v>
       </c>
       <c r="B361" s="0">
-        <v>2.1979881696540322</v>
+        <v>2.2067584205648072</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.71270642689408</v>
+        <v>48.710087830631636</v>
       </c>
       <c r="B362" s="0">
-        <v>2.1979882718721169</v>
+        <v>2.2063188810510224</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.712706013758577</v>
+        <v>48.709892217955542</v>
       </c>
       <c r="B363" s="0">
-        <v>2.1979882849867889</v>
+        <v>2.206724229348763</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.712705973507781</v>
+        <v>48.709909676286919</v>
       </c>
       <c r="B364" s="0">
-        <v>2.1979883494922992</v>
+        <v>2.2066877176591269</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.71270569192712</v>
+        <v>48.710175343572139</v>
       </c>
       <c r="B365" s="0">
-        <v>2.1979885061564071</v>
+        <v>2.2061343592146137</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.712704924715915</v>
+        <v>48.710037140096219</v>
       </c>
       <c r="B366" s="0">
-        <v>2.1979885536788038</v>
+        <v>2.20642048282975</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.712705559872269</v>
+        <v>48.710066467470789</v>
       </c>
       <c r="B367" s="0">
-        <v>2.1979886613217428</v>
+        <v>2.2063578864457853</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.712704914386684</v>
+        <v>48.710275062866821</v>
       </c>
       <c r="B368" s="0">
-        <v>2.1979887032873808</v>
+        <v>2.2059247627855205</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712704438078056</v>
+        <v>48.710646626889087</v>
       </c>
       <c r="B369" s="0">
-        <v>2.1979888635080966</v>
+        <v>2.2051520912610365</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.712704226829281</v>
+        <v>48.710589289073752</v>
       </c>
       <c r="B370" s="0">
-        <v>2.1979889651573554</v>
+        <v>2.2052809877309456</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.712703825166713</v>
+        <v>48.710341201100107</v>
       </c>
       <c r="B371" s="0">
-        <v>2.1979890565122511</v>
+        <v>2.2057857151906277</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712704358099188</v>
+        <v>48.710541238304202</v>
       </c>
       <c r="B372" s="0">
-        <v>2.1979891404399501</v>
+        <v>2.2054109598315193</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.712703703724529</v>
+        <v>48.710675674371792</v>
       </c>
       <c r="B373" s="0">
-        <v>2.1979892441779545</v>
+        <v>2.2051340151735546</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712703861720783</v>
+        <v>48.710574612599103</v>
       </c>
       <c r="B374" s="0">
-        <v>2.1979893471925358</v>
+        <v>2.2052928511844119</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712704418967903</v>
+        <v>48.710507195721043</v>
       </c>
       <c r="B375" s="0">
-        <v>2.1979894056220366</v>
+        <v>2.2054287761364852</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712703696536316</v>
+        <v>48.710265300175884</v>
       </c>
       <c r="B376" s="0">
-        <v>2.1979895153051796</v>
+        <v>2.2060386465044863</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712703394402105</v>
+        <v>48.710591453484419</v>
       </c>
       <c r="B377" s="0">
-        <v>2.1979896739611182</v>
+        <v>2.2052896407939522</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712703248463988</v>
+        <v>48.710629681675393</v>
       </c>
       <c r="B378" s="0">
-        <v>2.197989801208267</v>
+        <v>2.2052092013387479</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.712702824867343</v>
+        <v>48.710688241737771</v>
       </c>
       <c r="B379" s="0">
-        <v>2.1979899007609385</v>
+        <v>2.2051023732510844</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712702596602568</v>
+        <v>48.710547981883558</v>
       </c>
       <c r="B380" s="0">
-        <v>2.1979899524478133</v>
+        <v>2.2053947933293223</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712703106526114</v>
+        <v>48.710632297324025</v>
       </c>
       <c r="B381" s="0">
-        <v>2.1979900000133164</v>
+        <v>2.2052187245057415</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.712702538212781</v>
+        <v>48.710695601064117</v>
       </c>
       <c r="B382" s="0">
-        <v>2.1979901218633127</v>
+        <v>2.2050867245570269</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.712702228906785</v>
+        <v>48.710691421036671</v>
       </c>
       <c r="B383" s="0">
-        <v>2.1979901898381078</v>
+        <v>2.20509676680713</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712702333841612</v>
+        <v>48.71068739616193</v>
       </c>
       <c r="B384" s="0">
-        <v>2.1979903217864258</v>
+        <v>2.2051047836427897</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712701894587923</v>
+        <v>48.710681723114035</v>
       </c>
       <c r="B385" s="0">
-        <v>2.1979903834682797</v>
+        <v>2.2051144434064547</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.712701605372871</v>
+        <v>48.710674218449192</v>
       </c>
       <c r="B386" s="0">
-        <v>2.1979905470243493</v>
+        <v>2.2051328194492084</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.71270186526597</v>
+        <v>48.710669436518764</v>
       </c>
       <c r="B387" s="0">
-        <v>2.1979905990745303</v>
+        <v>2.2051444432474718</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.712701193549492</v>
+        <v>48.710663840283054</v>
       </c>
       <c r="B388" s="0">
-        <v>2.1979907894032618</v>
+        <v>2.2051557449364547</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.71270159273503</v>
+        <v>48.710658521457589</v>
       </c>
       <c r="B389" s="0">
-        <v>2.1979908076432966</v>
+        <v>2.2051682521976552</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.712701059837002</v>
+        <v>48.710653169311506</v>
       </c>
       <c r="B390" s="0">
-        <v>2.1979909310313945</v>
+        <v>2.2051805548396106</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.712700640527586</v>
+        <v>48.710647803315972</v>
       </c>
       <c r="B391" s="0">
-        <v>2.1979910349833705</v>
+        <v>2.2051923537092493</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.712701003307153</v>
+        <v>48.710642183439404</v>
       </c>
       <c r="B392" s="0">
-        <v>2.1979911157104417</v>
+        <v>2.2052065196628474</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.71270029122384</v>
+        <v>48.710637874456296</v>
       </c>
       <c r="B393" s="0">
-        <v>2.1979912386283909</v>
+        <v>2.2052160230011286</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.712699988404225</v>
+        <v>48.71063294390067</v>
       </c>
       <c r="B394" s="0">
-        <v>2.197991367836881</v>
+        <v>2.2052264296965616</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.712700430838162</v>
+        <v>48.710626410020154</v>
       </c>
       <c r="B395" s="0">
-        <v>2.1979914189144298</v>
+        <v>2.2052400458382349</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.71270010044163</v>
+        <v>48.71062235200732</v>
       </c>
       <c r="B396" s="0">
-        <v>2.1979915587953363</v>
+        <v>2.2052522025222276</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.712699404283413</v>
+        <v>48.710617068125714</v>
       </c>
       <c r="B397" s="0">
-        <v>2.1979916491066702</v>
+        <v>2.2052646319338423</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.712698850698132</v>
+        <v>48.71061217776672</v>
       </c>
       <c r="B398" s="0">
-        <v>2.1979916937749002</v>
+        <v>2.205275719830182</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.712699380745143</v>
+        <v>48.710645287790442</v>
       </c>
       <c r="B399" s="0">
-        <v>2.1979918665243821</v>
+        <v>2.2052074624586302</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.712698667274452</v>
+        <v>48.710563470301374</v>
       </c>
       <c r="B400" s="0">
-        <v>2.1979919330340194</v>
+        <v>2.2053791703054042</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>48.710454843253444</v>
+      </c>
+      <c r="B401" s="0">
+        <v>2.2056041306855128</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>48.710052868092859</v>
+      </c>
+      <c r="B402" s="0">
+        <v>2.2064455297284997</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>48.710147373066256</v>
+      </c>
+      <c r="B403" s="0">
+        <v>2.2062517290118895</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>48.709929835549737</v>
+      </c>
+      <c r="B404" s="0">
+        <v>2.206707930605933</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>48.709725208115138</v>
+      </c>
+      <c r="B405" s="0">
+        <v>2.2071370306196734</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>48.709710226022104</v>
+      </c>
+      <c r="B406" s="0">
+        <v>2.207169994639905</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>48.709872105053449</v>
+      </c>
+      <c r="B407" s="0">
+        <v>2.2068349050258953</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>48.709946076922286</v>
+      </c>
+      <c r="B408" s="0">
+        <v>2.2066818220221101</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>48.709703243483503</v>
+      </c>
+      <c r="B409" s="0">
+        <v>2.2071874147333492</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>48.7095629489014</v>
+      </c>
+      <c r="B410" s="0">
+        <v>2.2074786966595688</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>48.709431790988063</v>
+      </c>
+      <c r="B411" s="0">
+        <v>2.2077508641773633</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>48.709673929491835</v>
+      </c>
+      <c r="B412" s="0">
+        <v>2.2072420394205263</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>48.709743002989271</v>
+      </c>
+      <c r="B413" s="0">
+        <v>2.2070980848428201</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>48.709746145802569</v>
+      </c>
+      <c r="B414" s="0">
+        <v>2.2070916660854558</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>48.709928934047341</v>
+      </c>
+      <c r="B415" s="0">
+        <v>2.2067088502617676</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>48.709851186115685</v>
+      </c>
+      <c r="B416" s="0">
+        <v>2.2068715351176103</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>48.709759327176883</v>
+      </c>
+      <c r="B417" s="0">
+        <v>2.2070622208019848</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>48.70989607487703</v>
+      </c>
+      <c r="B418" s="0">
+        <v>2.2067755078935249</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>48.709825252482972</v>
+      </c>
+      <c r="B419" s="0">
+        <v>2.2069210023511254</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>48.709856232811859</v>
+      </c>
+      <c r="B420" s="0">
+        <v>2.2068548454097865</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>48.710246674648907</v>
+      </c>
+      <c r="B421" s="0">
+        <v>2.2060294927074646</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>48.71033266908259</v>
+      </c>
+      <c r="B422" s="0">
+        <v>2.2058351365801858</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>48.710434411320293</v>
+      </c>
+      <c r="B423" s="0">
+        <v>2.2056148895911463</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>48.710381975932712</v>
+      </c>
+      <c r="B424" s="0">
+        <v>2.205725463553017</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>48.710760222483259</v>
+      </c>
+      <c r="B425" s="0">
+        <v>2.2048978285707692</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>48.710703563157679</v>
+      </c>
+      <c r="B426" s="0">
+        <v>2.2050843913854314</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>48.710741694289695</v>
+      </c>
+      <c r="B427" s="0">
+        <v>2.2050054388006686</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>48.710660675993346</v>
+      </c>
+      <c r="B428" s="0">
+        <v>2.2051644184103694</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>48.710748476192308</v>
+      </c>
+      <c r="B429" s="0">
+        <v>2.2049863932324851</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>48.710657561571658</v>
+      </c>
+      <c r="B430" s="0">
+        <v>2.2051859777325853</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>48.710845381467486</v>
+      </c>
+      <c r="B431" s="0">
+        <v>2.2048107208910848</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>48.710845381467486</v>
+      </c>
+      <c r="B432" s="0">
+        <v>2.2048107208910848</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>48.711618833878269</v>
+      </c>
+      <c r="B433" s="0">
+        <v>2.2030745933030365</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>48.711616959483081</v>
+      </c>
+      <c r="B434" s="0">
+        <v>2.2030749606408393</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>48.711614904696354</v>
+      </c>
+      <c r="B435" s="0">
+        <v>2.2030823436848626</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>48.711605108418148</v>
+      </c>
+      <c r="B436" s="0">
+        <v>2.2031028880195311</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>48.711596847291141</v>
+      </c>
+      <c r="B437" s="0">
+        <v>2.2031204658037442</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>48.711592941224147</v>
+      </c>
+      <c r="B438" s="0">
+        <v>2.2031308032189125</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>48.711584986260107</v>
+      </c>
+      <c r="B439" s="0">
+        <v>2.2031454760572742</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>48.711577187143988</v>
+      </c>
+      <c r="B440" s="0">
+        <v>2.2031642420531958</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>48.711572079948489</v>
+      </c>
+      <c r="B441" s="0">
+        <v>2.2031764284992379</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>48.711566518287611</v>
+      </c>
+      <c r="B442" s="0">
+        <v>2.2031892422850477</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>48.711561313894905</v>
+      </c>
+      <c r="B443" s="0">
+        <v>2.2032005695237862</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>48.711555442291442</v>
+      </c>
+      <c r="B444" s="0">
+        <v>2.2032139155474106</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>48.711549781442443</v>
+      </c>
+      <c r="B445" s="0">
+        <v>2.2032264955790728</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>48.711644941305508</v>
+      </c>
+      <c r="B446" s="0">
+        <v>2.2030278632614295</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>48.711639360777063</v>
+      </c>
+      <c r="B447" s="0">
+        <v>2.2030388739436324</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>48.711634109872989</v>
+      </c>
+      <c r="B448" s="0">
+        <v>2.2030531501430057</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>48.711629798433769</v>
+      </c>
+      <c r="B449" s="0">
+        <v>2.203064485583679</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>48.711624404310577</v>
+      </c>
+      <c r="B450" s="0">
+        <v>2.203078334050542</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>48.711617508726484</v>
+      </c>
+      <c r="B451" s="0">
+        <v>2.2030917585363912</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>48.711612006769848</v>
+      </c>
+      <c r="B452" s="0">
+        <v>2.2031046987276373</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>48.711557475780829</v>
+      </c>
+      <c r="B453" s="0">
+        <v>2.2032206675945059</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>48.711444055441191</v>
+      </c>
+      <c r="B454" s="0">
+        <v>2.2034594108599879</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>48.71111740759455</v>
+      </c>
+      <c r="B455" s="0">
+        <v>2.2041437031460158</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>48.711362348440531</v>
+      </c>
+      <c r="B456" s="0">
+        <v>2.2036306389545151</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>48.710792074886911</v>
+      </c>
+      <c r="B457" s="0">
+        <v>2.2048236450189975</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>48.710945268145324</v>
+      </c>
+      <c r="B458" s="0">
+        <v>2.2045047313451063</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>48.71038512786734</v>
+      </c>
+      <c r="B459" s="0">
+        <v>2.2056826175288826</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>48.710468476678869</v>
+      </c>
+      <c r="B460" s="0">
+        <v>2.2055045385211076</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>48.71060363411803</v>
+      </c>
+      <c r="B461" s="0">
+        <v>2.205221903027939</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>48.710603600284344</v>
+      </c>
+      <c r="B462" s="0">
+        <v>2.2052233249278248</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>48.710603628212503</v>
+      </c>
+      <c r="B463" s="0">
+        <v>2.2052233359619384</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>48.710603238544309</v>
+      </c>
+      <c r="B464" s="0">
+        <v>2.2052242831736879</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,3726 +53,3286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="2" max="2" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712782000739289</v>
+        <v>48.713045031217568</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2008250350188456</v>
+        <v>2.200207029837721</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.7128737954421</v>
+        <v>48.71305330872638</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2006416373379612</v>
+        <v>2.2002271900488975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712946578589005</v>
+        <v>48.713074828697536</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2004957033518644</v>
+        <v>2.2002796731989225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712997325476607</v>
+        <v>48.713103144980536</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2003941380208234</v>
+        <v>2.2003482564967216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.713012500421343</v>
+        <v>48.713162561800473</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2003638080579226</v>
+        <v>2.2004243309931737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.713012051968846</v>
+        <v>48.713185912497238</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2003648263429723</v>
+        <v>2.2004714019935969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.713012478059412</v>
+        <v>48.713188178948492</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2003641460688042</v>
+        <v>2.2004709223279662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.713012368184266</v>
+        <v>48.713192855031338</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2003644730742349</v>
+        <v>2.2004747346300175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.713012643075409</v>
+        <v>48.713200318557313</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2003639717057362</v>
+        <v>2.2004810865560409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.713012334186431</v>
+        <v>48.713195683620292</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2003646870347562</v>
+        <v>2.2004772141171345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.713012375691058</v>
+        <v>48.713185080763175</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2003646930052732</v>
+        <v>2.2004682984344002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.713012323521667</v>
+        <v>48.713177908170316</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2003649693607752</v>
+        <v>2.2004622226721962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.713012279863449</v>
+        <v>48.713221076300798</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2003650698169288</v>
+        <v>2.2005755876034576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.713014280804394</v>
+        <v>48.713221199722511</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2003611567188299</v>
+        <v>2.2005989980166798</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.713014879063778</v>
+        <v>48.713210894326139</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2003600170133724</v>
+        <v>2.2005802579669949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712794326342262</v>
+        <v>48.713200091073077</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2008025958018647</v>
+        <v>2.2005702932068174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712756387113579</v>
+        <v>48.71320865649659</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2008790978035187</v>
+        <v>2.2005852860111519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712756286395113</v>
+        <v>48.713216704959116</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2008794203731403</v>
+        <v>2.2006080532109462</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712756381927854</v>
+        <v>48.713192583861442</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2008795233675063</v>
+        <v>2.2006521279164248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712756468917611</v>
+        <v>48.713171805549614</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2008794877241153</v>
+        <v>2.2006802126992184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712756547077248</v>
+        <v>48.713187197337355</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2008793944928695</v>
+        <v>2.2007046241755757</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712755929657263</v>
+        <v>48.713174860473657</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2008807689927323</v>
+        <v>2.2006715316893586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712756218340033</v>
+        <v>48.71318006518829</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2008804743409574</v>
+        <v>2.2006711735027014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712756281358566</v>
+        <v>48.713228854907513</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2008806623586663</v>
+        <v>2.2006557229507124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712756186964604</v>
+        <v>48.713363491089929</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2008809572067474</v>
+        <v>2.2007505519880093</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712756121958748</v>
+        <v>48.713332519931342</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2008811998418398</v>
+        <v>2.2006998645592311</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712755451044913</v>
+        <v>48.713306251083921</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2008826819415939</v>
+        <v>2.2006397267240527</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712756007114159</v>
+        <v>48.713287925263728</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2008817424502589</v>
+        <v>2.2005802988781866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.71221902080984</v>
+        <v>48.713255404772056</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2018405539271466</v>
+        <v>2.2005136298786341</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712832081923125</v>
+        <v>48.713182748475198</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2006093147073349</v>
+        <v>2.2003959641580657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712784015171664</v>
+        <v>48.713166193321001</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2007047290200599</v>
+        <v>2.2003230265567861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712994389454359</v>
+        <v>48.713125232008444</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2002809414083639</v>
+        <v>2.2002349491822475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712784457730429</v>
+        <v>48.713113263784656</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2007014262855606</v>
+        <v>2.2002249478052214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712824742397274</v>
+        <v>48.713108891553603</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2006207245759546</v>
+        <v>2.2002214856917077</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712969808475158</v>
+        <v>48.713072965385699</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2003263179482304</v>
+        <v>2.2001913421373547</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712944305377739</v>
+        <v>48.713061936806661</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2003761748694282</v>
+        <v>2.2001819892708538</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.713043930627151</v>
+        <v>48.713015336621993</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2001720547075165</v>
+        <v>2.2003023201319603</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712720256877702</v>
+        <v>48.713005297276581</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2008232603888627</v>
+        <v>2.2002507866333856</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.713095703846946</v>
+        <v>48.71300262078946</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2000671319709109</v>
+        <v>2.2002668135968415</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.713017268833333</v>
+        <v>48.712967081271295</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2002227316955496</v>
+        <v>2.2002143855651135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.713021990732379</v>
+        <v>48.712984801714178</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2002123742267732</v>
+        <v>2.2002145108536606</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.713075606526935</v>
+        <v>48.71296173088556</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2001023329109386</v>
+        <v>2.2002422645185327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.713060443923816</v>
+        <v>48.712983611222313</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2001304248298053</v>
+        <v>2.2002015330017888</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.713226654748951</v>
+        <v>48.712955353708125</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1997933434721517</v>
+        <v>2.2001575731909297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.713557795514134</v>
+        <v>48.712909293029057</v>
       </c>
       <c r="B45" s="0">
-        <v>2.1991235972406087</v>
+        <v>2.200119202337119</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.713251912058354</v>
+        <v>48.712892426666393</v>
       </c>
       <c r="B46" s="0">
-        <v>2.199738286244767</v>
+        <v>2.2001050293023874</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.713489864975216</v>
+        <v>48.712890084990527</v>
       </c>
       <c r="B47" s="0">
-        <v>2.1992561082231328</v>
+        <v>2.2001028825531139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.713571748797875</v>
+        <v>48.712867356778638</v>
       </c>
       <c r="B48" s="0">
-        <v>2.1990896913658085</v>
+        <v>2.2000840721345329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.713843273545862</v>
+        <v>48.712858669351306</v>
       </c>
       <c r="B49" s="0">
-        <v>2.1985413300976262</v>
+        <v>2.2000772494036403</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.713837201738841</v>
+        <v>48.712848736224231</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1985497809576904</v>
+        <v>2.2000690634513682</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.713934712646171</v>
+        <v>48.712807311533766</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1983525499823919</v>
+        <v>2.1999640319542548</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.713937162181601</v>
+        <v>48.712825741477985</v>
       </c>
       <c r="B52" s="0">
-        <v>2.198345716274261</v>
+        <v>2.1999678262752624</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.714026215277556</v>
+        <v>48.712852593794707</v>
       </c>
       <c r="B53" s="0">
-        <v>2.19813007517965</v>
+        <v>2.2000082519416453</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.713544574143583</v>
+        <v>48.712892593222257</v>
       </c>
       <c r="B54" s="0">
-        <v>2.1990891235766306</v>
+        <v>2.2000527128970999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.713664804905157</v>
+        <v>48.712923359462188</v>
       </c>
       <c r="B55" s="0">
-        <v>2.1988479559265919</v>
+        <v>2.2000735980651864</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.713874671472425</v>
+        <v>48.712890593432512</v>
       </c>
       <c r="B56" s="0">
-        <v>2.1984235662163987</v>
+        <v>2.2001280064315485</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.713791720106379</v>
+        <v>48.712956984471966</v>
       </c>
       <c r="B57" s="0">
-        <v>2.1985881775099205</v>
+        <v>2.2001126848692603</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.713744846059292</v>
+        <v>48.71287819506577</v>
       </c>
       <c r="B58" s="0">
-        <v>2.1986756080070924</v>
+        <v>2.2002918674269258</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.713842960247064</v>
+        <v>48.71290272990553</v>
       </c>
       <c r="B59" s="0">
-        <v>2.1984729883736627</v>
+        <v>2.2003455367081344</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.713804608942482</v>
+        <v>48.712920848168338</v>
       </c>
       <c r="B60" s="0">
-        <v>2.1985488882529367</v>
+        <v>2.2003525069656584</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.713821819961311</v>
+        <v>48.712937691955354</v>
       </c>
       <c r="B61" s="0">
-        <v>2.1985246749500251</v>
+        <v>2.2003929972528633</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.713940887255667</v>
+        <v>48.713052741206354</v>
       </c>
       <c r="B62" s="0">
-        <v>2.1982977698336299</v>
+        <v>2.2005234736634756</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.713953704229347</v>
+        <v>48.713059622208604</v>
       </c>
       <c r="B63" s="0">
-        <v>2.1982770628476951</v>
+        <v>2.2005369832588104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.714042382104466</v>
+        <v>48.713067044268399</v>
       </c>
       <c r="B64" s="0">
-        <v>2.1980949757490911</v>
+        <v>2.2005550030967083</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.71403925632189</v>
+        <v>48.713094474620043</v>
       </c>
       <c r="B65" s="0">
-        <v>2.1981004531201349</v>
+        <v>2.2005323624708169</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.714034917424641</v>
+        <v>48.713091482553089</v>
       </c>
       <c r="B66" s="0">
-        <v>2.1981101736787569</v>
+        <v>2.200534257303294</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.714029855209624</v>
+        <v>48.71315369218491</v>
       </c>
       <c r="B67" s="0">
-        <v>2.1981205079375545</v>
+        <v>2.2004596301926931</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.714025573125952</v>
+        <v>48.713244340494136</v>
       </c>
       <c r="B68" s="0">
-        <v>2.1981289468599949</v>
+        <v>2.2005201750055541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.71402164520989</v>
+        <v>48.71324951673067</v>
       </c>
       <c r="B69" s="0">
-        <v>2.1981394445109101</v>
+        <v>2.2005249446894677</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.714016677930339</v>
+        <v>48.713239606902526</v>
       </c>
       <c r="B70" s="0">
-        <v>2.1981498915024384</v>
+        <v>2.2005162567764849</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.714011708056105</v>
+        <v>48.713236729662064</v>
       </c>
       <c r="B71" s="0">
-        <v>2.198159691403752</v>
+        <v>2.2005136695037231</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.714007472809833</v>
+        <v>56.48029482777627</v>
       </c>
       <c r="B72" s="0">
-        <v>2.1981705646583483</v>
+        <v>53.12656645550598</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.714002554403578</v>
+        <v>56.479361013352865</v>
       </c>
       <c r="B73" s="0">
-        <v>2.1981812726820174</v>
+        <v>53.134653877227798</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.713995189557082</v>
+        <v>56.478318444166419</v>
       </c>
       <c r="B74" s="0">
-        <v>2.1981977168965692</v>
+        <v>53.142758485042165</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.713991252296012</v>
+        <v>56.477401525731828</v>
       </c>
       <c r="B75" s="0">
-        <v>2.198207819133033</v>
+        <v>53.150872336007787</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.713985719663604</v>
+        <v>56.47646998953374</v>
       </c>
       <c r="B76" s="0">
-        <v>2.1982198625195979</v>
+        <v>53.158969650732381</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.713981869321792</v>
+        <v>56.475542437291253</v>
       </c>
       <c r="B77" s="0">
-        <v>2.1982299730636141</v>
+        <v>53.167047602205564</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.713978030523755</v>
+        <v>56.474614752116167</v>
       </c>
       <c r="B78" s="0">
-        <v>2.1982380373789514</v>
+        <v>53.175119745252623</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.713972234368335</v>
+        <v>56.47368948795495</v>
       </c>
       <c r="B79" s="0">
-        <v>2.198249626256509</v>
+        <v>53.183196245387258</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.713968208588078</v>
+        <v>56.472768427920705</v>
       </c>
       <c r="B80" s="0">
-        <v>2.1982616201654262</v>
+        <v>53.191268719664762</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.713964445597299</v>
+        <v>56.471835550612546</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1982719345650503</v>
+        <v>53.199376805696176</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.713959371865094</v>
+        <v>56.470906642996589</v>
       </c>
       <c r="B82" s="0">
-        <v>2.1982828232994223</v>
+        <v>53.207483683287279</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.713954632823437</v>
+        <v>56.469971144577912</v>
       </c>
       <c r="B83" s="0">
-        <v>2.1982958733309617</v>
+        <v>53.215614575228841</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.713864585865153</v>
+        <v>56.469047052507015</v>
       </c>
       <c r="B84" s="0">
-        <v>2.1984797508959053</v>
+        <v>53.223726298141116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.713660728315318</v>
+        <v>56.468123434627991</v>
       </c>
       <c r="B85" s="0">
-        <v>2.1988944631667948</v>
+        <v>53.231845010174396</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.713764000094322</v>
+        <v>56.467200272873029</v>
       </c>
       <c r="B86" s="0">
-        <v>2.1986874452657963</v>
+        <v>53.239970553183795</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.71339699245641</v>
+        <v>56.466286443005345</v>
       </c>
       <c r="B87" s="0">
-        <v>2.1994321286833372</v>
+        <v>53.24798485590037</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.71339699245641</v>
+        <v>56.46536388202405</v>
       </c>
       <c r="B88" s="0">
-        <v>2.1994321286833372</v>
+        <v>53.256130419456426</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712662469098781</v>
+        <v>56.464442358129823</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2009270408339878</v>
+        <v>53.264276678628569</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712017666035116</v>
+        <v>56.463521203290377</v>
       </c>
       <c r="B90" s="0">
-        <v>2.2022361966019952</v>
+        <v>53.272429454667155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712017666035116</v>
+        <v>56.462600819951149</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2022361966019952</v>
+        <v>53.280588739818605</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.712017666035116</v>
+        <v>56.461680823470871</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2022361966019952</v>
+        <v>53.288755426285135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.710109266964174</v>
+        <v>56.460761314259763</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2061107501984241</v>
+        <v>53.296929081212006</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.710108490662385</v>
+        <v>56.459842207533832</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2061148047736787</v>
+        <v>53.305109476387699</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.710242957834247</v>
+        <v>56.458923548231411</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2058406480773223</v>
+        <v>53.313296463711133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.710278157474605</v>
+        <v>56.458005570591325</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2057672723888371</v>
+        <v>53.321490932090235</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.710645826334705</v>
+        <v>56.457020915031016</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2050198381947195</v>
+        <v>53.329685650916034</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.710097699627923</v>
+        <v>56.456099141132178</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2061305025106761</v>
+        <v>53.337892948064464</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.710541838028092</v>
+        <v>56.455182675136115</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2052295450356536</v>
+        <v>53.346107633675352</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.710610822219557</v>
+        <v>56.454266673050974</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2050890905329577</v>
+        <v>53.354329363244844</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.710782572115448</v>
+        <v>56.453351313428087</v>
       </c>
       <c r="B101" s="0">
-        <v>2.204739435529814</v>
+        <v>53.362558494691015</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.710851642283934</v>
+        <v>56.452436404358728</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2045980956199491</v>
+        <v>53.370793469127712</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.710653823629563</v>
+        <v>56.451551737920497</v>
       </c>
       <c r="B103" s="0">
-        <v>2.204999055301847</v>
+        <v>53.379021867211925</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.710815455855467</v>
+        <v>56.450749663034117</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2046756225412532</v>
+        <v>53.387336621842863</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.710947386713954</v>
+        <v>56.449836345593731</v>
       </c>
       <c r="B105" s="0">
-        <v>2.204406131901155</v>
+        <v>53.395593061591185</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.71087455506639</v>
+        <v>56.448923461613731</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2045530935838098</v>
+        <v>53.403856168758857</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.710948547950444</v>
+        <v>56.448055711461137</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2044003943109773</v>
+        <v>53.41229628322391</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.711280255171801</v>
+        <v>56.447144304282801</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2037252701970367</v>
+        <v>53.42056720825866</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.711028914048995</v>
+        <v>56.446498557798407</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2042347064691383</v>
+        <v>53.429289152299361</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.711063547104217</v>
+        <v>56.445633443723771</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2041616548809064</v>
+        <v>53.437669080257464</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.711266647801594</v>
+        <v>56.444737566375188</v>
       </c>
       <c r="B111" s="0">
-        <v>2.203715435550305</v>
+        <v>53.445970248170738</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.711383884170282</v>
+        <v>56.443809338170304</v>
       </c>
       <c r="B112" s="0">
-        <v>2.203477506652074</v>
+        <v>53.454378669312426</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.711165201994206</v>
+        <v>56.442909630477431</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2039195813352546</v>
+        <v>53.462650111975087</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.711240458050391</v>
+        <v>56.441993568845739</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2037459992975874</v>
+        <v>53.470938518516782</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.711280047704925</v>
+        <v>56.441025056763408</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2037156504178492</v>
+        <v>53.479216069958909</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.711277158866508</v>
+        <v>56.44005636003812</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2037529283819084</v>
+        <v>53.487564781015784</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.711366947985852</v>
+        <v>56.439096488469531</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2035384656432848</v>
+        <v>53.495882575096829</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.711212849647701</v>
+        <v>56.438130677192397</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2038874516878817</v>
+        <v>53.504184000353533</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.711472462863455</v>
+        <v>56.437158132928545</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2032924050599543</v>
+        <v>53.512430600788612</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.711475916245391</v>
+        <v>56.436192188565293</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2032900806645537</v>
+        <v>53.520747211792028</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.71147147534986</v>
+        <v>56.43523256027089</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2032947624775154</v>
+        <v>53.529047677096294</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.711468816253884</v>
+        <v>56.434275353270124</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2033036071261933</v>
+        <v>53.537354920954499</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.711463896574841</v>
+        <v>56.433332743100102</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2033156901028956</v>
+        <v>53.545727039117487</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.711460423986957</v>
+        <v>56.432359654452412</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2033270456097584</v>
+        <v>53.554088150084205</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.711456232925258</v>
+        <v>56.431458482193662</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2033390089055875</v>
+        <v>53.56251148980315</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.711450588455072</v>
+        <v>56.430524755658858</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2033517971919681</v>
+        <v>53.570862891254997</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.711446017436671</v>
+        <v>56.429614478092418</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2033647263733349</v>
+        <v>53.579193386980599</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.711441581958354</v>
+        <v>56.428687440732851</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2033767648737377</v>
+        <v>53.587558328480732</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.71143582577708</v>
+        <v>56.427773741705948</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2033915682551824</v>
+        <v>53.595954087682664</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.711431035264802</v>
+        <v>56.426865946503128</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2034041443269747</v>
+        <v>53.604328604838571</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.711427704233536</v>
+        <v>56.425965267079341</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2034142212317667</v>
+        <v>53.612758645693404</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.711422444766029</v>
+        <v>56.4250583360663</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2034259783100652</v>
+        <v>53.621191734556128</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.711418093269565</v>
+        <v>56.424167352145737</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2034372309383845</v>
+        <v>53.629604825829553</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.711413874413246</v>
+        <v>56.423303739698497</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2034501423872821</v>
+        <v>53.63810306804119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.71140897905569</v>
+        <v>56.42242098806274</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2034631910333973</v>
+        <v>53.646570555982905</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.711403887616889</v>
+        <v>56.421500572309554</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2034764087837559</v>
+        <v>53.655037169311051</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.711399360165181</v>
+        <v>56.420619997078866</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2034892460694064</v>
+        <v>53.663581827977715</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.711393961438176</v>
+        <v>56.419744180677199</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2035030743651474</v>
+        <v>53.672126372214834</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.7113883004127</v>
+        <v>48.71304399365885</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2035160418954929</v>
+        <v>2.2005454124696744</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.71138319449485</v>
+        <v>48.713063634521952</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2035296973835057</v>
+        <v>2.2005148369706005</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.711005212705189</v>
+        <v>48.713086193331861</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2043018602005851</v>
+        <v>2.2004799235324004</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.711167737251841</v>
+        <v>56.416276469561488</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2039708286935706</v>
+        <v>53.706424194338325</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.710474570426328</v>
+        <v>56.415376591479458</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2053865667068875</v>
+        <v>53.714938044049468</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.710635389645986</v>
+        <v>56.414508904960272</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2050604718436553</v>
+        <v>53.723507280769645</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.710541744704067</v>
+        <v>56.413686589277667</v>
       </c>
       <c r="B145" s="0">
-        <v>2.205250960892176</v>
+        <v>53.732196932895519</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.710401480562311</v>
+        <v>56.412808798956711</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2055385856235175</v>
+        <v>53.740785133311839</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.710372997599848</v>
+        <v>56.411965105785626</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2056024343783198</v>
+        <v>53.749399396407284</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.710441488827222</v>
+        <v>56.411096816474881</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2054565579872918</v>
+        <v>53.758018822756746</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.710241038737735</v>
+        <v>56.410247073949336</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2058689668383349</v>
+        <v>53.766604676306876</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.710449817006229</v>
+        <v>56.409385107079984</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2054414629629333</v>
+        <v>53.775215976118581</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.710397151800628</v>
+        <v>56.40850328137094</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2055473782824047</v>
+        <v>53.783775161093295</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.710300119596752</v>
+        <v>56.40763371025195</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2057461154724361</v>
+        <v>53.792382796787507</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.710760217525198</v>
+        <v>56.406777200604772</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2048062969064453</v>
+        <v>53.800987987543287</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.71079292991778</v>
+        <v>56.405905063078684</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2047388101935397</v>
+        <v>53.809554598783848</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.710819808578997</v>
+        <v>56.405091978132767</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2046822067739878</v>
+        <v>53.818118906024509</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.710846847341856</v>
+        <v>56.40419852601628</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2046271254418102</v>
+        <v>53.826720792319762</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.711099933432351</v>
+        <v>56.403320129833411</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2041083413787828</v>
+        <v>53.835333540171313</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.711150060442954</v>
+        <v>56.402447978565363</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2040049820440695</v>
+        <v>53.843917353554993</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.711324948563871</v>
+        <v>56.401595258949918</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2036481397738421</v>
+        <v>53.852585500542738</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.711162248918136</v>
+        <v>56.400715654102825</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2039810048168023</v>
+        <v>53.86123173974989</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.711148839557595</v>
+        <v>56.399807974901627</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2040070658876041</v>
+        <v>53.869871574695907</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.711260157115248</v>
+        <v>56.398897890091483</v>
       </c>
       <c r="B162" s="0">
-        <v>2.203781016067456</v>
+        <v>53.878446869284815</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.711428853706686</v>
+        <v>56.39797910248069</v>
       </c>
       <c r="B163" s="0">
-        <v>2.203437202012557</v>
+        <v>53.887069461609322</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.711050389214655</v>
+        <v>56.397098027166138</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2042088936711513</v>
+        <v>53.895682370057465</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.711054106621631</v>
+        <v>56.396112478133816</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2042234967743668</v>
+        <v>53.905276414455123</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.711054106621631</v>
+        <v>56.395194656404037</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2042234967743668</v>
+        <v>53.91399207358306</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.711174006028365</v>
+        <v>56.394276010864019</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2039732127618561</v>
+        <v>53.922648027761127</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.71131052935916</v>
+        <v>56.393344687644188</v>
       </c>
       <c r="B168" s="0">
-        <v>2.203699600476829</v>
+        <v>53.931266858830988</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.711186463323529</v>
+        <v>56.392407656784428</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2039508193603141</v>
+        <v>53.939895103870143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.71117127238719</v>
+        <v>56.391528919272723</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2039812924425881</v>
+        <v>53.948624290539733</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.711387523486131</v>
+        <v>56.390654310577119</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2035394683764307</v>
+        <v>53.957375741392838</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.71136020890421</v>
+        <v>56.389770619080913</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2035975236854508</v>
+        <v>53.966151270962875</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.711362887267228</v>
+        <v>56.388903978791696</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2035950285923405</v>
+        <v>53.974876055172217</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.711360605309984</v>
+        <v>56.388027591681393</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2035981093168844</v>
+        <v>53.983618751086986</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.711355733409995</v>
+        <v>56.387156913819581</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2036084693957574</v>
+        <v>53.992368172678674</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.711350519940432</v>
+        <v>56.386292657647722</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2036190221941996</v>
+        <v>54.001134341229133</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.711345060277772</v>
+        <v>54.732767732526327</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2036311478665533</v>
+        <v>53.89660669536034</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.711339473988218</v>
+        <v>56.384557165996021</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2036435011483566</v>
+        <v>54.018785329166384</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.71133404568203</v>
+        <v>56.383685553541291</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2036562927800656</v>
+        <v>54.027529037471588</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.711328617615557</v>
+        <v>56.382806234722963</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2036691200663983</v>
+        <v>54.036406426148261</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.711322302626598</v>
+        <v>56.381922662813686</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2036829286987594</v>
+        <v>54.045245815314665</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.711317555458869</v>
+        <v>56.381039907591372</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2036945250980833</v>
+        <v>54.054083337543702</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.711313063658004</v>
+        <v>56.379807172037374</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2037069678106915</v>
+        <v>54.062380826021482</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.711307488674834</v>
+        <v>56.378938932479514</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2037218671102745</v>
+        <v>54.071194104133227</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.711302638298122</v>
+        <v>56.378066659964233</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2037351580311961</v>
+        <v>54.080024808119518</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.711297161993635</v>
+        <v>56.37720159313502</v>
       </c>
       <c r="B186" s="0">
-        <v>2.203750390368699</v>
+        <v>54.088790770691432</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.711292333374004</v>
+        <v>56.376334242417173</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2037627714997004</v>
+        <v>54.097594601544856</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.711288135933842</v>
+        <v>56.375439062969079</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2037726916284797</v>
+        <v>54.106552411392386</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.711281638482575</v>
+        <v>56.374566110357819</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2037865431211028</v>
+        <v>54.115444981088267</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.711358020205211</v>
+        <v>56.373696219305359</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2036316585822799</v>
+        <v>54.124316221053569</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.711403017533996</v>
+        <v>56.37282648284998</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2035409367405152</v>
+        <v>54.133197642672499</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.71133336077488</v>
+        <v>56.371955837412472</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2036852303885515</v>
+        <v>54.14210522984461</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.711095583713657</v>
+        <v>56.371131261796457</v>
       </c>
       <c r="B193" s="0">
-        <v>2.204175092667096</v>
+        <v>54.151037646120912</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.711095583713657</v>
+        <v>56.370314098835422</v>
       </c>
       <c r="B194" s="0">
-        <v>2.204175092667096</v>
+        <v>54.159671143800352</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.710619445528494</v>
+        <v>56.369473229824258</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2051537566723689</v>
+        <v>54.168458462397581</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.710586355040896</v>
+        <v>56.368622493880174</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2052220046195497</v>
+        <v>54.177319735696344</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.710261673429038</v>
+        <v>56.367791120893365</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2058903049407497</v>
+        <v>54.186021224039479</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.710261673429038</v>
+        <v>56.366889604916217</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2058903049407497</v>
+        <v>54.1949807513613</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.710261673429038</v>
+        <v>56.366075847461488</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2058903049407497</v>
+        <v>54.203951001223309</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.710261673429038</v>
+        <v>56.365252695501766</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2058903049407497</v>
+        <v>54.212959228541102</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.709039758780428</v>
+        <v>56.364438568891622</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2084025297592675</v>
+        <v>54.221986045133249</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.709269342359647</v>
+        <v>56.363614909567275</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2079302312767957</v>
+        <v>54.23101681849019</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.709269342359647</v>
+        <v>56.362789943411414</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2079302312767957</v>
+        <v>54.2400335931992</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.709730500096363</v>
+        <v>56.361941017466734</v>
       </c>
       <c r="B204" s="0">
-        <v>2.206983021003329</v>
+        <v>54.249011565949196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.709730500096363</v>
+        <v>56.361102170047687</v>
       </c>
       <c r="B205" s="0">
-        <v>2.206983021003329</v>
+        <v>54.258014170698232</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.710190583014828</v>
+        <v>56.36027274773064</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2060367216438128</v>
+        <v>54.267014342115331</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.710296966028771</v>
+        <v>56.359419970366929</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2058178095572494</v>
+        <v>54.27600266081955</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.710312960936392</v>
+        <v>56.358576373630044</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2057843392915695</v>
+        <v>54.285033535222901</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.710325771634359</v>
+        <v>56.357731828960404</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2057568280716997</v>
+        <v>54.29405237365679</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.710547388483342</v>
+        <v>56.356866134983307</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2053006554398804</v>
+        <v>54.303163905674232</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.710338663038506</v>
+        <v>56.356012850725087</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2057290941606214</v>
+        <v>54.312176790467532</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.710636692976131</v>
+        <v>56.355183000172502</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2051153479054393</v>
+        <v>54.321176871163743</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.71066953174882</v>
+        <v>56.354307443226986</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2050464256033431</v>
+        <v>54.330122871807554</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.710968610247051</v>
+        <v>56.353434908650641</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2044317379518024</v>
+        <v>54.339072790448256</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.710867783060664</v>
+        <v>56.352574680701039</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2046391960370841</v>
+        <v>54.348106803213476</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.71072165579691</v>
+        <v>56.351723845234702</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2049364762506256</v>
+        <v>54.357108603975931</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.710816979449454</v>
+        <v>56.350862699612804</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2047297379623414</v>
+        <v>54.366151377364609</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.710787675327751</v>
+        <v>56.349988471083847</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2047886726874246</v>
+        <v>54.375221046326779</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.710816044550384</v>
+        <v>56.349134204083747</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2047315985646199</v>
+        <v>54.384325107696931</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.710768602314936</v>
+        <v>56.348266700627796</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2048277913446004</v>
+        <v>54.393462796133562</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.710916279359346</v>
+        <v>56.34743497889086</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2045243541360256</v>
+        <v>54.402528045563159</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.711043359916246</v>
+        <v>56.346598992084509</v>
       </c>
       <c r="B222" s="0">
-        <v>2.204264309994743</v>
+        <v>54.411623882849014</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.711304893824817</v>
+        <v>56.345709634002923</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2037272512886465</v>
+        <v>54.420727773350713</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.711136122037189</v>
+        <v>56.344809789654484</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2040615191247377</v>
+        <v>54.429730100804818</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.711131587956963</v>
+        <v>56.343909247820989</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2040657164913826</v>
+        <v>54.4387202146413</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.71112780774935</v>
+        <v>56.343033926407436</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2040743300135577</v>
+        <v>54.447730771087976</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.711123109954059</v>
+        <v>56.342147302715055</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2040866973665061</v>
+        <v>54.456785246026477</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.711118112909972</v>
+        <v>56.341262441907389</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2040980249932978</v>
+        <v>54.465857535704998</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.711114041213065</v>
+        <v>56.34039604058151</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2041101183408802</v>
+        <v>54.474952449718266</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.711109621660711</v>
+        <v>56.339513790695051</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2041227316153669</v>
+        <v>54.484051114267068</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.711103460273023</v>
+        <v>56.338643648062039</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2041379588097891</v>
+        <v>54.49317409243357</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.711098753356133</v>
+        <v>56.337750721462946</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2041494562056658</v>
+        <v>54.50231818002365</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.71109359413574</v>
+        <v>56.336895523099564</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2041611769340581</v>
+        <v>54.511519042288498</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.711087438678049</v>
+        <v>56.336035897965274</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2041750543895113</v>
+        <v>54.520741219925121</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.711082233939663</v>
+        <v>56.335191634223037</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2041866252481484</v>
+        <v>54.529930104616618</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.711077290183454</v>
+        <v>56.334347939281784</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2041997710257348</v>
+        <v>54.539128058317438</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.711071608803309</v>
+        <v>56.333504647515625</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2042133385864045</v>
+        <v>54.548333200136611</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.711065764390199</v>
+        <v>56.332661831127645</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2042261025625991</v>
+        <v>54.557545903763206</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.711060773527315</v>
+        <v>56.331819686344048</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2042378826483304</v>
+        <v>54.566766034098237</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.711055640488354</v>
+        <v>56.330978005438325</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2042496542037728</v>
+        <v>54.575993742869578</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.711048688693396</v>
+        <v>56.330137140896476</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2042640677081709</v>
+        <v>54.585229133469504</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.711042296608703</v>
+        <v>56.329350084316786</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2042786826109486</v>
+        <v>54.594562157536636</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.711163657556753</v>
+        <v>56.328424661731248</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2040298905782869</v>
+        <v>54.603667509204229</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.711103781021137</v>
+        <v>56.327450372070473</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2041533325912126</v>
+        <v>54.612696171334811</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.710952239871325</v>
+        <v>56.326651546709101</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2044670402032605</v>
+        <v>54.622029147921374</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.710483365405644</v>
+        <v>56.325820727626969</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2054353559824613</v>
+        <v>54.631314723433526</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.710339776214234</v>
+        <v>56.324947065669996</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2057325279683768</v>
+        <v>54.640533529601406</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.710405827035501</v>
+        <v>56.324156331202531</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2055959031688741</v>
+        <v>54.649900470115</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.710164133207208</v>
+        <v>56.323303563797161</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2060974201268784</v>
+        <v>54.659337859731508</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.710069443877146</v>
+        <v>56.32255271479071</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2062986092911725</v>
+        <v>54.668714254470167</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.709698353739093</v>
+        <v>54.46182174406453</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2070610314707411</v>
+        <v>54.598875763825205</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.709997574217496</v>
+        <v>56.321019492639295</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2064432074292699</v>
+        <v>54.687536828254949</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.710242798834038</v>
+        <v>56.32012205381637</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2059376983017782</v>
+        <v>54.696842248599914</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.710085715480709</v>
+        <v>56.319262750405635</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2062638676776332</v>
+        <v>54.706158541400697</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.710184222949486</v>
+        <v>56.318431224534365</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2060608545431948</v>
+        <v>54.715478287307185</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.710078192371761</v>
+        <v>56.317597538699317</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2062792559538087</v>
+        <v>54.724835309233278</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.710264584877315</v>
+        <v>56.316762834128454</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2058951418206996</v>
+        <v>54.734221625149075</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.710368224989473</v>
+        <v>56.315929701181091</v>
       </c>
       <c r="B258" s="0">
-        <v>2.205679324025192</v>
+        <v>54.743599967490717</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.710323741254335</v>
+        <v>56.315098234181669</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2057696117384964</v>
+        <v>54.752976172398604</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.710338355398783</v>
+        <v>56.31426698161885</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2057382339635696</v>
+        <v>54.762361078755745</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.710365732724277</v>
+        <v>56.313430813996043</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2056811243146943</v>
+        <v>54.771817351860058</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.710532679538602</v>
+        <v>56.312597992770577</v>
       </c>
       <c r="B262" s="0">
-        <v>2.205335475521693</v>
+        <v>54.7812479603258</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.710475247470306</v>
+        <v>56.311765349443839</v>
       </c>
       <c r="B263" s="0">
-        <v>2.205453770913699</v>
+        <v>54.790690605914989</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.710595804716093</v>
+        <v>56.310934586326304</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2052048419136532</v>
+        <v>54.800127028196179</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.71086988173024</v>
+        <v>56.3101052357001</v>
       </c>
       <c r="B265" s="0">
-        <v>2.2046394202242992</v>
+        <v>54.809560642287778</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.71082560257755</v>
+        <v>56.309278005378495</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2047536508587782</v>
+        <v>54.818984843811236</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.710727695663039</v>
+        <v>56.308451238017348</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2049465384576483</v>
+        <v>54.8284161227432</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.71082112250582</v>
+        <v>56.3076251441599</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2047508739941457</v>
+        <v>54.8378552930876</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.711066017876803</v>
+        <v>56.306799586720075</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2042484044445656</v>
+        <v>54.8473018771424</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.711074220445546</v>
+        <v>56.305974537356398</v>
       </c>
       <c r="B270" s="0">
-        <v>2.204235056609158</v>
+        <v>54.856756012341769</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.711075775253491</v>
+        <v>56.305150133719309</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2042340290609404</v>
+        <v>54.866217860282561</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.711125329420028</v>
+        <v>56.304326172046402</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2041170324469022</v>
+        <v>54.875687203816433</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.7112341731846</v>
+        <v>56.303502885619693</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2038954324825943</v>
+        <v>54.88516442152126</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.711293487372124</v>
+        <v>56.302691302237726</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2037643903025321</v>
+        <v>54.894523700900599</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.711281189479749</v>
+        <v>56.301869212415625</v>
       </c>
       <c r="B275" s="0">
-        <v>2.203804308238611</v>
+        <v>54.904015793142001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.711234821859264</v>
+        <v>56.301047447508076</v>
       </c>
       <c r="B276" s="0">
-        <v>2.203891770273251</v>
+        <v>54.913515641933337</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.711231260157653</v>
+        <v>56.300226406307999</v>
       </c>
       <c r="B277" s="0">
-        <v>2.203900055484767</v>
+        <v>54.923023435470945</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.711225803303187</v>
+        <v>56.299405870429325</v>
       </c>
       <c r="B278" s="0">
-        <v>2.203910292064784</v>
+        <v>54.932538285792759</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.711220386861712</v>
+        <v>56.298585982424761</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2039236620792595</v>
+        <v>54.942061151511595</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.711215513784616</v>
+        <v>56.297766493871187</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2039347469811279</v>
+        <v>54.95159172409376</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.711210709217568</v>
+        <v>56.296947615447934</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2039434903909534</v>
+        <v>54.9611297982484</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.711205215214051</v>
+        <v>56.296129416188542</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2039567658738806</v>
+        <v>54.970675469064609</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.711200514771789</v>
+        <v>56.295290927540314</v>
       </c>
       <c r="B283" s="0">
-        <v>2.20396854834447</v>
+        <v>54.980286098061335</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.711195274935918</v>
+        <v>56.294475023668873</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2039796888653767</v>
+        <v>54.989844253995372</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.711190567342854</v>
+        <v>56.293654614397347</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2039920476453476</v>
+        <v>54.999423272828395</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.711186020380914</v>
+        <v>56.292835692512952</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2040032289247007</v>
+        <v>55.009007881324493</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.711179947816788</v>
+        <v>56.292017291735029</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2040164386064101</v>
+        <v>55.018600490679475</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.711174685869338</v>
+        <v>56.291199762819346</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2040279687540796</v>
+        <v>55.028199976364341</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.711168165754756</v>
+        <v>56.290386237243602</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2040410245149227</v>
+        <v>55.037797659653364</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.711163001029192</v>
+        <v>56.289573838157487</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2040523452086656</v>
+        <v>55.047400869920196</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.711158006678367</v>
+        <v>56.288763973433575</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2040643939298783</v>
+        <v>55.057006630350863</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.711152168194744</v>
+        <v>56.287950501136436</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2040785092073274</v>
+        <v>55.06663151480462</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.711147108415886</v>
+        <v>56.28713639343502</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2040917035248588</v>
+        <v>55.076268384140477</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.711141617659763</v>
+        <v>56.28632231432465</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2041041608826655</v>
+        <v>55.085913328446409</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.710902129243301</v>
+        <v>56.285510850590413</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2046031945492906</v>
+        <v>55.095560452399887</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.710836208586379</v>
+        <v>56.284701859499968</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2047419438536608</v>
+        <v>55.10521066455172</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.710766573932105</v>
+        <v>56.284035644115321</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2048859203277957</v>
+        <v>55.113351579096325</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.710488637734521</v>
+        <v>56.28322084937021</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2054622763365832</v>
+        <v>55.123053602738175</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.710563756326216</v>
+        <v>56.282409652401832</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2053062818096256</v>
+        <v>55.132757063199136</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.710444410172407</v>
+        <v>56.281636539690865</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2055533407475903</v>
+        <v>55.142632038109305</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.710188909895734</v>
+        <v>56.280838756534372</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2060854684869047</v>
+        <v>55.15244823669024</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.710188909895734</v>
+        <v>56.280051119690462</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2060854684869047</v>
+        <v>55.162354658881554</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.709705438722217</v>
+        <v>56.279236865114392</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2070904595838146</v>
+        <v>55.172146351075398</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.709706726695039</v>
+        <v>56.278418989582363</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2070867589525038</v>
+        <v>55.181989418950785</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.709867595676272</v>
+        <v>56.277609486519417</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2067527163794925</v>
+        <v>55.191755023059393</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.709833993870213</v>
+        <v>56.276789848284011</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2068217887881727</v>
+        <v>55.201644213078822</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.709833993870213</v>
+        <v>56.27597915297401</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2068217887881727</v>
+        <v>55.211453251639021</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.709768983323073</v>
+        <v>56.275164085720483</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2069527554986617</v>
+        <v>55.221321164856327</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.70991072759049</v>
+        <v>56.274357258491101</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2066591410645744</v>
+        <v>55.231116456822512</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.709967343874894</v>
+        <v>56.273554715032283</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2065413515197654</v>
+        <v>55.240879028100998</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.710244411591248</v>
+        <v>56.272753054031071</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2059641325631807</v>
+        <v>55.250648243437496</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.710272079526654</v>
+        <v>56.271951916537709</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2059072305915923</v>
+        <v>55.260425728434427</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.709985643274962</v>
+        <v>56.271151335559985</v>
       </c>
       <c r="B313" s="0">
-        <v>2.206501681890245</v>
+        <v>55.27021088672916</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.709892551487243</v>
+        <v>56.270351370381128</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2066946241628913</v>
+        <v>55.280004088338799</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.710335267306107</v>
+        <v>56.269551792770308</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2057759325415782</v>
+        <v>55.289804941363819</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.710548263623352</v>
+        <v>56.268752975674609</v>
       </c>
       <c r="B316" s="0">
-        <v>2.205335414620607</v>
+        <v>55.299613579388314</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.710776666148909</v>
+        <v>56.267954784084914</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2048602916841666</v>
+        <v>55.309430217052409</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.710746639186716</v>
+        <v>56.267157011360126</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2049373269261801</v>
+        <v>55.319254520992722</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.710429133342188</v>
+        <v>56.266359818791372</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2055929380059656</v>
+        <v>55.329086233930156</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.710747821262508</v>
+        <v>56.265583349900254</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2049288282677542</v>
+        <v>55.33886930703671</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.710790135291489</v>
+        <v>56.264786224383769</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2048327799314382</v>
+        <v>55.348720098405636</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.710544662189712</v>
+        <v>56.263990348430752</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2053544709464328</v>
+        <v>55.358576580650926</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.710527262859387</v>
+        <v>56.263186001012961</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2053877631901222</v>
+        <v>55.36846740450428</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.710521809208757</v>
+        <v>56.262393226266283</v>
       </c>
       <c r="B324" s="0">
-        <v>2.205392006565134</v>
+        <v>55.378334345673473</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.710525867242964</v>
+        <v>56.261589980598927</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2053828201829253</v>
+        <v>55.388330788730293</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.710596899487413</v>
+        <v>56.260793909160768</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2052367245009878</v>
+        <v>55.398232336153718</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.71071949242139</v>
+        <v>56.259996150244128</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2049871868309405</v>
+        <v>55.408142060874333</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.710612702381908</v>
+        <v>56.259204180433713</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2052149537816668</v>
+        <v>55.418044540040164</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.710608220473823</v>
+        <v>56.25841276767202</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2052170114369054</v>
+        <v>55.427954925863723</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.710604826777399</v>
+        <v>56.257622021082661</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2052262949636106</v>
+        <v>55.437873298901557</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.710599991076109</v>
+        <v>56.256831786640973</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2052371404977125</v>
+        <v>55.44779980520866</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.710594350242758</v>
+        <v>56.256042030807386</v>
       </c>
       <c r="B332" s="0">
-        <v>2.205249779694852</v>
+        <v>55.457733736973154</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.710589011189718</v>
+        <v>56.255253037942431</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2052619565277292</v>
+        <v>55.467675698037844</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.710583983936076</v>
+        <v>56.254554502348313</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2052737137036393</v>
+        <v>55.476700722152003</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.710578717295967</v>
+        <v>56.253783352150542</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2052850916037574</v>
+        <v>55.486622924786182</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.710573286426921</v>
+        <v>56.252995761606641</v>
       </c>
       <c r="B336" s="0">
-        <v>2.205296818955782</v>
+        <v>55.496590902851871</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.710566749827272</v>
+        <v>56.252219221701438</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2053119895945992</v>
+        <v>55.506570625159881</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.710562085302428</v>
+        <v>56.251430989213453</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2053223321476083</v>
+        <v>55.516574525912006</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.710556772815274</v>
+        <v>56.250680624911837</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2053335309455546</v>
+        <v>55.526203857870108</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.710550888986425</v>
+        <v>56.249893007560466</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2053463530026574</v>
+        <v>55.536229217181465</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.710545830427194</v>
+        <v>56.249105155922372</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2053577634932262</v>
+        <v>55.546270091782645</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.710539716665082</v>
+        <v>56.248316534132144</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2053701703394455</v>
+        <v>55.556332914361647</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.710533428784089</v>
+        <v>56.247534539525297</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2053835872474319</v>
+        <v>55.566342877617316</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.710766461667411</v>
+        <v>56.246746566688096</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2049003998152137</v>
+        <v>55.576428627305319</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.710760113385156</v>
+        <v>56.245872141587029</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2049143464972691</v>
+        <v>55.586376879436301</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.710755174275306</v>
+        <v>56.245097136956709</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2049268501353203</v>
+        <v>55.596459872386021</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.710690369230605</v>
+        <v>56.244277964309788</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2050627646367351</v>
+        <v>55.606493578415126</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.710618585029636</v>
+        <v>56.243470374108704</v>
       </c>
       <c r="B348" s="0">
-        <v>2.205212785051696</v>
+        <v>55.616592708449495</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.710433245367504</v>
+        <v>56.242701045750621</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2055982987375429</v>
+        <v>55.626701193371396</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.710226139973365</v>
+        <v>56.241899695925632</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2060304102389243</v>
+        <v>55.636839099689233</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.709802786138972</v>
+        <v>56.241105705701891</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2069112756982756</v>
+        <v>55.64696430157148</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.709870778969652</v>
+        <v>56.240310509622098</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2067717298103453</v>
+        <v>55.657077429348576</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.70966572430364</v>
+        <v>56.239519568082343</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2071989609095879</v>
+        <v>55.667232137709462</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.70973078041191</v>
+        <v>56.238735539453046</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2070678275477955</v>
+        <v>55.677434407478913</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.709804468999629</v>
+        <v>56.237986636220391</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2069132908215181</v>
+        <v>55.687689826754102</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.70982357403696</v>
+        <v>56.237230649239855</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2068713223872889</v>
+        <v>55.697969680307004</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.709552487408466</v>
+        <v>56.236444367723514</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2074356616218553</v>
+        <v>55.708130922200873</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.70944971778188</v>
+        <v>56.235651638341956</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2076480606207873</v>
+        <v>55.718326763014645</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.709480978197632</v>
+        <v>56.23483324704057</v>
       </c>
       <c r="B359" s="0">
-        <v>2.207582876765438</v>
+        <v>55.728555859539036</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.709943774074127</v>
+        <v>56.234049227536943</v>
       </c>
       <c r="B360" s="0">
-        <v>2.206618649257253</v>
+        <v>55.738726396619874</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.709877073480392</v>
+        <v>56.23325691699069</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2067584205648072</v>
+        <v>55.748840166007327</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.710087830631636</v>
+        <v>56.232478949589584</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2063188810510224</v>
+        <v>55.759030457534152</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.709892217955542</v>
+        <v>56.231767576730064</v>
       </c>
       <c r="B363" s="0">
-        <v>2.206724229348763</v>
+        <v>55.769211882664031</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.709909676286919</v>
+        <v>56.231004045685332</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2066877176591269</v>
+        <v>55.779500213021954</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.710175343572139</v>
+        <v>56.230258337518443</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2061343592146137</v>
+        <v>55.789869435647333</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.710037140096219</v>
+        <v>56.229523052986167</v>
       </c>
       <c r="B366" s="0">
-        <v>2.20642048282975</v>
+        <v>55.800093523822255</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.710066467470789</v>
+        <v>56.228778084992712</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2063578864457853</v>
+        <v>55.810300785746342</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.710275062866821</v>
+        <v>56.228042119254738</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2059247627855205</v>
+        <v>55.820490973280037</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.710646626889087</v>
+        <v>56.227305997186399</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2051520912610365</v>
+        <v>55.83058962424316</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.710589289073752</v>
+        <v>56.226571925798325</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2052809877309456</v>
+        <v>55.840754999689345</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.710341201100107</v>
+        <v>56.22580799025517</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2057857151906277</v>
+        <v>55.850904971743176</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.710541238304202</v>
+        <v>56.22505902793305</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2054109598315193</v>
+        <v>55.861126020865065</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.710675674371792</v>
+        <v>56.224300897096569</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2051340151735546</v>
+        <v>55.871380383554275</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.710574612599103</v>
+        <v>56.223542029923856</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2052928511844119</v>
+        <v>55.881613259323579</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.710507195721043</v>
+        <v>56.222794274804642</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2054287761364852</v>
+        <v>55.891866392767938</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.710265300175884</v>
+        <v>56.222046096328</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2060386465044863</v>
+        <v>55.902073106670919</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.710591453484419</v>
+        <v>56.221288335177469</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2052896407939522</v>
+        <v>55.912328414176727</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.710629681675393</v>
+        <v>56.220531624546681</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2052092013387479</v>
+        <v>55.922585200492407</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.710688241737771</v>
+        <v>56.219763484548615</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2051023732510844</v>
+        <v>55.932840080981926</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.710547981883558</v>
+        <v>56.219003283410387</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2053947933293223</v>
+        <v>55.943098932248063</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.710632297324025</v>
+        <v>56.21822402396085</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2052187245057415</v>
+        <v>55.953332584187884</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.710695601064117</v>
+        <v>56.217464281268981</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2050867245570269</v>
+        <v>55.963645775433285</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.710691421036671</v>
+        <v>56.216676230312807</v>
       </c>
       <c r="B383" s="0">
-        <v>2.20509676680713</v>
+        <v>55.973888122927761</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.71068739616193</v>
+        <v>56.215881926211985</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2051047836427897</v>
+        <v>55.984126753148551</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.710681723114035</v>
+        <v>56.215083354887859</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2051144434064547</v>
+        <v>55.994425497479846</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.710674218449192</v>
+        <v>56.214269604913952</v>
       </c>
       <c r="B386" s="0">
-        <v>2.2051328194492084</v>
+        <v>56.004708932820144</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.710669436518764</v>
+        <v>56.213488465767497</v>
       </c>
       <c r="B387" s="0">
-        <v>2.2051444432474718</v>
+        <v>56.015047856652714</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.710663840283054</v>
+        <v>56.212714746332459</v>
       </c>
       <c r="B388" s="0">
-        <v>2.2051557449364547</v>
+        <v>56.025400548603422</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.710658521457589</v>
+        <v>56.211934214686693</v>
       </c>
       <c r="B389" s="0">
-        <v>2.2051682521976552</v>
+        <v>56.035793542649202</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.710653169311506</v>
+        <v>56.211167148212844</v>
       </c>
       <c r="B390" s="0">
-        <v>2.2051805548396106</v>
+        <v>56.046234762658237</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.710647803315972</v>
+        <v>56.210369364238105</v>
       </c>
       <c r="B391" s="0">
-        <v>2.2051923537092493</v>
+        <v>56.056630735648987</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.710642183439404</v>
+        <v>56.2095937113085</v>
       </c>
       <c r="B392" s="0">
-        <v>2.2052065196628474</v>
+        <v>56.06705696726668</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.710637874456296</v>
+        <v>56.208824211312866</v>
       </c>
       <c r="B393" s="0">
-        <v>2.2052160230011286</v>
+        <v>56.077538186371214</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.71063294390067</v>
+        <v>56.2080657236069</v>
       </c>
       <c r="B394" s="0">
-        <v>2.2052264296965616</v>
+        <v>56.087958018272055</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.710626410020154</v>
+        <v>56.207328740503492</v>
       </c>
       <c r="B395" s="0">
-        <v>2.2052400458382349</v>
+        <v>56.098422665272487</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.71062235200732</v>
+        <v>56.206576947324784</v>
       </c>
       <c r="B396" s="0">
-        <v>2.2052522025222276</v>
+        <v>56.108868346668707</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.710617068125714</v>
+        <v>56.205825843606007</v>
       </c>
       <c r="B397" s="0">
-        <v>2.2052646319338423</v>
+        <v>56.119321729504804</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.71061217776672</v>
+        <v>56.205075422889607</v>
       </c>
       <c r="B398" s="0">
-        <v>2.205275719830182</v>
+        <v>56.129783589715622</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.710645287790442</v>
+        <v>56.204325600121834</v>
       </c>
       <c r="B399" s="0">
-        <v>2.2052074624586302</v>
+        <v>56.140253861928152</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.710563470301374</v>
+        <v>56.203576297805789</v>
       </c>
       <c r="B400" s="0">
-        <v>2.2053791703054042</v>
+        <v>56.150732121938354</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>48.710454843253444</v>
+        <v>56.202884170746955</v>
       </c>
       <c r="B401" s="0">
-        <v>2.2056041306855128</v>
+        <v>56.161217776547652</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>48.710052868092859</v>
+        <v>56.20213605992933</v>
       </c>
       <c r="B402" s="0">
-        <v>2.2064455297284997</v>
+        <v>56.171712244950577</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>48.710147373066256</v>
+        <v>56.201388752675129</v>
       </c>
       <c r="B403" s="0">
-        <v>2.2062517290118895</v>
+        <v>56.182213718265722</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>48.709929835549737</v>
+        <v>56.200650145725753</v>
       </c>
       <c r="B404" s="0">
-        <v>2.206707930605933</v>
+        <v>56.192724270405968</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>48.709725208115138</v>
+        <v>56.199899746548312</v>
       </c>
       <c r="B405" s="0">
-        <v>2.2071370306196734</v>
+        <v>56.203243391366591</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>48.709710226022104</v>
+        <v>56.199154043094623</v>
       </c>
       <c r="B406" s="0">
-        <v>2.207169994639905</v>
+        <v>56.213770539514286</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>48.709872105053449</v>
+        <v>56.198409257529384</v>
       </c>
       <c r="B407" s="0">
-        <v>2.2068349050258953</v>
+        <v>56.224306014296211</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>48.709946076922286</v>
+        <v>56.197664630645534</v>
       </c>
       <c r="B408" s="0">
-        <v>2.2066818220221101</v>
+        <v>56.234849314150189</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>48.709703243483503</v>
+        <v>56.196920866259497</v>
       </c>
       <c r="B409" s="0">
-        <v>2.2071874147333492</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="0">
-        <v>48.7095629489014</v>
-      </c>
-      <c r="B410" s="0">
-        <v>2.2074786966595688</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="0">
-        <v>48.709431790988063</v>
-      </c>
-      <c r="B411" s="0">
-        <v>2.2077508641773633</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="0">
-        <v>48.709673929491835</v>
-      </c>
-      <c r="B412" s="0">
-        <v>2.2072420394205263</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="0">
-        <v>48.709743002989271</v>
-      </c>
-      <c r="B413" s="0">
-        <v>2.2070980848428201</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="0">
-        <v>48.709746145802569</v>
-      </c>
-      <c r="B414" s="0">
-        <v>2.2070916660854558</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="0">
-        <v>48.709928934047341</v>
-      </c>
-      <c r="B415" s="0">
-        <v>2.2067088502617676</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="0">
-        <v>48.709851186115685</v>
-      </c>
-      <c r="B416" s="0">
-        <v>2.2068715351176103</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="0">
-        <v>48.709759327176883</v>
-      </c>
-      <c r="B417" s="0">
-        <v>2.2070622208019848</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="0">
-        <v>48.70989607487703</v>
-      </c>
-      <c r="B418" s="0">
-        <v>2.2067755078935249</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="0">
-        <v>48.709825252482972</v>
-      </c>
-      <c r="B419" s="0">
-        <v>2.2069210023511254</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="0">
-        <v>48.709856232811859</v>
-      </c>
-      <c r="B420" s="0">
-        <v>2.2068548454097865</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="0">
-        <v>48.710246674648907</v>
-      </c>
-      <c r="B421" s="0">
-        <v>2.2060294927074646</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="0">
-        <v>48.71033266908259</v>
-      </c>
-      <c r="B422" s="0">
-        <v>2.2058351365801858</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="0">
-        <v>48.710434411320293</v>
-      </c>
-      <c r="B423" s="0">
-        <v>2.2056148895911463</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="0">
-        <v>48.710381975932712</v>
-      </c>
-      <c r="B424" s="0">
-        <v>2.205725463553017</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="0">
-        <v>48.710760222483259</v>
-      </c>
-      <c r="B425" s="0">
-        <v>2.2048978285707692</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="0">
-        <v>48.710703563157679</v>
-      </c>
-      <c r="B426" s="0">
-        <v>2.2050843913854314</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="0">
-        <v>48.710741694289695</v>
-      </c>
-      <c r="B427" s="0">
-        <v>2.2050054388006686</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="0">
-        <v>48.710660675993346</v>
-      </c>
-      <c r="B428" s="0">
-        <v>2.2051644184103694</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="0">
-        <v>48.710748476192308</v>
-      </c>
-      <c r="B429" s="0">
-        <v>2.2049863932324851</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="0">
-        <v>48.710657561571658</v>
-      </c>
-      <c r="B430" s="0">
-        <v>2.2051859777325853</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="0">
-        <v>48.710845381467486</v>
-      </c>
-      <c r="B431" s="0">
-        <v>2.2048107208910848</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="0">
-        <v>48.710845381467486</v>
-      </c>
-      <c r="B432" s="0">
-        <v>2.2048107208910848</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="0">
-        <v>48.711618833878269</v>
-      </c>
-      <c r="B433" s="0">
-        <v>2.2030745933030365</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="0">
-        <v>48.711616959483081</v>
-      </c>
-      <c r="B434" s="0">
-        <v>2.2030749606408393</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="0">
-        <v>48.711614904696354</v>
-      </c>
-      <c r="B435" s="0">
-        <v>2.2030823436848626</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="0">
-        <v>48.711605108418148</v>
-      </c>
-      <c r="B436" s="0">
-        <v>2.2031028880195311</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="0">
-        <v>48.711596847291141</v>
-      </c>
-      <c r="B437" s="0">
-        <v>2.2031204658037442</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="0">
-        <v>48.711592941224147</v>
-      </c>
-      <c r="B438" s="0">
-        <v>2.2031308032189125</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0">
-        <v>48.711584986260107</v>
-      </c>
-      <c r="B439" s="0">
-        <v>2.2031454760572742</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="0">
-        <v>48.711577187143988</v>
-      </c>
-      <c r="B440" s="0">
-        <v>2.2031642420531958</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="0">
-        <v>48.711572079948489</v>
-      </c>
-      <c r="B441" s="0">
-        <v>2.2031764284992379</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="0">
-        <v>48.711566518287611</v>
-      </c>
-      <c r="B442" s="0">
-        <v>2.2031892422850477</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="0">
-        <v>48.711561313894905</v>
-      </c>
-      <c r="B443" s="0">
-        <v>2.2032005695237862</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0">
-        <v>48.711555442291442</v>
-      </c>
-      <c r="B444" s="0">
-        <v>2.2032139155474106</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="0">
-        <v>48.711549781442443</v>
-      </c>
-      <c r="B445" s="0">
-        <v>2.2032264955790728</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="0">
-        <v>48.711644941305508</v>
-      </c>
-      <c r="B446" s="0">
-        <v>2.2030278632614295</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="0">
-        <v>48.711639360777063</v>
-      </c>
-      <c r="B447" s="0">
-        <v>2.2030388739436324</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="0">
-        <v>48.711634109872989</v>
-      </c>
-      <c r="B448" s="0">
-        <v>2.2030531501430057</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="0">
-        <v>48.711629798433769</v>
-      </c>
-      <c r="B449" s="0">
-        <v>2.203064485583679</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="0">
-        <v>48.711624404310577</v>
-      </c>
-      <c r="B450" s="0">
-        <v>2.203078334050542</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="0">
-        <v>48.711617508726484</v>
-      </c>
-      <c r="B451" s="0">
-        <v>2.2030917585363912</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="0">
-        <v>48.711612006769848</v>
-      </c>
-      <c r="B452" s="0">
-        <v>2.2031046987276373</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="0">
-        <v>48.711557475780829</v>
-      </c>
-      <c r="B453" s="0">
-        <v>2.2032206675945059</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="0">
-        <v>48.711444055441191</v>
-      </c>
-      <c r="B454" s="0">
-        <v>2.2034594108599879</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="0">
-        <v>48.71111740759455</v>
-      </c>
-      <c r="B455" s="0">
-        <v>2.2041437031460158</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0">
-        <v>48.711362348440531</v>
-      </c>
-      <c r="B456" s="0">
-        <v>2.2036306389545151</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="0">
-        <v>48.710792074886911</v>
-      </c>
-      <c r="B457" s="0">
-        <v>2.2048236450189975</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="0">
-        <v>48.710945268145324</v>
-      </c>
-      <c r="B458" s="0">
-        <v>2.2045047313451063</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0">
-        <v>48.71038512786734</v>
-      </c>
-      <c r="B459" s="0">
-        <v>2.2056826175288826</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="0">
-        <v>48.710468476678869</v>
-      </c>
-      <c r="B460" s="0">
-        <v>2.2055045385211076</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="0">
-        <v>48.71060363411803</v>
-      </c>
-      <c r="B461" s="0">
-        <v>2.205221903027939</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0">
-        <v>48.710603600284344</v>
-      </c>
-      <c r="B462" s="0">
-        <v>2.2052233249278248</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="0">
-        <v>48.710603628212503</v>
-      </c>
-      <c r="B463" s="0">
-        <v>2.2052233359619384</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="0">
-        <v>48.710603238544309</v>
-      </c>
-      <c r="B464" s="0">
-        <v>2.2052242831736879</v>
+        <v>56.245401608929775</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3274 +65,3962 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.713045031217568</v>
+        <v>48.71280997331904</v>
       </c>
       <c r="B1" s="0">
-        <v>2.200207029837721</v>
+        <v>2.2009750013808542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.71305330872638</v>
+        <v>48.712809866381235</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2002271900488975</v>
+        <v>2.2009750646231976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.713074828697536</v>
+        <v>48.712809926669337</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2002796731989225</v>
+        <v>2.2009749377411754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.713103144980536</v>
+        <v>48.712809880703844</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2003482564967216</v>
+        <v>2.2009749490325703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.713162561800473</v>
+        <v>48.712809856945924</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2004243309931737</v>
+        <v>2.2009750051940786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.713185912497238</v>
+        <v>48.712809942027576</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2004714019935969</v>
+        <v>2.2009749876921641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.713188178948492</v>
+        <v>48.712809922506267</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2004709223279662</v>
+        <v>2.2009749121203752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.713192855031338</v>
+        <v>48.712809869319578</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2004747346300175</v>
+        <v>2.2009749631856828</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.713200318557313</v>
+        <v>48.712809895126505</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2004810865560409</v>
+        <v>2.2009749897380084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.713195683620292</v>
+        <v>48.712809871502159</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2004772141171345</v>
+        <v>2.2009749840314812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.713185080763175</v>
+        <v>48.71280978752047</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2004682984344002</v>
+        <v>2.2009749731638269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.713177908170316</v>
+        <v>48.712809829241984</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2004622226721962</v>
+        <v>2.2009749777119838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.713221076300798</v>
+        <v>48.712809771322057</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2005755876034576</v>
+        <v>2.2009749821034745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.713221199722511</v>
+        <v>48.712809892187799</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2005989980166798</v>
+        <v>2.2009749712588924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.713210894326139</v>
+        <v>48.71280974421461</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2005802579669949</v>
+        <v>2.2009749847657383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.713200091073077</v>
+        <v>48.712809752818949</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2005702932068174</v>
+        <v>2.2009750201459268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.71320865649659</v>
+        <v>48.712809786645501</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2005852860111519</v>
+        <v>2.2009749355875643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.713216704959116</v>
+        <v>48.712809713712154</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2006080532109462</v>
+        <v>2.2009750087704934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.713192583861442</v>
+        <v>48.712809758404987</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2006521279164248</v>
+        <v>2.200974906438744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.713171805549614</v>
+        <v>48.712809749879504</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2006802126992184</v>
+        <v>2.2009749250172313</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.713187197337355</v>
+        <v>48.712809721830929</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2007046241755757</v>
+        <v>2.2009749194747133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.713174860473657</v>
+        <v>48.712809766319097</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2006715316893586</v>
+        <v>2.2009749609308749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.71318006518829</v>
+        <v>48.71280970825206</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2006711735027014</v>
+        <v>2.200974976693272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.713228854907513</v>
+        <v>48.712809665094334</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2006557229507124</v>
+        <v>2.200974853541243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.713363491089929</v>
+        <v>48.712809605987737</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2007505519880093</v>
+        <v>2.2009748573749017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.713332519931342</v>
+        <v>48.712809632878951</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2006998645592311</v>
+        <v>2.2009748310942947</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.713306251083921</v>
+        <v>48.712809553738232</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2006397267240527</v>
+        <v>2.2009749361878073</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.713287925263728</v>
+        <v>48.712809525038125</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2005802988781866</v>
+        <v>2.2009748899115591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.713255404772056</v>
+        <v>48.712809540736338</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2005136298786341</v>
+        <v>2.200974852319979</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.713182748475198</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2003959641580657</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.713166193321001</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2003230265567861</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.713125232008444</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2002349491822475</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.713113263784656</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2002249478052214</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.713108891553603</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2002214856917077</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.713072965385699</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2001913421373547</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.713061936806661</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2001819892708538</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.713015336621993</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2003023201319603</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.713005297276581</v>
+        <v>48.712809460517029</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2002507866333856</v>
+        <v>2.2009748976961863</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.71300262078946</v>
+        <v>48.712809539682766</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2002668135968415</v>
+        <v>2.2009747304545488</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712967081271295</v>
+        <v>48.712809604263328</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2002143855651135</v>
+        <v>2.2009747850939698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712984801714178</v>
+        <v>48.712809548155931</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2002145108536606</v>
+        <v>2.200974741444595</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.71296173088556</v>
+        <v>48.71280952929277</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2002422645185327</v>
+        <v>2.2009747420172219</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712983611222313</v>
+        <v>48.71280945831461</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2002015330017888</v>
+        <v>2.2009747272033389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712955353708125</v>
+        <v>48.712809566737732</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2001575731909297</v>
+        <v>2.2009747396132884</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712909293029057</v>
+        <v>48.712809427188851</v>
       </c>
       <c r="B45" s="0">
-        <v>2.200119202337119</v>
+        <v>2.2009747792112773</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712892426666393</v>
+        <v>48.712809502029373</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2001050293023874</v>
+        <v>2.2009747575131393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712890084990527</v>
+        <v>48.712809351632906</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2001028825531139</v>
+        <v>2.2009746825738557</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712867356778638</v>
+        <v>48.712809389364381</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2000840721345329</v>
+        <v>2.2009746717475753</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712858669351306</v>
+        <v>48.712809286810192</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2000772494036403</v>
+        <v>2.200974717578132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712848736224231</v>
+        <v>48.712809308569106</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2000690634513682</v>
+        <v>2.2009746221199866</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712807311533766</v>
+        <v>48.712809230096774</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1999640319542548</v>
+        <v>2.2009746599138715</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712825741477985</v>
+        <v>48.712809265944621</v>
       </c>
       <c r="B52" s="0">
-        <v>2.1999678262752624</v>
+        <v>2.2009746279256448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712852593794707</v>
+        <v>48.71280920570544</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2000082519416453</v>
+        <v>2.2009745882428828</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712892593222257</v>
+        <v>48.712809194223418</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2000527128970999</v>
+        <v>2.200974651738592</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712923359462188</v>
+        <v>48.712809185277138</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2000735980651864</v>
+        <v>2.2009745978311419</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712890593432512</v>
+        <v>48.712809179370268</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2001280064315485</v>
+        <v>2.2009746217973967</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712956984471966</v>
+        <v>48.712809163179323</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2001126848692603</v>
+        <v>2.2009746021323253</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.71287819506577</v>
+        <v>48.712809091185612</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2002918674269258</v>
+        <v>2.2009745643504401</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.71290272990553</v>
+        <v>48.712809095990522</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2003455367081344</v>
+        <v>2.2009745613327931</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712920848168338</v>
+        <v>48.712808992104314</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2003525069656584</v>
+        <v>2.2009745405647974</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712937691955354</v>
+        <v>48.712808961656556</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2003929972528633</v>
+        <v>2.2009745491578139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.713052741206354</v>
+        <v>48.712809046721262</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2005234736634756</v>
+        <v>2.2009745057303722</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.713059622208604</v>
+        <v>48.712809039226002</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2005369832588104</v>
+        <v>2.2009744970518814</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.713067044268399</v>
+        <v>48.712808900620239</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2005550030967083</v>
+        <v>2.2009745246706531</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.713094474620043</v>
+        <v>48.712808922924303</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2005323624708169</v>
+        <v>2.2009745067513315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.713091482553089</v>
+        <v>48.712808865258417</v>
       </c>
       <c r="B66" s="0">
-        <v>2.200534257303294</v>
+        <v>2.2009744910567992</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.71315369218491</v>
+        <v>48.712808866461863</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2004596301926931</v>
+        <v>2.2009744945315331</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.713244340494136</v>
+        <v>48.712808853497535</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2005201750055541</v>
+        <v>2.2009744342223234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.71324951673067</v>
+        <v>48.71280881759801</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2005249446894677</v>
+        <v>2.2009744721286899</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.713239606902526</v>
+        <v>48.712808838361163</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2005162567764849</v>
+        <v>2.2009744696588567</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.713236729662064</v>
+        <v>48.712808803713188</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2005136695037231</v>
+        <v>2.2009744438003009</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>56.48029482777627</v>
+        <v>48.712808737279211</v>
       </c>
       <c r="B72" s="0">
-        <v>53.12656645550598</v>
+        <v>2.2009744062093826</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>56.479361013352865</v>
+        <v>48.712808698677087</v>
       </c>
       <c r="B73" s="0">
-        <v>53.134653877227798</v>
+        <v>2.2009744464866925</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>56.478318444166419</v>
+        <v>48.712808676923039</v>
       </c>
       <c r="B74" s="0">
-        <v>53.142758485042165</v>
+        <v>2.2009745250017283</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>56.477401525731828</v>
+        <v>48.712808659833726</v>
       </c>
       <c r="B75" s="0">
-        <v>53.150872336007787</v>
+        <v>2.2009743966647157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>56.47646998953374</v>
+        <v>48.712808667034871</v>
       </c>
       <c r="B76" s="0">
-        <v>53.158969650732381</v>
+        <v>2.2009744109296556</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>56.475542437291253</v>
+        <v>48.712808588996467</v>
       </c>
       <c r="B77" s="0">
-        <v>53.167047602205564</v>
+        <v>2.2009744318463023</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>56.474614752116167</v>
+        <v>48.712808515323637</v>
       </c>
       <c r="B78" s="0">
-        <v>53.175119745252623</v>
+        <v>2.2009744050802365</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>56.47368948795495</v>
+        <v>48.712808542836676</v>
       </c>
       <c r="B79" s="0">
-        <v>53.183196245387258</v>
+        <v>2.2009743979455712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>56.472768427920705</v>
+        <v>48.712808492138251</v>
       </c>
       <c r="B80" s="0">
-        <v>53.191268719664762</v>
+        <v>2.2009744250587327</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>56.471835550612546</v>
+        <v>48.712808503170493</v>
       </c>
       <c r="B81" s="0">
-        <v>53.199376805696176</v>
+        <v>2.2009743653630127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>56.470906642996589</v>
+        <v>48.712808422839416</v>
       </c>
       <c r="B82" s="0">
-        <v>53.207483683287279</v>
+        <v>2.200974372988838</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>56.469971144577912</v>
+        <v>48.712808341136544</v>
       </c>
       <c r="B83" s="0">
-        <v>53.215614575228841</v>
+        <v>2.2009743570187843</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>56.469047052507015</v>
+        <v>48.712808354195715</v>
       </c>
       <c r="B84" s="0">
-        <v>53.223726298141116</v>
+        <v>2.2009743576767433</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>56.468123434627991</v>
+        <v>48.712808310572136</v>
       </c>
       <c r="B85" s="0">
-        <v>53.231845010174396</v>
+        <v>2.2009743820547132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>56.467200272873029</v>
+        <v>48.712808200716069</v>
       </c>
       <c r="B86" s="0">
-        <v>53.239970553183795</v>
+        <v>2.2009743592177475</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>56.466286443005345</v>
+        <v>48.712808289302721</v>
       </c>
       <c r="B87" s="0">
-        <v>53.24798485590037</v>
+        <v>2.2009743040867136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>56.46536388202405</v>
+        <v>48.71280819623896</v>
       </c>
       <c r="B88" s="0">
-        <v>53.256130419456426</v>
+        <v>2.2009743020332317</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>56.464442358129823</v>
+        <v>48.712808043609812</v>
       </c>
       <c r="B89" s="0">
-        <v>53.264276678628569</v>
+        <v>2.2009742508725885</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>56.463521203290377</v>
+        <v>48.712808197074523</v>
       </c>
       <c r="B90" s="0">
-        <v>53.272429454667155</v>
+        <v>2.2009742816825479</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>56.462600819951149</v>
+        <v>48.712807966549001</v>
       </c>
       <c r="B91" s="0">
-        <v>53.280588739818605</v>
+        <v>2.2009742781245909</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>56.461680823470871</v>
+        <v>48.71280805496184</v>
       </c>
       <c r="B92" s="0">
-        <v>53.288755426285135</v>
+        <v>2.2009742924003075</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>56.460761314259763</v>
+        <v>48.712807909205203</v>
       </c>
       <c r="B93" s="0">
-        <v>53.296929081212006</v>
+        <v>2.2009742775534291</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>56.459842207533832</v>
+        <v>48.712807781998244</v>
       </c>
       <c r="B94" s="0">
-        <v>53.305109476387699</v>
+        <v>2.2009742633483445</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>56.458923548231411</v>
+        <v>48.712807919191057</v>
       </c>
       <c r="B95" s="0">
-        <v>53.313296463711133</v>
+        <v>2.2009742140843658</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>56.458005570591325</v>
+        <v>48.712807781645026</v>
       </c>
       <c r="B96" s="0">
-        <v>53.321490932090235</v>
+        <v>2.2009741542586134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>56.457020915031016</v>
+        <v>48.712807684505684</v>
       </c>
       <c r="B97" s="0">
-        <v>53.329685650916034</v>
+        <v>2.2009742210283618</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>56.456099141132178</v>
+        <v>48.712807707980126</v>
       </c>
       <c r="B98" s="0">
-        <v>53.337892948064464</v>
+        <v>2.2009741995595218</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>56.455182675136115</v>
+        <v>48.712807749517232</v>
       </c>
       <c r="B99" s="0">
-        <v>53.346107633675352</v>
+        <v>2.2009742050015184</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>56.454266673050974</v>
+        <v>48.712807690620394</v>
       </c>
       <c r="B100" s="0">
-        <v>53.354329363244844</v>
+        <v>2.2009741803555554</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>56.453351313428087</v>
+        <v>48.71280763807718</v>
       </c>
       <c r="B101" s="0">
-        <v>53.362558494691015</v>
+        <v>2.2009741869962594</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>56.452436404358728</v>
+        <v>48.712807660050387</v>
       </c>
       <c r="B102" s="0">
-        <v>53.370793469127712</v>
+        <v>2.2009741209619516</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>56.451551737920497</v>
+        <v>48.712807568223703</v>
       </c>
       <c r="B103" s="0">
-        <v>53.379021867211925</v>
+        <v>2.2009740906924886</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>56.450749663034117</v>
+        <v>48.713266352340192</v>
       </c>
       <c r="B104" s="0">
-        <v>53.387336621842863</v>
+        <v>2.2010923200734065</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>56.449836345593731</v>
+        <v>48.713267732493094</v>
       </c>
       <c r="B105" s="0">
-        <v>53.395593061591185</v>
+        <v>2.2010927146958754</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>56.448923461613731</v>
+        <v>48.713293607375313</v>
       </c>
       <c r="B106" s="0">
-        <v>53.403856168758857</v>
+        <v>2.2010993066068556</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>56.448055711461137</v>
+        <v>48.713294401560475</v>
       </c>
       <c r="B107" s="0">
-        <v>53.41229628322391</v>
+        <v>2.2010996163873693</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>56.447144304282801</v>
+        <v>48.713296897534875</v>
       </c>
       <c r="B108" s="0">
-        <v>53.42056720825866</v>
+        <v>2.2011001754312214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>56.446498557798407</v>
+        <v>48.713297944436306</v>
       </c>
       <c r="B109" s="0">
-        <v>53.429289152299361</v>
+        <v>2.20110045905286</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>56.445633443723771</v>
+        <v>48.713250190355637</v>
       </c>
       <c r="B110" s="0">
-        <v>53.437669080257464</v>
+        <v>2.2010882771386373</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>56.444737566375188</v>
+        <v>48.713247612046828</v>
       </c>
       <c r="B111" s="0">
-        <v>53.445970248170738</v>
+        <v>2.201087488822215</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>56.443809338170304</v>
+        <v>48.713203873893008</v>
       </c>
       <c r="B112" s="0">
-        <v>53.454378669312426</v>
+        <v>2.2010762691319088</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>56.442909630477431</v>
+        <v>48.713167266925304</v>
       </c>
       <c r="B113" s="0">
-        <v>53.462650111975087</v>
+        <v>2.2010668041664325</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>56.441993568845739</v>
+        <v>48.713106406217406</v>
       </c>
       <c r="B114" s="0">
-        <v>53.470938518516782</v>
+        <v>2.2010511447685803</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>56.441025056763408</v>
+        <v>48.713049019865174</v>
       </c>
       <c r="B115" s="0">
-        <v>53.479216069958909</v>
+        <v>2.2010363071513242</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>56.44005636003812</v>
+        <v>48.712954379124731</v>
       </c>
       <c r="B116" s="0">
-        <v>53.487564781015784</v>
+        <v>2.2010119105028161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>56.439096488469531</v>
+        <v>48.712843787171025</v>
       </c>
       <c r="B117" s="0">
-        <v>53.495882575096829</v>
+        <v>2.2009833676017463</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>56.438130677192397</v>
+        <v>48.712752602254419</v>
       </c>
       <c r="B118" s="0">
-        <v>53.504184000353533</v>
+        <v>2.2009598838414419</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>56.437158132928545</v>
+        <v>48.71275249070171</v>
       </c>
       <c r="B119" s="0">
-        <v>53.512430600788612</v>
+        <v>2.2009599340632855</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>56.436192188565293</v>
+        <v>48.712752609312382</v>
       </c>
       <c r="B120" s="0">
-        <v>53.520747211792028</v>
+        <v>2.2009599267862852</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>56.43523256027089</v>
+        <v>48.712752429659972</v>
       </c>
       <c r="B121" s="0">
-        <v>53.529047677096294</v>
+        <v>2.200959960559238</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>56.434275353270124</v>
+        <v>48.712752532945586</v>
       </c>
       <c r="B122" s="0">
-        <v>53.537354920954499</v>
+        <v>2.2009599221066289</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>56.433332743100102</v>
+        <v>48.712752493905661</v>
       </c>
       <c r="B123" s="0">
-        <v>53.545727039117487</v>
+        <v>2.2009599158993765</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>56.432359654452412</v>
+        <v>48.712754339472291</v>
       </c>
       <c r="B124" s="0">
-        <v>53.554088150084205</v>
+        <v>2.2009604263268803</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>56.431458482193662</v>
+        <v>48.712794371659989</v>
       </c>
       <c r="B125" s="0">
-        <v>53.56251148980315</v>
+        <v>2.2009707340145148</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>56.430524755658858</v>
+        <v>48.712837103565356</v>
       </c>
       <c r="B126" s="0">
-        <v>53.570862891254997</v>
+        <v>2.2009817198462658</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>56.429614478092418</v>
+        <v>48.712837009604364</v>
       </c>
       <c r="B127" s="0">
-        <v>53.579193386980599</v>
+        <v>2.2009817184121352</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>56.428687440732851</v>
+        <v>48.71283718640214</v>
       </c>
       <c r="B128" s="0">
-        <v>53.587558328480732</v>
+        <v>2.2009817610355502</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>56.427773741705948</v>
+        <v>48.712837082509509</v>
       </c>
       <c r="B129" s="0">
-        <v>53.595954087682664</v>
+        <v>2.2009817712702229</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>56.426865946503128</v>
+        <v>48.712836966604982</v>
       </c>
       <c r="B130" s="0">
-        <v>53.604328604838571</v>
+        <v>2.2009817507646905</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>56.425965267079341</v>
+        <v>48.712836876547378</v>
       </c>
       <c r="B131" s="0">
-        <v>53.612758645693404</v>
+        <v>2.2009817107515519</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>56.4250583360663</v>
+        <v>48.712836887320442</v>
       </c>
       <c r="B132" s="0">
-        <v>53.621191734556128</v>
+        <v>2.2009817455917231</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>56.424167352145737</v>
+        <v>48.712853527261103</v>
       </c>
       <c r="B133" s="0">
-        <v>53.629604825829553</v>
+        <v>2.2009860868067976</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>56.423303739698497</v>
+        <v>48.712853527261103</v>
       </c>
       <c r="B134" s="0">
-        <v>53.63810306804119</v>
+        <v>2.2009860868067976</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>56.42242098806274</v>
+        <v>48.712853527261103</v>
       </c>
       <c r="B135" s="0">
-        <v>53.646570555982905</v>
+        <v>2.2009860868067976</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>56.421500572309554</v>
+        <v>48.712853527261103</v>
       </c>
       <c r="B136" s="0">
-        <v>53.655037169311051</v>
+        <v>2.2009860868067976</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>56.420619997078866</v>
+        <v>48.712920131407351</v>
       </c>
       <c r="B137" s="0">
-        <v>53.663581827977715</v>
+        <v>2.2010032269789712</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>56.419744180677199</v>
+        <v>48.712920131407351</v>
       </c>
       <c r="B138" s="0">
-        <v>53.672126372214834</v>
+        <v>2.2010032269789712</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.71304399365885</v>
+        <v>48.712953365297644</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2005454124696744</v>
+        <v>2.2010117886951752</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.713063634521952</v>
+        <v>48.712953365297644</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2005148369706005</v>
+        <v>2.2010117886951752</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.713086193331861</v>
+        <v>48.712953365297644</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2004799235324004</v>
+        <v>2.2010117886951752</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>56.416276469561488</v>
+        <v>48.712953365297644</v>
       </c>
       <c r="B142" s="0">
-        <v>53.706424194338325</v>
+        <v>2.2010117886951752</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>56.415376591479458</v>
+        <v>48.712953365297644</v>
       </c>
       <c r="B143" s="0">
-        <v>53.714938044049468</v>
+        <v>2.2010117886951752</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>56.414508904960272</v>
+        <v>48.713036180695468</v>
       </c>
       <c r="B144" s="0">
-        <v>53.723507280769645</v>
+        <v>2.2010331876794336</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>56.413686589277667</v>
+        <v>48.713020367541482</v>
       </c>
       <c r="B145" s="0">
-        <v>53.732196932895519</v>
+        <v>2.2010290813493221</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>56.412808798956711</v>
+        <v>48.712998425857087</v>
       </c>
       <c r="B146" s="0">
-        <v>53.740785133311839</v>
+        <v>2.2010234073958066</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>56.411965105785626</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B147" s="0">
-        <v>53.749399396407284</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>56.411096816474881</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B148" s="0">
-        <v>53.758018822756746</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>56.410247073949336</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B149" s="0">
-        <v>53.766604676306876</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>56.409385107079984</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B150" s="0">
-        <v>53.775215976118581</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>56.40850328137094</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B151" s="0">
-        <v>53.783775161093295</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>56.40763371025195</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B152" s="0">
-        <v>53.792382796787507</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>56.406777200604772</v>
+        <v>48.712998245038229</v>
       </c>
       <c r="B153" s="0">
-        <v>53.800987987543287</v>
+        <v>2.2010233534960615</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>56.405905063078684</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B154" s="0">
-        <v>53.809554598783848</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>56.405091978132767</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B155" s="0">
-        <v>53.818118906024509</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>56.40419852601628</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B156" s="0">
-        <v>53.826720792319762</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>56.403320129833411</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B157" s="0">
-        <v>53.835333540171313</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>56.402447978565363</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B158" s="0">
-        <v>53.843917353554993</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>56.401595258949918</v>
+        <v>48.712997382916804</v>
       </c>
       <c r="B159" s="0">
-        <v>53.852585500542738</v>
+        <v>2.2010230716648258</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>56.400715654102825</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B160" s="0">
-        <v>53.86123173974989</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>56.399807974901627</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B161" s="0">
-        <v>53.869871574695907</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>56.398897890091483</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B162" s="0">
-        <v>53.878446869284815</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>56.39797910248069</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B163" s="0">
-        <v>53.887069461609322</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>56.397098027166138</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B164" s="0">
-        <v>53.895682370057465</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>56.396112478133816</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B165" s="0">
-        <v>53.905276414455123</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>56.395194656404037</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B166" s="0">
-        <v>53.91399207358306</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>56.394276010864019</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B167" s="0">
-        <v>53.922648027761127</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>56.393344687644188</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B168" s="0">
-        <v>53.931266858830988</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>56.392407656784428</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B169" s="0">
-        <v>53.939895103870143</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>56.391528919272723</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B170" s="0">
-        <v>53.948624290539733</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>56.390654310577119</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B171" s="0">
-        <v>53.957375741392838</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>56.389770619080913</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B172" s="0">
-        <v>53.966151270962875</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>56.388903978791696</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B173" s="0">
-        <v>53.974876055172217</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>56.388027591681393</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B174" s="0">
-        <v>53.983618751086986</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>56.387156913819581</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B175" s="0">
-        <v>53.992368172678674</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>56.386292657647722</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B176" s="0">
-        <v>54.001134341229133</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>54.732767732526327</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B177" s="0">
-        <v>53.89660669536034</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>56.384557165996021</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B178" s="0">
-        <v>54.018785329166384</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>56.383685553541291</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B179" s="0">
-        <v>54.027529037471588</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>56.382806234722963</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B180" s="0">
-        <v>54.036406426148261</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>56.381922662813686</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B181" s="0">
-        <v>54.045245815314665</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>56.381039907591372</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B182" s="0">
-        <v>54.054083337543702</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>56.379807172037374</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B183" s="0">
-        <v>54.062380826021482</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>56.378938932479514</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B184" s="0">
-        <v>54.071194104133227</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>56.378066659964233</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B185" s="0">
-        <v>54.080024808119518</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>56.37720159313502</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B186" s="0">
-        <v>54.088790770691432</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>56.376334242417173</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B187" s="0">
-        <v>54.097594601544856</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>56.375439062969079</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B188" s="0">
-        <v>54.106552411392386</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>56.374566110357819</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B189" s="0">
-        <v>54.115444981088267</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>56.373696219305359</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B190" s="0">
-        <v>54.124316221053569</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>56.37282648284998</v>
+        <v>48.712996466066741</v>
       </c>
       <c r="B191" s="0">
-        <v>54.133197642672499</v>
+        <v>2.2010228221493295</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>56.371955837412472</v>
+        <v>48.712992086724817</v>
       </c>
       <c r="B192" s="0">
-        <v>54.14210522984461</v>
+        <v>2.2010216977826542</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>56.371131261796457</v>
+        <v>48.713022660334012</v>
       </c>
       <c r="B193" s="0">
-        <v>54.151037646120912</v>
+        <v>2.2010295418930883</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>56.370314098835422</v>
+        <v>48.713022626047</v>
       </c>
       <c r="B194" s="0">
-        <v>54.159671143800352</v>
+        <v>2.2010295123975654</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>56.369473229824258</v>
+        <v>48.713022566281424</v>
       </c>
       <c r="B195" s="0">
-        <v>54.168458462397581</v>
+        <v>2.2010294006188578</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>56.368622493880174</v>
+        <v>48.713022484748059</v>
       </c>
       <c r="B196" s="0">
-        <v>54.177319735696344</v>
+        <v>2.2010294619645587</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>56.367791120893365</v>
+        <v>48.713022410956349</v>
       </c>
       <c r="B197" s="0">
-        <v>54.186021224039479</v>
+        <v>2.2010295381066274</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>56.366889604916217</v>
+        <v>48.713022274422059</v>
       </c>
       <c r="B198" s="0">
-        <v>54.1949807513613</v>
+        <v>2.2010293804793215</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>56.366075847461488</v>
+        <v>48.713022286748881</v>
       </c>
       <c r="B199" s="0">
-        <v>54.203951001223309</v>
+        <v>2.2010293552469946</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>56.365252695501766</v>
+        <v>48.713022032475358</v>
       </c>
       <c r="B200" s="0">
-        <v>54.212959228541102</v>
+        <v>2.2010292561185074</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>56.364438568891622</v>
+        <v>48.713021989279582</v>
       </c>
       <c r="B201" s="0">
-        <v>54.221986045133249</v>
+        <v>2.2010292632291515</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>56.363614909567275</v>
+        <v>48.713022012644821</v>
       </c>
       <c r="B202" s="0">
-        <v>54.23101681849019</v>
+        <v>2.2010292768259636</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>56.362789943411414</v>
+        <v>48.713021893783648</v>
       </c>
       <c r="B203" s="0">
-        <v>54.2400335931992</v>
+        <v>2.2010292747110869</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>56.361941017466734</v>
+        <v>48.713021871513163</v>
       </c>
       <c r="B204" s="0">
-        <v>54.249011565949196</v>
+        <v>2.2010292116086783</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>56.361102170047687</v>
+        <v>48.713021790284841</v>
       </c>
       <c r="B205" s="0">
-        <v>54.258014170698232</v>
+        <v>2.2010292387047579</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>56.36027274773064</v>
+        <v>48.713021682381836</v>
       </c>
       <c r="B206" s="0">
-        <v>54.267014342115331</v>
+        <v>2.2010292301679737</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>56.359419970366929</v>
+        <v>48.713021657404838</v>
       </c>
       <c r="B207" s="0">
-        <v>54.27600266081955</v>
+        <v>2.2010291523432577</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>56.358576373630044</v>
+        <v>48.713021641733818</v>
       </c>
       <c r="B208" s="0">
-        <v>54.285033535222901</v>
+        <v>2.2010292105116998</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>56.357731828960404</v>
+        <v>48.713021554047217</v>
       </c>
       <c r="B209" s="0">
-        <v>54.29405237365679</v>
+        <v>2.2010290337131697</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>56.356866134983307</v>
+        <v>48.713021503287841</v>
       </c>
       <c r="B210" s="0">
-        <v>54.303163905674232</v>
+        <v>2.2010291271951865</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>56.356012850725087</v>
+        <v>48.713021356709277</v>
       </c>
       <c r="B211" s="0">
-        <v>54.312176790467532</v>
+        <v>2.2010290944318909</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>56.355183000172502</v>
+        <v>48.713021345841589</v>
       </c>
       <c r="B212" s="0">
-        <v>54.321176871163743</v>
+        <v>2.2010290019869805</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>56.354307443226986</v>
+        <v>48.713021832941351</v>
       </c>
       <c r="B213" s="0">
-        <v>54.330122871807554</v>
+        <v>2.2010291215731979</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>56.353434908650641</v>
+        <v>48.713021787433164</v>
       </c>
       <c r="B214" s="0">
-        <v>54.339072790448256</v>
+        <v>2.2010290066227087</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>56.352574680701039</v>
+        <v>48.713021648923515</v>
       </c>
       <c r="B215" s="0">
-        <v>54.348106803213476</v>
+        <v>2.2010289871733506</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>56.351723845234702</v>
+        <v>48.713021605860916</v>
       </c>
       <c r="B216" s="0">
-        <v>54.357108603975931</v>
+        <v>2.2010290137232604</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>56.350862699612804</v>
+        <v>48.713021527978967</v>
       </c>
       <c r="B217" s="0">
-        <v>54.366151377364609</v>
+        <v>2.2010290253375113</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>56.349988471083847</v>
+        <v>48.713021457347466</v>
       </c>
       <c r="B218" s="0">
-        <v>54.375221046326779</v>
+        <v>2.2010288858949862</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>56.349134204083747</v>
+        <v>48.713021376905957</v>
       </c>
       <c r="B219" s="0">
-        <v>54.384325107696931</v>
+        <v>2.2010289259765825</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>56.348266700627796</v>
+        <v>48.713021435711326</v>
       </c>
       <c r="B220" s="0">
-        <v>54.393462796133562</v>
+        <v>2.2010288517915515</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>56.34743497889086</v>
+        <v>48.713021343472086</v>
       </c>
       <c r="B221" s="0">
-        <v>54.402528045563159</v>
+        <v>2.2010288646116072</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>56.346598992084509</v>
+        <v>48.713021170082982</v>
       </c>
       <c r="B222" s="0">
-        <v>54.411623882849014</v>
+        <v>2.2010287559208388</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>56.345709634002923</v>
+        <v>48.713021170552921</v>
       </c>
       <c r="B223" s="0">
-        <v>54.420727773350713</v>
+        <v>2.2010287506234181</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>56.344809789654484</v>
+        <v>48.713021110502155</v>
       </c>
       <c r="B224" s="0">
-        <v>54.429730100804818</v>
+        <v>2.2010287719547854</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>56.343909247820989</v>
+        <v>48.713021023268915</v>
       </c>
       <c r="B225" s="0">
-        <v>54.4387202146413</v>
+        <v>2.2010286967888155</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>56.343033926407436</v>
+        <v>48.713021008421286</v>
       </c>
       <c r="B226" s="0">
-        <v>54.447730771087976</v>
+        <v>2.2010287519148721</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>56.342147302715055</v>
+        <v>48.713020894947618</v>
       </c>
       <c r="B227" s="0">
-        <v>54.456785246026477</v>
+        <v>2.2010286982890328</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>56.341262441907389</v>
+        <v>48.71302085245113</v>
       </c>
       <c r="B228" s="0">
-        <v>54.465857535704998</v>
+        <v>2.2010286347166588</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>56.34039604058151</v>
+        <v>48.713020748697339</v>
       </c>
       <c r="B229" s="0">
-        <v>54.474952449718266</v>
+        <v>2.201028565599231</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>56.339513790695051</v>
+        <v>48.713020682024137</v>
       </c>
       <c r="B230" s="0">
-        <v>54.484051114267068</v>
+        <v>2.2010285580886566</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>56.338643648062039</v>
+        <v>48.713020601701338</v>
       </c>
       <c r="B231" s="0">
-        <v>54.49317409243357</v>
+        <v>2.2010285463074557</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>56.337750721462946</v>
+        <v>48.713020543429614</v>
       </c>
       <c r="B232" s="0">
-        <v>54.50231818002365</v>
+        <v>2.2010286269637347</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>56.336895523099564</v>
+        <v>48.713020538573801</v>
       </c>
       <c r="B233" s="0">
-        <v>54.511519042288498</v>
+        <v>2.2010284456167559</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>56.336035897965274</v>
+        <v>48.713020538573801</v>
       </c>
       <c r="B234" s="0">
-        <v>54.520741219925121</v>
+        <v>2.2010284456167559</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>56.335191634223037</v>
+        <v>48.713020274589979</v>
       </c>
       <c r="B235" s="0">
-        <v>54.529930104616618</v>
+        <v>2.2010284228806909</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>56.334347939281784</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B236" s="0">
-        <v>54.539128058317438</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>56.333504647515625</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B237" s="0">
-        <v>54.548333200136611</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>56.332661831127645</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B238" s="0">
-        <v>54.557545903763206</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>56.331819686344048</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B239" s="0">
-        <v>54.566766034098237</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>56.330978005438325</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B240" s="0">
-        <v>54.575993742869578</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>56.330137140896476</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B241" s="0">
-        <v>54.585229133469504</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>56.329350084316786</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B242" s="0">
-        <v>54.594562157536636</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>56.328424661731248</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B243" s="0">
-        <v>54.603667509204229</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>56.327450372070473</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B244" s="0">
-        <v>54.612696171334811</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>56.326651546709101</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B245" s="0">
-        <v>54.622029147921374</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>56.325820727626969</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B246" s="0">
-        <v>54.631314723433526</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>56.324947065669996</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B247" s="0">
-        <v>54.640533529601406</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>56.324156331202531</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B248" s="0">
-        <v>54.649900470115</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>56.323303563797161</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B249" s="0">
-        <v>54.659337859731508</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>56.32255271479071</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B250" s="0">
-        <v>54.668714254470167</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>54.46182174406453</v>
+        <v>48.713020083339679</v>
       </c>
       <c r="B251" s="0">
-        <v>54.598875763825205</v>
+        <v>2.2010283795509822</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>56.321019492639295</v>
+        <v>48.713017169140734</v>
       </c>
       <c r="B252" s="0">
-        <v>54.687536828254949</v>
+        <v>2.2010275648264228</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>56.32012205381637</v>
+        <v>48.713021069008292</v>
       </c>
       <c r="B253" s="0">
-        <v>54.696842248599914</v>
+        <v>2.2010284975430321</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>56.319262750405635</v>
+        <v>48.713021009834883</v>
       </c>
       <c r="B254" s="0">
-        <v>54.706158541400697</v>
+        <v>2.2010284432125769</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>56.318431224534365</v>
+        <v>48.713020888898207</v>
       </c>
       <c r="B255" s="0">
-        <v>54.715478287307185</v>
+        <v>2.2010284402357057</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>56.317597538699317</v>
+        <v>48.713020918317753</v>
       </c>
       <c r="B256" s="0">
-        <v>54.724835309233278</v>
+        <v>2.2010284175871884</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>56.316762834128454</v>
+        <v>48.713020685521442</v>
       </c>
       <c r="B257" s="0">
-        <v>54.734221625149075</v>
+        <v>2.20102834647026</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>56.315929701181091</v>
+        <v>48.713020761647634</v>
       </c>
       <c r="B258" s="0">
-        <v>54.743599967490717</v>
+        <v>2.201028318694636</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>56.315098234181669</v>
+        <v>48.713020599035673</v>
       </c>
       <c r="B259" s="0">
-        <v>54.752976172398604</v>
+        <v>2.2010282916288428</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>56.31426698161885</v>
+        <v>48.713020523915354</v>
       </c>
       <c r="B260" s="0">
-        <v>54.762361078755745</v>
+        <v>2.2010282856209971</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>56.313430813996043</v>
+        <v>48.713020454335258</v>
       </c>
       <c r="B261" s="0">
-        <v>54.771817351860058</v>
+        <v>2.2010282646086687</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>56.312597992770577</v>
+        <v>48.71302047991091</v>
       </c>
       <c r="B262" s="0">
-        <v>54.7812479603258</v>
+        <v>2.2010282437321465</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>56.311765349443839</v>
+        <v>48.713020346435286</v>
       </c>
       <c r="B263" s="0">
-        <v>54.790690605914989</v>
+        <v>2.201028206224545</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>56.310934586326304</v>
+        <v>48.713020254394543</v>
       </c>
       <c r="B264" s="0">
-        <v>54.800127028196179</v>
+        <v>2.201028158520685</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>56.3101052357001</v>
+        <v>48.713020239708513</v>
       </c>
       <c r="B265" s="0">
-        <v>54.809560642287778</v>
+        <v>2.2010280835796614</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>56.309278005378495</v>
+        <v>48.713020199743362</v>
       </c>
       <c r="B266" s="0">
-        <v>54.818984843811236</v>
+        <v>2.2010281527323925</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>56.308451238017348</v>
+        <v>48.713020547450597</v>
       </c>
       <c r="B267" s="0">
-        <v>54.8284161227432</v>
+        <v>2.2010281846153514</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>56.3076251441599</v>
+        <v>48.713020629123932</v>
       </c>
       <c r="B268" s="0">
-        <v>54.8378552930876</v>
+        <v>2.2010282061844766</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>56.306799586720075</v>
+        <v>48.713020461212743</v>
       </c>
       <c r="B269" s="0">
-        <v>54.8473018771424</v>
+        <v>2.2010282022794474</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>56.305974537356398</v>
+        <v>48.713020394379853</v>
       </c>
       <c r="B270" s="0">
-        <v>54.856756012341769</v>
+        <v>2.2010281375030565</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>56.305150133719309</v>
+        <v>48.713020358765895</v>
       </c>
       <c r="B271" s="0">
-        <v>54.866217860282561</v>
+        <v>2.20102810369296</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>56.304326172046402</v>
+        <v>48.713020279085427</v>
       </c>
       <c r="B272" s="0">
-        <v>54.875687203816433</v>
+        <v>2.2010280456320417</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>56.303502885619693</v>
+        <v>48.713020172750653</v>
       </c>
       <c r="B273" s="0">
-        <v>54.88516442152126</v>
+        <v>2.2010280730586107</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>56.302691302237726</v>
+        <v>48.713020180919045</v>
       </c>
       <c r="B274" s="0">
-        <v>54.894523700900599</v>
+        <v>2.2010280538880926</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>56.301869212415625</v>
+        <v>48.713020128281954</v>
       </c>
       <c r="B275" s="0">
-        <v>54.904015793142001</v>
+        <v>2.2010280461512131</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>56.301047447508076</v>
+        <v>48.71302009034504</v>
       </c>
       <c r="B276" s="0">
-        <v>54.913515641933337</v>
+        <v>2.2010280365103969</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>56.300226406307999</v>
+        <v>48.713019882319692</v>
       </c>
       <c r="B277" s="0">
-        <v>54.923023435470945</v>
+        <v>2.2010279744741279</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>56.299405870429325</v>
+        <v>48.713019938861763</v>
       </c>
       <c r="B278" s="0">
-        <v>54.932538285792759</v>
+        <v>2.2010280356193368</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>56.298585982424761</v>
+        <v>48.713019777197736</v>
       </c>
       <c r="B279" s="0">
-        <v>54.942061151511595</v>
+        <v>2.2010279429074324</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>56.297766493871187</v>
+        <v>48.713019754245877</v>
       </c>
       <c r="B280" s="0">
-        <v>54.95159172409376</v>
+        <v>2.2010279678649716</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>56.296947615447934</v>
+        <v>48.713019688924987</v>
       </c>
       <c r="B281" s="0">
-        <v>54.9611297982484</v>
+        <v>2.2010278763823883</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>56.296129416188542</v>
+        <v>48.713019625947901</v>
       </c>
       <c r="B282" s="0">
-        <v>54.970675469064609</v>
+        <v>2.2010279132363064</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>56.295290927540314</v>
+        <v>48.71301955967671</v>
       </c>
       <c r="B283" s="0">
-        <v>54.980286098061335</v>
+        <v>2.2010278534336969</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>56.294475023668873</v>
+        <v>48.713019464382803</v>
       </c>
       <c r="B284" s="0">
-        <v>54.989844253995372</v>
+        <v>2.2010277809719603</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>56.293654614397347</v>
+        <v>48.713019458162407</v>
       </c>
       <c r="B285" s="0">
-        <v>54.999423272828395</v>
+        <v>2.2010278683012654</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>56.292835692512952</v>
+        <v>48.713019383940278</v>
       </c>
       <c r="B286" s="0">
-        <v>55.009007881324493</v>
+        <v>2.2010277998754382</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>56.292017291735029</v>
+        <v>48.713019272034174</v>
       </c>
       <c r="B287" s="0">
-        <v>55.018600490679475</v>
+        <v>2.2010277973445063</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>56.291199762819346</v>
+        <v>48.713019242008869</v>
       </c>
       <c r="B288" s="0">
-        <v>55.028199976364341</v>
+        <v>2.2010277988395615</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>56.290386237243602</v>
+        <v>48.713019204136202</v>
       </c>
       <c r="B289" s="0">
-        <v>55.037797659653364</v>
+        <v>2.2010277797846727</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>56.289573838157487</v>
+        <v>48.71301911620926</v>
       </c>
       <c r="B290" s="0">
-        <v>55.047400869920196</v>
+        <v>2.201027770676796</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>56.288763973433575</v>
+        <v>48.713019054036742</v>
       </c>
       <c r="B291" s="0">
-        <v>55.057006630350863</v>
+        <v>2.2010277655764767</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>56.287950501136436</v>
+        <v>48.713018965594266</v>
       </c>
       <c r="B292" s="0">
-        <v>55.06663151480462</v>
+        <v>2.2010277484728733</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>56.28713639343502</v>
+        <v>48.713018891792217</v>
       </c>
       <c r="B293" s="0">
-        <v>55.076268384140477</v>
+        <v>2.2010277400639966</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>56.28632231432465</v>
+        <v>48.713018793779121</v>
       </c>
       <c r="B294" s="0">
-        <v>55.085913328446409</v>
+        <v>2.2010276830419562</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>56.285510850590413</v>
+        <v>48.713018770221218</v>
       </c>
       <c r="B295" s="0">
-        <v>55.095560452399887</v>
+        <v>2.2010277391289574</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>56.284701859499968</v>
+        <v>48.713018781094142</v>
       </c>
       <c r="B296" s="0">
-        <v>55.10521066455172</v>
+        <v>2.2010277023177212</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>56.284035644115321</v>
+        <v>48.713018726526336</v>
       </c>
       <c r="B297" s="0">
-        <v>55.113351579096325</v>
+        <v>2.2010276693225332</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>56.28322084937021</v>
+        <v>48.713018702407077</v>
       </c>
       <c r="B298" s="0">
-        <v>55.123053602738175</v>
+        <v>2.2010276943474785</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>56.282409652401832</v>
+        <v>48.713018546522441</v>
       </c>
       <c r="B299" s="0">
-        <v>55.132757063199136</v>
+        <v>2.2010275871142886</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>56.281636539690865</v>
+        <v>48.71301850313111</v>
       </c>
       <c r="B300" s="0">
-        <v>55.142632038109305</v>
+        <v>2.2010275986055037</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>56.280838756534372</v>
+        <v>48.713018398443815</v>
       </c>
       <c r="B301" s="0">
-        <v>55.15244823669024</v>
+        <v>2.2010276332445255</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>56.280051119690462</v>
+        <v>48.713018407268031</v>
       </c>
       <c r="B302" s="0">
-        <v>55.162354658881554</v>
+        <v>2.2010275971149365</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>56.279236865114392</v>
+        <v>48.713018390073934</v>
       </c>
       <c r="B303" s="0">
-        <v>55.172146351075398</v>
+        <v>2.2010275965680979</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>56.278418989582363</v>
+        <v>48.713018331103754</v>
       </c>
       <c r="B304" s="0">
-        <v>55.181989418950785</v>
+        <v>2.2010276014933385</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>56.277609486519417</v>
+        <v>48.713018268471544</v>
       </c>
       <c r="B305" s="0">
-        <v>55.191755023059393</v>
+        <v>2.2010275585891379</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>56.276789848284011</v>
+        <v>48.71301825766998</v>
       </c>
       <c r="B306" s="0">
-        <v>55.201644213078822</v>
+        <v>2.2010275225512279</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>56.27597915297401</v>
+        <v>48.713018133204109</v>
       </c>
       <c r="B307" s="0">
-        <v>55.211453251639021</v>
+        <v>2.2010275322547015</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>56.275164085720483</v>
+        <v>48.713018091466928</v>
       </c>
       <c r="B308" s="0">
-        <v>55.221321164856327</v>
+        <v>2.2010274909665828</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>56.274357258491101</v>
+        <v>48.713017993736465</v>
       </c>
       <c r="B309" s="0">
-        <v>55.231116456822512</v>
+        <v>2.2010274726252286</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>56.273554715032283</v>
+        <v>48.713017916666161</v>
       </c>
       <c r="B310" s="0">
-        <v>55.240879028100998</v>
+        <v>2.2010274369169727</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>56.272753054031071</v>
+        <v>48.713017955723387</v>
       </c>
       <c r="B311" s="0">
-        <v>55.250648243437496</v>
+        <v>2.2010273984721795</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>56.271951916537709</v>
+        <v>48.71301784517393</v>
       </c>
       <c r="B312" s="0">
-        <v>55.260425728434427</v>
+        <v>2.2010273582669258</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>56.271151335559985</v>
+        <v>48.71301779673405</v>
       </c>
       <c r="B313" s="0">
-        <v>55.27021088672916</v>
+        <v>2.2010273638807196</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>56.270351370381128</v>
+        <v>48.713017725544624</v>
       </c>
       <c r="B314" s="0">
-        <v>55.280004088338799</v>
+        <v>2.2010273151359629</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>56.269551792770308</v>
+        <v>48.713017750176903</v>
       </c>
       <c r="B315" s="0">
-        <v>55.289804941363819</v>
+        <v>2.201027315631455</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>56.268752975674609</v>
+        <v>48.713112294843768</v>
       </c>
       <c r="B316" s="0">
-        <v>55.299613579388314</v>
+        <v>2.201051431844014</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>56.267954784084914</v>
+        <v>48.71309400804055</v>
       </c>
       <c r="B317" s="0">
-        <v>55.309430217052409</v>
+        <v>2.2010467613059506</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>56.267157011360126</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B318" s="0">
-        <v>55.319254520992722</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>56.266359818791372</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B319" s="0">
-        <v>55.329086233930156</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>56.265583349900254</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B320" s="0">
-        <v>55.33886930703671</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>56.264786224383769</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B321" s="0">
-        <v>55.348720098405636</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>56.263990348430752</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B322" s="0">
-        <v>55.358576580650926</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>56.263186001012961</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B323" s="0">
-        <v>55.36846740450428</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>56.262393226266283</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B324" s="0">
-        <v>55.378334345673473</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>56.261589980598927</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B325" s="0">
-        <v>55.388330788730293</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>56.260793909160768</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B326" s="0">
-        <v>55.398232336153718</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>56.259996150244128</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B327" s="0">
-        <v>55.408142060874333</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>56.259204180433713</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B328" s="0">
-        <v>55.418044540040164</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>56.25841276767202</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B329" s="0">
-        <v>55.427954925863723</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>56.257622021082661</v>
+        <v>48.713098441121183</v>
       </c>
       <c r="B330" s="0">
-        <v>55.437873298901557</v>
+        <v>2.2010479757792298</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>56.256831786640973</v>
+        <v>48.71315617299895</v>
       </c>
       <c r="B331" s="0">
-        <v>55.44779980520866</v>
+        <v>2.2010625102174908</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>56.256042030807386</v>
+        <v>48.713156097882092</v>
       </c>
       <c r="B332" s="0">
-        <v>55.457733736973154</v>
+        <v>2.2010624299788515</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>56.255253037942431</v>
+        <v>48.713155965038411</v>
       </c>
       <c r="B333" s="0">
-        <v>55.467675698037844</v>
+        <v>2.2010623381677386</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>56.254554502348313</v>
+        <v>48.713155925843694</v>
       </c>
       <c r="B334" s="0">
-        <v>55.476700722152003</v>
+        <v>2.2010623538340632</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>56.253783352150542</v>
+        <v>48.713155899347974</v>
       </c>
       <c r="B335" s="0">
-        <v>55.486622924786182</v>
+        <v>2.2010622897023615</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>56.252995761606641</v>
+        <v>48.713155747164848</v>
       </c>
       <c r="B336" s="0">
-        <v>55.496590902851871</v>
+        <v>2.2010622945717815</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>56.252219221701438</v>
+        <v>48.713155699098685</v>
       </c>
       <c r="B337" s="0">
-        <v>55.506570625159881</v>
+        <v>2.201062195703571</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>56.251430989213453</v>
+        <v>48.713155579673</v>
       </c>
       <c r="B338" s="0">
-        <v>55.516574525912006</v>
+        <v>2.2010621608962659</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>56.250680624911837</v>
+        <v>48.713155490000879</v>
       </c>
       <c r="B339" s="0">
-        <v>55.526203857870108</v>
+        <v>2.2010620933558167</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>56.249893007560466</v>
+        <v>48.713155431461708</v>
       </c>
       <c r="B340" s="0">
-        <v>55.536229217181465</v>
+        <v>2.201062036634875</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>56.249105155922372</v>
+        <v>48.713155373041282</v>
       </c>
       <c r="B341" s="0">
-        <v>55.546270091782645</v>
+        <v>2.2010620924393609</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>56.248316534132144</v>
+        <v>48.713155224108334</v>
       </c>
       <c r="B342" s="0">
-        <v>55.556332914361647</v>
+        <v>2.2010619886744784</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>56.247534539525297</v>
+        <v>48.713155102633593</v>
       </c>
       <c r="B343" s="0">
-        <v>55.566342877617316</v>
+        <v>2.2010619610634006</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>56.246746566688096</v>
+        <v>48.713155060865382</v>
       </c>
       <c r="B344" s="0">
-        <v>55.576428627305319</v>
+        <v>2.2010619040438031</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>56.245872141587029</v>
+        <v>48.713155048305531</v>
       </c>
       <c r="B345" s="0">
-        <v>55.586376879436301</v>
+        <v>2.2010619397915465</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>56.245097136956709</v>
+        <v>48.713154821460378</v>
       </c>
       <c r="B346" s="0">
-        <v>55.596459872386021</v>
+        <v>2.2010618626911183</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>56.244277964309788</v>
+        <v>48.713154821642718</v>
       </c>
       <c r="B347" s="0">
-        <v>55.606493578415126</v>
+        <v>2.2010618140900657</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>56.243470374108704</v>
+        <v>48.713154664553216</v>
       </c>
       <c r="B348" s="0">
-        <v>55.616592708449495</v>
+        <v>2.2010616934289269</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>56.242701045750621</v>
+        <v>48.713154630892767</v>
       </c>
       <c r="B349" s="0">
-        <v>55.626701193371396</v>
+        <v>2.2010617292916548</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>56.241899695925632</v>
+        <v>48.713154590324926</v>
       </c>
       <c r="B350" s="0">
-        <v>55.636839099689233</v>
+        <v>2.2010615976115431</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>56.241105705701891</v>
+        <v>48.713154515642977</v>
       </c>
       <c r="B351" s="0">
-        <v>55.64696430157148</v>
+        <v>2.2010616716978895</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>56.240310509622098</v>
+        <v>48.713154348694516</v>
       </c>
       <c r="B352" s="0">
-        <v>55.657077429348576</v>
+        <v>2.201061499468246</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>56.239519568082343</v>
+        <v>48.713154257899241</v>
       </c>
       <c r="B353" s="0">
-        <v>55.667232137709462</v>
+        <v>2.2010614981285039</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>56.238735539453046</v>
+        <v>48.71315408268638</v>
       </c>
       <c r="B354" s="0">
-        <v>55.677434407478913</v>
+        <v>2.2010614743371466</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>56.237986636220391</v>
+        <v>48.713154108248673</v>
       </c>
       <c r="B355" s="0">
-        <v>55.687689826754102</v>
+        <v>2.201061471277034</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>56.237230649239855</v>
+        <v>48.713154036117409</v>
       </c>
       <c r="B356" s="0">
-        <v>55.697969680307004</v>
+        <v>2.2010614236448616</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>56.236444367723514</v>
+        <v>48.713153964983555</v>
       </c>
       <c r="B357" s="0">
-        <v>55.708130922200873</v>
+        <v>2.2010613531964549</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>56.235651638341956</v>
+        <v>48.713153891984369</v>
       </c>
       <c r="B358" s="0">
-        <v>55.718326763014645</v>
+        <v>2.2010613862737065</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>56.23483324704057</v>
+        <v>48.713055184143357</v>
       </c>
       <c r="B359" s="0">
-        <v>55.728555859539036</v>
+        <v>2.2010363059684916</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>56.234049227536943</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B360" s="0">
-        <v>55.738726396619874</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>56.23325691699069</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B361" s="0">
-        <v>55.748840166007327</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>56.232478949589584</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B362" s="0">
-        <v>55.759030457534152</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>56.231767576730064</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B363" s="0">
-        <v>55.769211882664031</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>56.231004045685332</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B364" s="0">
-        <v>55.779500213021954</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>56.230258337518443</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B365" s="0">
-        <v>55.789869435647333</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>56.229523052986167</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B366" s="0">
-        <v>55.800093523822255</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>56.228778084992712</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B367" s="0">
-        <v>55.810300785746342</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>56.228042119254738</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B368" s="0">
-        <v>55.820490973280037</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>56.227305997186399</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B369" s="0">
-        <v>55.83058962424316</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>56.226571925798325</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B370" s="0">
-        <v>55.840754999689345</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>56.22580799025517</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B371" s="0">
-        <v>55.850904971743176</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>56.22505902793305</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B372" s="0">
-        <v>55.861126020865065</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>56.224300897096569</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B373" s="0">
-        <v>55.871380383554275</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>56.223542029923856</v>
+        <v>48.713056171887615</v>
       </c>
       <c r="B374" s="0">
-        <v>55.881613259323579</v>
+        <v>2.201036556032018</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>56.222794274804642</v>
+        <v>48.713072226218159</v>
       </c>
       <c r="B375" s="0">
-        <v>55.891866392767938</v>
+        <v>2.2010403582655038</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>56.222046096328</v>
+        <v>48.713094494805794</v>
       </c>
       <c r="B376" s="0">
-        <v>55.902073106670919</v>
+        <v>2.2010459651186269</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>56.221288335177469</v>
+        <v>48.713219015069655</v>
       </c>
       <c r="B377" s="0">
-        <v>55.912328414176727</v>
+        <v>2.2010774276169531</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>56.220531624546681</v>
+        <v>48.713219015069655</v>
       </c>
       <c r="B378" s="0">
-        <v>55.922585200492407</v>
+        <v>2.2010774276169531</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>56.219763484548615</v>
+        <v>48.713219015069655</v>
       </c>
       <c r="B379" s="0">
-        <v>55.932840080981926</v>
+        <v>2.2010774276169531</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>56.219003283410387</v>
+        <v>48.713219015069655</v>
       </c>
       <c r="B380" s="0">
-        <v>55.943098932248063</v>
+        <v>2.2010774276169531</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>56.21822402396085</v>
+        <v>48.713716758706326</v>
       </c>
       <c r="B381" s="0">
-        <v>55.953332584187884</v>
+        <v>2.2012033954543715</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>56.217464281268981</v>
+        <v>48.713716758706326</v>
       </c>
       <c r="B382" s="0">
-        <v>55.963645775433285</v>
+        <v>2.2012033954543715</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>56.216676230312807</v>
+        <v>48.713716758706326</v>
       </c>
       <c r="B383" s="0">
-        <v>55.973888122927761</v>
+        <v>2.2012033954543715</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>56.215881926211985</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B384" s="0">
-        <v>55.984126753148551</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>56.215083354887859</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B385" s="0">
-        <v>55.994425497479846</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>56.214269604913952</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B386" s="0">
-        <v>56.004708932820144</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>56.213488465767497</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B387" s="0">
-        <v>56.015047856652714</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>56.212714746332459</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B388" s="0">
-        <v>56.025400548603422</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>56.211934214686693</v>
+        <v>48.714089475420579</v>
       </c>
       <c r="B389" s="0">
-        <v>56.035793542649202</v>
+        <v>2.2012974069000717</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>56.211167148212844</v>
+        <v>48.714833447525493</v>
       </c>
       <c r="B390" s="0">
-        <v>56.046234762658237</v>
+        <v>2.2014849680219379</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>56.210369364238105</v>
+        <v>48.714791428604173</v>
       </c>
       <c r="B391" s="0">
-        <v>56.056630735648987</v>
+        <v>2.2014742816062731</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>56.2095937113085</v>
+        <v>48.714770075660191</v>
       </c>
       <c r="B392" s="0">
-        <v>56.06705696726668</v>
+        <v>2.2014688121909614</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>56.208824211312866</v>
+        <v>48.714769664514861</v>
       </c>
       <c r="B393" s="0">
-        <v>56.077538186371214</v>
+        <v>2.2014686260823608</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>56.2080657236069</v>
+        <v>48.714768846251452</v>
       </c>
       <c r="B394" s="0">
-        <v>56.087958018272055</v>
+        <v>2.2014682720531029</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>56.207328740503492</v>
+        <v>48.714710272521799</v>
       </c>
       <c r="B395" s="0">
-        <v>56.098422665272487</v>
+        <v>2.201453460098572</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>56.206576947324784</v>
+        <v>48.714689580344761</v>
       </c>
       <c r="B396" s="0">
-        <v>56.108868346668707</v>
+        <v>2.2014482106823188</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>56.205825843606007</v>
+        <v>48.714707828520261</v>
       </c>
       <c r="B397" s="0">
-        <v>56.119321729504804</v>
+        <v>2.2014526142725788</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>56.205075422889607</v>
+        <v>48.714707506329603</v>
       </c>
       <c r="B398" s="0">
-        <v>56.129783589715622</v>
+        <v>2.2014524665794557</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>56.204325600121834</v>
+        <v>48.714706975028051</v>
       </c>
       <c r="B399" s="0">
-        <v>56.140253861928152</v>
+        <v>2.2014521911307097</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>56.203576297805789</v>
+        <v>48.714706616249835</v>
       </c>
       <c r="B400" s="0">
-        <v>56.150732121938354</v>
+        <v>2.2014520080032121</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>56.202884170746955</v>
+        <v>48.714706169803357</v>
       </c>
       <c r="B401" s="0">
-        <v>56.161217776547652</v>
+        <v>2.2014517227076715</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>56.20213605992933</v>
+        <v>48.714683531442112</v>
       </c>
       <c r="B402" s="0">
-        <v>56.171712244950577</v>
+        <v>2.2014459192951024</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>56.201388752675129</v>
+        <v>48.714709010200693</v>
       </c>
       <c r="B403" s="0">
-        <v>56.182213718265722</v>
+        <v>2.2014522186143366</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>56.200650145725753</v>
+        <v>48.714708465949997</v>
       </c>
       <c r="B404" s="0">
-        <v>56.192724270405968</v>
+        <v>2.2014519677358346</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>56.199899746548312</v>
+        <v>48.714708007586431</v>
       </c>
       <c r="B405" s="0">
-        <v>56.203243391366591</v>
+        <v>2.2014518191849581</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>56.199154043094623</v>
+        <v>48.714748971464339</v>
       </c>
       <c r="B406" s="0">
-        <v>56.213770539514286</v>
+        <v>2.2014620306978485</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>56.198409257529384</v>
+        <v>48.714748603759389</v>
       </c>
       <c r="B407" s="0">
-        <v>56.224306014296211</v>
+        <v>2.20146183317254</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>56.197664630645534</v>
+        <v>48.714748179521429</v>
       </c>
       <c r="B408" s="0">
-        <v>56.234849314150189</v>
+        <v>2.2014615451059609</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>56.196920866259497</v>
+        <v>48.714747580660344</v>
       </c>
       <c r="B409" s="0">
-        <v>56.245401608929775</v>
+        <v>2.2014612250757186</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>48.714747212789227</v>
+      </c>
+      <c r="B410" s="0">
+        <v>2.2014610487579795</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>48.714746705280859</v>
+      </c>
+      <c r="B411" s="0">
+        <v>2.2014608227367982</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>48.714746258703094</v>
+      </c>
+      <c r="B412" s="0">
+        <v>2.2014606358301938</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>48.714637531825368</v>
+      </c>
+      <c r="B413" s="0">
+        <v>2.2014331308794559</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>48.714636898925861</v>
+      </c>
+      <c r="B414" s="0">
+        <v>2.2014329586023527</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>48.714622101875456</v>
+      </c>
+      <c r="B415" s="0">
+        <v>2.2014290872904412</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>48.71460631809942</v>
+      </c>
+      <c r="B416" s="0">
+        <v>2.2014250258475632</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>48.71460631809942</v>
+      </c>
+      <c r="B417" s="0">
+        <v>2.2014250258475632</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>48.714574918839531</v>
+      </c>
+      <c r="B418" s="0">
+        <v>2.2014169494020952</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>48.714549078718044</v>
+      </c>
+      <c r="B419" s="0">
+        <v>2.2014103453323508</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>48.714549078718044</v>
+      </c>
+      <c r="B420" s="0">
+        <v>2.2014103453323508</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>48.714497293904699</v>
+      </c>
+      <c r="B421" s="0">
+        <v>2.2013970876605686</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>48.714496586933336</v>
+      </c>
+      <c r="B422" s="0">
+        <v>2.2013969123303667</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>48.714518331112394</v>
+      </c>
+      <c r="B423" s="0">
+        <v>2.2014021735859393</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>48.714518092390414</v>
+      </c>
+      <c r="B424" s="0">
+        <v>2.2014020188563332</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>48.714517642693814</v>
+      </c>
+      <c r="B425" s="0">
+        <v>2.2014018929259764</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>48.714520359130745</v>
+      </c>
+      <c r="B426" s="0">
+        <v>2.2014024058667023</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>48.714529265255706</v>
+      </c>
+      <c r="B427" s="0">
+        <v>2.2014045546782124</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>48.714528991488777</v>
+      </c>
+      <c r="B428" s="0">
+        <v>2.201404320010965</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>48.714528464392416</v>
+      </c>
+      <c r="B429" s="0">
+        <v>2.2014041280240257</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>48.714525982496063</v>
+      </c>
+      <c r="B430" s="0">
+        <v>2.2014034089504029</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>48.7145168933815</v>
+      </c>
+      <c r="B431" s="0">
+        <v>2.2014010056295721</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>48.714516270683681</v>
+      </c>
+      <c r="B432" s="0">
+        <v>2.2014007697827784</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>48.714516011469471</v>
+      </c>
+      <c r="B433" s="0">
+        <v>2.2014006936079404</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>48.714515644964941</v>
+      </c>
+      <c r="B434" s="0">
+        <v>2.2014003994820244</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>48.714505375302075</v>
+      </c>
+      <c r="B435" s="0">
+        <v>2.201397698072868</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>48.714505009650246</v>
+      </c>
+      <c r="B436" s="0">
+        <v>2.201397555348648</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>48.71450463471642</v>
+      </c>
+      <c r="B437" s="0">
+        <v>2.2013972848916503</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>48.71450421767404</v>
+      </c>
+      <c r="B438" s="0">
+        <v>2.2013971084260135</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>48.714451168907168</v>
+      </c>
+      <c r="B439" s="0">
+        <v>2.2013836916590965</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B440" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B441" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B442" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B443" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B444" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B445" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B446" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>48.714454470017586</v>
+      </c>
+      <c r="B447" s="0">
+        <v>2.2013845087284474</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>48.714481170907782</v>
+      </c>
+      <c r="B448" s="0">
+        <v>2.2013904340024948</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>48.714497591055284</v>
+      </c>
+      <c r="B449" s="0">
+        <v>2.2013943769948221</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>48.714508285802154</v>
+      </c>
+      <c r="B450" s="0">
+        <v>2.2013969286897721</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B451" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B452" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B453" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B454" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B455" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>48.714420018526852</v>
+      </c>
+      <c r="B456" s="0">
+        <v>2.2013748249246863</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>48.713890281037372</v>
+      </c>
+      <c r="B457" s="0">
+        <v>2.2012424496223262</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B458" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B459" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B460" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B461" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B462" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B463" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B464" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B465" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B466" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B467" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B468" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B469" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B470" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B471" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B472" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B473" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B474" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B475" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B476" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B477" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B478" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>48.713896347172742</v>
+      </c>
+      <c r="B479" s="0">
+        <v>2.2012439402981006</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>48.714028558801026</v>
+      </c>
+      <c r="B480" s="0">
+        <v>2.2012750257687728</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>48.71403258806302</v>
+      </c>
+      <c r="B481" s="0">
+        <v>2.2012759550102947</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>48.71403215471549</v>
+      </c>
+      <c r="B482" s="0">
+        <v>2.2012757504956988</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>48.71403215471549</v>
+      </c>
+      <c r="B483" s="0">
+        <v>2.2012757504956988</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>48.71403215471549</v>
+      </c>
+      <c r="B484" s="0">
+        <v>2.2012757504956988</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>48.71403215471549</v>
+      </c>
+      <c r="B485" s="0">
+        <v>2.2012757504956988</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>48.71403215471549</v>
+      </c>
+      <c r="B486" s="0">
+        <v>2.2012757504956988</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>48.714030225075554</v>
+      </c>
+      <c r="B487" s="0">
+        <v>2.2012748007509564</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>48.714062206815775</v>
+      </c>
+      <c r="B488" s="0">
+        <v>2.2012826300353372</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>48.714061951020675</v>
+      </c>
+      <c r="B489" s="0">
+        <v>2.2012825051125309</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B490" s="0">
+        <v>2.2012822620542916</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B491" s="0">
+        <v>2.2012822620542916</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B492" s="0">
+        <v>2.2012822620542916</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B493" s="0">
+        <v>2.2012822620542916</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B494" s="0">
+        <v>2.2012822620542916</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>48.714061567911294</v>
+      </c>
+      <c r="B495" s="0">
+        <v>2.2012822620542916</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3962 +65,3714 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.71280997331904</v>
+        <v>48.712782017724237</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2009750013808542</v>
+        <v>2.2008250050212426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712809866381235</v>
+        <v>48.712786419594046</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2009750646231976</v>
+        <v>2.2008437255153695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712809926669337</v>
+        <v>48.712789738319948</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2009749377411754</v>
+        <v>2.2008584538606342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712809880703844</v>
+        <v>48.712792148337115</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2009749490325703</v>
+        <v>2.2008686759235938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.712809856945924</v>
+        <v>48.712792890670471</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2009750051940786</v>
+        <v>2.2008716628501737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712809942027576</v>
+        <v>48.712792874550018</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2009749876921641</v>
+        <v>2.2008715866297433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712809922506267</v>
+        <v>48.712792949475691</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2009749121203752</v>
+        <v>2.2008716258389924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.712809869319578</v>
+        <v>48.712792939271793</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2009749631856828</v>
+        <v>2.2008716283237213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712809895126505</v>
+        <v>48.712792968834428</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2009749897380084</v>
+        <v>2.2008716013484242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712809871502159</v>
+        <v>48.712792927528184</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2009749840314812</v>
+        <v>2.2008716030162931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.71280978752047</v>
+        <v>48.712792961059755</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2009749731638269</v>
+        <v>2.2008715334521472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712809829241984</v>
+        <v>48.712793001746817</v>
       </c>
       <c r="B12" s="0">
-        <v>2.2009749777119838</v>
+        <v>2.200871500579793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712809771322057</v>
+        <v>48.712792970886973</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2009749821034745</v>
+        <v>2.2008714771677607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712809892187799</v>
+        <v>48.712793058534082</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2009749712588924</v>
+        <v>2.2008719033812105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.71280974421461</v>
+        <v>48.712793115650129</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2009749847657383</v>
+        <v>2.2008719238239469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712809752818949</v>
+        <v>48.712782633642561</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2009750201459268</v>
+        <v>2.2008275225894502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712809786645501</v>
+        <v>48.712780881691089</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2009749355875643</v>
+        <v>2.2008200015698902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712809713712154</v>
+        <v>48.712780877628447</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2009750087704934</v>
+        <v>2.2008199485025175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712809758404987</v>
+        <v>48.712780903943759</v>
       </c>
       <c r="B19" s="0">
-        <v>2.200974906438744</v>
+        <v>2.2008200603468868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712809749879504</v>
+        <v>48.712780904170998</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2009749250172313</v>
+        <v>2.2008200742339734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712809721830929</v>
+        <v>48.712780868974392</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2009749194747133</v>
+        <v>2.2008200922095056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712809766319097</v>
+        <v>48.712780798116988</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2009749609308749</v>
+        <v>2.2008200475201765</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.71280970825206</v>
+        <v>48.712780917224158</v>
       </c>
       <c r="B23" s="0">
-        <v>2.200974976693272</v>
+        <v>2.2008199943593381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712809665094334</v>
+        <v>48.712780916322167</v>
       </c>
       <c r="B24" s="0">
-        <v>2.200974853541243</v>
+        <v>2.2008201788427586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.712809605987737</v>
+        <v>48.71278092285084</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2009748573749017</v>
+        <v>2.2008200877508104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712809632878951</v>
+        <v>48.712780838047259</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2009748310942947</v>
+        <v>2.2008202244435595</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712809553738232</v>
+        <v>48.712780746436238</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2009749361878073</v>
+        <v>2.2008202105117354</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712809525038125</v>
+        <v>48.712780776208</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2009748899115591</v>
+        <v>2.2008203402253193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.712809540736338</v>
+        <v>48.71273224230255</v>
       </c>
       <c r="B29" s="0">
-        <v>2.200974852319979</v>
+        <v>2.2006454508403603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712762529342626</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007665246905859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712761414849119</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.200752823089208</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712774412431123</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007870928330595</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712767016643319</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007372599950812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.712809460517029</v>
+        <v>48.71277260909303</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007369673243797</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712782298934243</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007567875611405</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712784445065225</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007423292749624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712791885840929</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2007522071194758</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712809460517029</v>
+        <v>48.712780242478523</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2009748976961863</v>
+        <v>2.2006785349626155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.712809539682766</v>
+        <v>48.712801883845018</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2009747304545488</v>
+        <v>2.2007441532532157</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712809604263328</v>
+        <v>48.712801139498367</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2009747850939698</v>
+        <v>2.2007191749807551</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712809548155931</v>
+        <v>48.712805251518852</v>
       </c>
       <c r="B41" s="0">
-        <v>2.200974741444595</v>
+        <v>2.2007101371912632</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.71280952929277</v>
+        <v>48.712811431672812</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2009747420172219</v>
+        <v>2.2007102271274976</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.71280945831461</v>
+        <v>48.712814123118896</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2009747272033389</v>
+        <v>2.2006967399668569</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712809566737732</v>
+        <v>48.712825594972607</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2009747396132884</v>
+        <v>2.2007192149382306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712809427188851</v>
+        <v>48.712844815733874</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2009747792112773</v>
+        <v>2.2007744649884589</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712809502029373</v>
+        <v>48.712833713509625</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2009747575131393</v>
+        <v>2.2007038883459056</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.712809351632906</v>
+        <v>48.71284878772795</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2009746825738557</v>
+        <v>2.2007398356406398</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712809389364381</v>
+        <v>48.712856693981479</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2009746717475753</v>
+        <v>2.2007454280832119</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712809286810192</v>
+        <v>48.712873622526225</v>
       </c>
       <c r="B49" s="0">
-        <v>2.200974717578132</v>
+        <v>2.2007891271970119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712809308569106</v>
+        <v>48.712876389586121</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2009746221199866</v>
+        <v>2.200777093820784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.712809230096774</v>
+        <v>48.71288521931875</v>
       </c>
       <c r="B51" s="0">
-        <v>2.2009746599138715</v>
+        <v>2.20078619666103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712809265944621</v>
+        <v>48.712888730986499</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2009746279256448</v>
+        <v>2.2007769816717437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.71280920570544</v>
+        <v>48.712869414013348</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2009745882428828</v>
+        <v>2.2008135368856308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712809194223418</v>
+        <v>48.712814435937844</v>
       </c>
       <c r="B54" s="0">
-        <v>2.200974651738592</v>
+        <v>2.2007800322881388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712809185277138</v>
+        <v>48.712828843017199</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2009745978311419</v>
+        <v>2.2007851088920774</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712809179370268</v>
+        <v>48.712842055664169</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2009746217973967</v>
+        <v>2.2008183757790048</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712809163179323</v>
+        <v>48.712875317481313</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2009746021323253</v>
+        <v>2.2007126202879439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712809091185612</v>
+        <v>48.712895140142258</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2009745643504401</v>
+        <v>2.2006448778772203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712809095990522</v>
+        <v>48.712903171971227</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2009745613327931</v>
+        <v>2.2006519848102393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712808992104314</v>
+        <v>48.712869499396078</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2009745405647974</v>
+        <v>2.2007170494898398</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712808961656556</v>
+        <v>48.712858195012181</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2009745491578139</v>
+        <v>2.2007592812255812</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712809046721262</v>
+        <v>48.712865642897285</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2009745057303722</v>
+        <v>2.2007923323049972</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712809039226002</v>
+        <v>48.712843937945237</v>
       </c>
       <c r="B63" s="0">
-        <v>2.2009744970518814</v>
+        <v>2.200852098884527</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712808900620239</v>
+        <v>48.712828460433833</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2009745246706531</v>
+        <v>2.2009126658101455</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712808922924303</v>
+        <v>48.712785999603277</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2009745067513315</v>
+        <v>2.2010098681992498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712808865258417</v>
+        <v>48.712751748221628</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2009744910567992</v>
+        <v>2.2010893844267208</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.712808866461863</v>
+        <v>48.7127384903457</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2009744945315331</v>
+        <v>2.2011189428563132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712808853497535</v>
+        <v>48.712741134910957</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2009744342223234</v>
+        <v>2.2011113822851622</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.71280881759801</v>
+        <v>48.712751366129723</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2009744721286899</v>
+        <v>2.2010890272109842</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712808838361163</v>
+        <v>48.712744480394939</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2009744696588567</v>
+        <v>2.2011040744477479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712808803713188</v>
+        <v>48.712747877764556</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2009744438003009</v>
+        <v>2.2010945080331603</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712808737279211</v>
+        <v>48.712738440694132</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2009744062093826</v>
+        <v>2.2011176315735614</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712808698677087</v>
+        <v>48.712728979833109</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2009744464866925</v>
+        <v>2.2011390551211361</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712808676923039</v>
+        <v>48.712739876088854</v>
       </c>
       <c r="B74" s="0">
-        <v>2.2009745250017283</v>
+        <v>2.2011130654402882</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712808659833726</v>
+        <v>48.712753206946367</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2009743966647157</v>
+        <v>2.201083040728665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712808667034871</v>
+        <v>48.712761545992883</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2009744109296556</v>
+        <v>2.2010628669707106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712808588996467</v>
+        <v>48.712773020105082</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2009744318463023</v>
+        <v>2.2010373670393957</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712808515323637</v>
+        <v>48.712834836618008</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2009744050802365</v>
+        <v>2.2008924584800918</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712808542836676</v>
+        <v>48.712828944908331</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2009743979455712</v>
+        <v>2.2009043696510569</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712808492138251</v>
+        <v>48.712847356515575</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2009744250587327</v>
+        <v>2.200864135864288</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712808503170493</v>
+        <v>48.712843332719153</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2009743653630127</v>
+        <v>2.2008751526006791</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.712808422839416</v>
+        <v>48.71283854191087</v>
       </c>
       <c r="B82" s="0">
-        <v>2.200974372988838</v>
+        <v>2.2008854751578451</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712808341136544</v>
+        <v>48.712834507092723</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2009743570187843</v>
+        <v>2.2008969755129297</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712808354195715</v>
+        <v>48.712820257696045</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2009743576767433</v>
+        <v>2.2009040953900745</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712808310572136</v>
+        <v>48.712786758878899</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2009743820547132</v>
+        <v>2.2009213696442163</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712808200716069</v>
+        <v>48.712751385508938</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2009743592177475</v>
+        <v>2.2010379249327925</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712808289302721</v>
+        <v>48.712784599468272</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2009743040867136</v>
+        <v>2.200848656512739</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.71280819623896</v>
+        <v>48.712748771679578</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2009743020332317</v>
+        <v>2.2007329963593132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712808043609812</v>
+        <v>48.712750588546534</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2009742508725885</v>
+        <v>2.200708448728931</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712808197074523</v>
+        <v>48.712728095498783</v>
       </c>
       <c r="B90" s="0">
-        <v>2.2009742816825479</v>
+        <v>2.2005648143023366</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712807966549001</v>
+        <v>48.712759675475432</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2009742781245909</v>
+        <v>2.2007171376382888</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.71280805496184</v>
+        <v>48.71275379557234</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2009742924003075</v>
+        <v>2.200734725790547</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712807909205203</v>
+        <v>48.712625967880072</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2009742775534291</v>
+        <v>2.2002213737532976</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712807781998244</v>
+        <v>48.712628390466115</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2009742633483445</v>
+        <v>2.2002172732984331</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712807919191057</v>
+        <v>48.712638465484986</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2009742140843658</v>
+        <v>2.2002328834277018</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712807781645026</v>
+        <v>48.712644444172618</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2009741542586134</v>
+        <v>2.2002270838386302</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.712807684505684</v>
+        <v>48.71266684158001</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2009742210283618</v>
+        <v>2.2002853634452544</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712807707980126</v>
+        <v>48.712644155384815</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2009741995595218</v>
+        <v>2.20016819708031</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.712807749517232</v>
+        <v>48.712670957259355</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2009742050015184</v>
+        <v>2.2002413902193143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712807690620394</v>
+        <v>48.712679075253419</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2009741803555554</v>
+        <v>2.2002425242414629</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.71280763807718</v>
+        <v>48.712691967930631</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2009741869962594</v>
+        <v>2.2002634259705616</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712807660050387</v>
+        <v>48.712700243195549</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2009741209619516</v>
+        <v>2.2002635834529412</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712807568223703</v>
+        <v>48.712695273577957</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2009740906924886</v>
+        <v>2.2002133572618394</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.713266352340192</v>
+        <v>48.712708749088506</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2010923200734065</v>
+        <v>2.200235583994814</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.713267732493094</v>
+        <v>48.712719869074263</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2010927146958754</v>
+        <v>2.2002479048897272</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.713293607375313</v>
+        <v>48.712720512562456</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2010993066068556</v>
+        <v>2.200222600169818</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.713294401560475</v>
+        <v>48.712728110547083</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2010996163873693</v>
+        <v>2.2002245697571157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.713296897534875</v>
+        <v>48.712748844785018</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2011001754312214</v>
+        <v>2.2002759395679159</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.713297944436306</v>
+        <v>48.712740906373377</v>
       </c>
       <c r="B109" s="0">
-        <v>2.20110045905286</v>
+        <v>2.2002158184491241</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.713250190355637</v>
+        <v>48.712746412855736</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2010882771386373</v>
+        <v>2.200210364177452</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.713247612046828</v>
+        <v>48.712744800374118</v>
       </c>
       <c r="B111" s="0">
-        <v>2.201087488822215</v>
+        <v>2.2002423669018185</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.713203873893008</v>
+        <v>48.712742046425937</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2010762691319088</v>
+        <v>2.2002846101740139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.713167266925304</v>
+        <v>48.712736197588576</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2010668041664325</v>
+        <v>2.2002284434503152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.713106406217406</v>
+        <v>48.712722069873273</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2010511447685803</v>
+        <v>2.2002634686639984</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.713049019865174</v>
+        <v>48.712739911509836</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2010363071513242</v>
+        <v>2.2002835431574646</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712954379124731</v>
+        <v>48.712747246792361</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2010119105028161</v>
+        <v>2.200296451773013</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.712843787171025</v>
+        <v>48.71273166960335</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2009833676017463</v>
+        <v>2.2003280694999892</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.712752602254419</v>
+        <v>48.71273723039247</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2009598838414419</v>
+        <v>2.2003030251777091</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.71275249070171</v>
+        <v>48.712741472471564</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2009599340632855</v>
+        <v>2.2003051263833018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712752609312382</v>
+        <v>48.712730791962507</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2009599267862852</v>
+        <v>2.2003354729407265</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712752429659972</v>
+        <v>48.712692616734572</v>
       </c>
       <c r="B121" s="0">
-        <v>2.200959960559238</v>
+        <v>2.2004187141107488</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.712752532945586</v>
+        <v>48.71266503618439</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2009599221066289</v>
+        <v>2.2004855013088323</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712752493905661</v>
+        <v>48.712652009119957</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2009599158993765</v>
+        <v>2.2005161713639794</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712754339472291</v>
+        <v>48.712651733407768</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2009604263268803</v>
+        <v>2.2005196489932524</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712794371659989</v>
+        <v>48.712632375784111</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2009707340145148</v>
+        <v>2.200566734550296</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712837103565356</v>
+        <v>48.712622532458603</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2009817198462658</v>
+        <v>2.200588966569204</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712837009604364</v>
+        <v>48.712601989592692</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2009817184121352</v>
+        <v>2.2006389147904231</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.71283718640214</v>
+        <v>48.71261831306726</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2009817610355502</v>
+        <v>2.2006019452411909</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712837082509509</v>
+        <v>48.712603583453827</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2009817712702229</v>
+        <v>2.2006373802671022</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712836966604982</v>
+        <v>48.712609251603659</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2009817507646905</v>
+        <v>2.2006250683857878</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712836876547378</v>
+        <v>48.712627769280857</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2009817107515519</v>
+        <v>2.2005835674608938</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712836887320442</v>
+        <v>48.712664759651666</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2009817455917231</v>
+        <v>2.2004959361724059</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712853527261103</v>
+        <v>48.712633743416617</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2009860868067976</v>
+        <v>2.2005692714354712</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712853527261103</v>
+        <v>48.712712932636606</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2009860868067976</v>
+        <v>2.2003863199486529</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712853527261103</v>
+        <v>48.712746321689508</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2009860868067976</v>
+        <v>2.2003092287943868</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712853527261103</v>
+        <v>48.712715436036255</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2009860868067976</v>
+        <v>2.2003824873678748</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712920131407351</v>
+        <v>48.712705684271704</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2010032269789712</v>
+        <v>2.2004071576153361</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712920131407351</v>
+        <v>48.712700812124815</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2010032269789712</v>
+        <v>2.2004193393884104</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712953365297644</v>
+        <v>48.712701974311578</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2010117886951752</v>
+        <v>2.2004158977176669</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712953365297644</v>
+        <v>48.712682906545688</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2010117886951752</v>
+        <v>2.2004618770563877</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712953365297644</v>
+        <v>48.712666085448241</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2010117886951752</v>
+        <v>2.2003868273789235</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712953365297644</v>
+        <v>48.712676786500921</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2010117886951752</v>
+        <v>2.2004113148370839</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712953365297644</v>
+        <v>48.712636892612409</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2010117886951752</v>
+        <v>2.2002946704715671</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.713036180695468</v>
+        <v>48.712640155923957</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2010331876794336</v>
+        <v>2.2003374900759534</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.713020367541482</v>
+        <v>48.712642797429815</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2010290813493221</v>
+        <v>2.2003015972203488</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.712998425857087</v>
+        <v>48.712631298588285</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2010234073958066</v>
+        <v>2.2002866276956477</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712642733497731</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.200256240444165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712645213313252</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2002646196903903</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712638756973583</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2002213034360869</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712654391726332</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2002463497135523</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712656607869974</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2002228932676644</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712657270136425</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2001917673653986</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712998245038229</v>
+        <v>48.712685046271929</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2010233534960615</v>
+        <v>2.2002659709722945</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712691666990075</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.2002591937131686</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712697996926373</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.2002502989682009</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712704308050185</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.20024335541149</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712721541399276</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.2002777917679608</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712728859240329</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.2002744789192081</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712997382916804</v>
+        <v>48.712742867164494</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2010230716648258</v>
+        <v>2.2002949612118328</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.712996466066741</v>
+        <v>48.71274035202665</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002512119005244</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712744153516063</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002363899966673</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712755617101926</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002444161791455</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712769171341869</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002645947977615</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712753857665874</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2001827500222975</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.712996466066741</v>
+        <v>48.71274297029602</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002311906635694</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.712996466066741</v>
+        <v>48.71283562050543</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2005506222757334</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712736380466943</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002771743180309</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712729927895339</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003391061759174</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712725229163055</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003093621451733</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712730080029303</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2002922792834898</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712746495433983</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003197328554633</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712745393114517</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003157558256223</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712733444869656</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003472334166752</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712711799434473</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003954315884395</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712697665028642</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2004271641612592</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712672518047924</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2004841893604006</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712669618301696</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2004898912697763</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712644065891603</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2005488053844555</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712615737197318</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006150682093377</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712600304386122</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006510379982869</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712603589282267</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006418687588982</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712588125941679</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006782859626148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712595550378921</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006622973040675</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712599882950393</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2006534883482276</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712643210967734</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2005529969159836</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712726135846225</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003597562014705</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712725691419927</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003613977565806</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712720130294493</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003741076808869</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712714014699543</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2003866407948514</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712698003345672</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2004488531200064</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712996466066741</v>
+        <v>48.712718796762665</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2010228221493295</v>
+        <v>2.2004147096668461</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712992086724817</v>
+        <v>48.712684930855765</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2010216977826542</v>
+        <v>2.2004743400097393</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.713022660334012</v>
+        <v>48.712691779746542</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2010295418930883</v>
+        <v>2.2003877595225898</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.713022626047</v>
+        <v>48.71277084736689</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2010295123975654</v>
+        <v>2.2007064991878171</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.713022566281424</v>
+        <v>48.712656285563441</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2010294006188578</v>
+        <v>2.2003277800345398</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.713022484748059</v>
+        <v>48.712648757135739</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2010294619645587</v>
+        <v>2.2003352946196242</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.713022410956349</v>
+        <v>48.712627445172309</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2010295381066274</v>
+        <v>2.2002885117535329</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.713022274422059</v>
+        <v>48.712751069747718</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2010293804793215</v>
+        <v>2.2007509341836524</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.713022286748881</v>
+        <v>48.71275100390023</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2010293552469946</v>
+        <v>2.2007500164139491</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.713022032475358</v>
+        <v>48.712751653709013</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2010292561185074</v>
+        <v>2.2007458391149055</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.713021989279582</v>
+        <v>48.712568469939321</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2010292632291515</v>
+        <v>2.200058486666594</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.713022012644821</v>
+        <v>48.712584738288697</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2010292768259636</v>
+        <v>2.2000879750857409</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.713021893783648</v>
+        <v>48.712767576552906</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2010292747110869</v>
+        <v>2.2007121412866346</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.713021871513163</v>
+        <v>48.712618172575255</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2010292116086783</v>
+        <v>2.2001471763510243</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.713021790284841</v>
+        <v>48.712778373330721</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2010292387047579</v>
+        <v>2.2006883374891593</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.713021682381836</v>
+        <v>48.712651690781996</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2010292301679737</v>
+        <v>2.2002049060765354</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.713021657404838</v>
+        <v>48.712662129538849</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2010291523432577</v>
+        <v>2.200211547621691</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.713021641733818</v>
+        <v>48.712667660463623</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2010292105116998</v>
+        <v>2.20020215745549</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.713021554047217</v>
+        <v>48.712673008869018</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2010290337131697</v>
+        <v>2.2001916539477136</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.713021503287841</v>
+        <v>48.71268919918375</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2010291271951865</v>
+        <v>2.2002192480316349</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.713021356709277</v>
+        <v>48.71268354752447</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2010290944318909</v>
+        <v>2.2001683018937457</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.713021345841589</v>
+        <v>48.712703507936382</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2010290019869805</v>
+        <v>2.2002097035630164</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.713021832941351</v>
+        <v>48.712709928772767</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2010291215731979</v>
+        <v>2.2002025539818218</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.713021787433164</v>
+        <v>48.712730723183874</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2010290066227087</v>
+        <v>2.2002436924441278</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.713021648923515</v>
+        <v>48.7127304014369</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2010289871733506</v>
+        <v>2.2002136089612501</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.713021605860916</v>
+        <v>48.712720998089978</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2010290137232604</v>
+        <v>2.2001878785072844</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.713021527978967</v>
+        <v>48.712729556915548</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2010290253375113</v>
+        <v>2.200185309734275</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.713021457347466</v>
+        <v>48.712680191104482</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2010288858949862</v>
+        <v>2.2002910946864862</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.713021376905957</v>
+        <v>48.712731713345434</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2010289259765825</v>
+        <v>2.2001788809672691</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.713021435711326</v>
+        <v>48.71272916789848</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2010288517915515</v>
+        <v>2.2001686357967447</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.713021343472086</v>
+        <v>48.712741327608299</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2010288646116072</v>
+        <v>2.2001844906247237</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.713021170082982</v>
+        <v>48.712750945195523</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2010287559208388</v>
+        <v>2.2002011824141952</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.713021170552921</v>
+        <v>48.712770548328877</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2010287506234181</v>
+        <v>2.200234679072075</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.713021110502155</v>
+        <v>48.712749393480301</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2010287719547854</v>
+        <v>2.2002200941564172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.713021023268915</v>
+        <v>48.712733651612879</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2010286967888155</v>
+        <v>2.2002503115703878</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.713021008421286</v>
+        <v>48.712671627014828</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2010287519148721</v>
+        <v>2.2003960067474613</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.713020894947618</v>
+        <v>48.712642197112899</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2010286982890328</v>
+        <v>2.2004663465990446</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.71302085245113</v>
+        <v>48.712627442782363</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2010286347166588</v>
+        <v>2.2005002939415981</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.713020748697339</v>
+        <v>48.712614400905835</v>
       </c>
       <c r="B229" s="0">
-        <v>2.201028565599231</v>
+        <v>2.2005331522110181</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.713020682024137</v>
+        <v>48.712606535000724</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2010285580886566</v>
+        <v>2.2005534880667486</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.713020601701338</v>
+        <v>48.71259430963179</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2010285463074557</v>
+        <v>2.2005826223757881</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.713020543429614</v>
+        <v>48.712612236312474</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2010286269637347</v>
+        <v>2.2005402421148474</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.713020538573801</v>
+        <v>48.712616677877328</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2010284456167559</v>
+        <v>2.200528864774951</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.713020538573801</v>
+        <v>48.712600996964952</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2010284456167559</v>
+        <v>2.2005648264808762</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.713020274589979</v>
+        <v>48.712672420067428</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2010284228806909</v>
+        <v>2.2003949354557233</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712704677701488</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003197503799194</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712700850560104</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003285000200608</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.713020083339679</v>
+        <v>48.71269519889789</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.200340372077358</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712689726933611</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.200352853038742</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712706946842502</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003113569823549</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712700730239682</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003235938992005</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.713020083339679</v>
+        <v>48.71269500240075</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003362001757134</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712670746257473</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2004311807295558</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712662063158383</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.200433191769037</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712661992611565</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003883835521267</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712635346006479</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003107282665635</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712622538220089</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2002981655601213</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712620615679292</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2003217196657308</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712603987922733</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2002904977363826</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712612280257581</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2002475770015586</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.713020083339679</v>
+        <v>48.712592217944419</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2010283795509822</v>
+        <v>2.2001792452497511</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.713017169140734</v>
+        <v>48.712610803390895</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2010275648264228</v>
+        <v>2.2002245046597491</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.713021069008292</v>
+        <v>48.712629036716642</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2010284975430321</v>
+        <v>2.2002553018225828</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.713021009834883</v>
+        <v>48.712626720649219</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2010284432125769</v>
+        <v>2.2002148046470853</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.713020888898207</v>
+        <v>48.712637118470909</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2010284402357057</v>
+        <v>2.2002196408846708</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.713020918317753</v>
+        <v>48.712636409088127</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2010284175871884</v>
+        <v>2.2001882950761877</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.713020685521442</v>
+        <v>48.712651364623561</v>
       </c>
       <c r="B257" s="0">
-        <v>2.20102834647026</v>
+        <v>2.2002092135311684</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.713020761647634</v>
+        <v>48.712661427278654</v>
       </c>
       <c r="B258" s="0">
-        <v>2.201028318694636</v>
+        <v>2.2002142586405338</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.713020599035673</v>
+        <v>48.712663386470311</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2010282916288428</v>
+        <v>2.2001940998138108</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.713020523915354</v>
+        <v>48.712669847503186</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2010282856209971</v>
+        <v>2.2001814644373323</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.713020454335258</v>
+        <v>48.712675837249783</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2010282646086687</v>
+        <v>2.2001744236261147</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.71302047991091</v>
+        <v>48.712689741816888</v>
       </c>
       <c r="B262" s="0">
-        <v>2.2010282437321465</v>
+        <v>2.200190466577848</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.713020346435286</v>
+        <v>48.712691813050782</v>
       </c>
       <c r="B263" s="0">
-        <v>2.201028206224545</v>
+        <v>2.2001673931894077</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.713020254394543</v>
+        <v>48.71270329790547</v>
       </c>
       <c r="B264" s="0">
-        <v>2.201028158520685</v>
+        <v>2.2001761386452738</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.713020239708513</v>
+        <v>48.71272321965521</v>
       </c>
       <c r="B265" s="0">
-        <v>2.2010280835796614</v>
+        <v>2.2002119102762681</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.713020199743362</v>
+        <v>48.712727987947574</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2010281527323925</v>
+        <v>2.2002095518633911</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.713020547450597</v>
+        <v>48.712726903248175</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2010281846153514</v>
+        <v>2.2001727079991791</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.713020629123932</v>
+        <v>48.712736748221239</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2010282061844766</v>
+        <v>2.2001744726481025</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.713020461212743</v>
+        <v>48.71272960879643</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2010282022794474</v>
+        <v>2.2002683965684455</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.713020394379853</v>
+        <v>48.712703065624041</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2010281375030565</v>
+        <v>2.200336916918662</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.713020358765895</v>
+        <v>48.712712602339813</v>
       </c>
       <c r="B271" s="0">
-        <v>2.20102810369296</v>
+        <v>2.2003165569955652</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.713020279085427</v>
+        <v>48.712746175159779</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2010280456320417</v>
+        <v>2.2002369775099289</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.713020172750653</v>
+        <v>48.712743450966826</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2010280730586107</v>
+        <v>2.2002792476453896</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.713020180919045</v>
+        <v>48.712736846638812</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2010280538880926</v>
+        <v>2.2003039670793845</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.713020128281954</v>
+        <v>48.712735494231403</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2010280461512131</v>
+        <v>2.2003175631321965</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.71302009034504</v>
+        <v>48.71272397387849</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2010280365103969</v>
+        <v>2.2003220663516596</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.713019882319692</v>
+        <v>48.712732562180946</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2010279744741279</v>
+        <v>2.2003011602781801</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.713019938861763</v>
+        <v>48.712720012873824</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2010280356193368</v>
+        <v>2.2003278063572429</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.713019777197736</v>
+        <v>48.71270578247082</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2010279429074324</v>
+        <v>2.2003616693104133</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.713019754245877</v>
+        <v>48.712684358160587</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2010279678649716</v>
+        <v>2.200411589709296</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.713019688924987</v>
+        <v>48.712658855606506</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2010278763823883</v>
+        <v>2.2004690036565053</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.713019625947901</v>
+        <v>48.712623766770506</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2010279132363064</v>
+        <v>2.2005520483903718</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.71301955967671</v>
+        <v>48.712592694752587</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2010278534336969</v>
+        <v>2.2006259681156042</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.713019464382803</v>
+        <v>48.71259171637066</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2010277809719603</v>
+        <v>2.2006266256690141</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.713019458162407</v>
+        <v>48.712599101505745</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2010278683012654</v>
+        <v>2.2006099319582368</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.713019383940278</v>
+        <v>48.712678338392067</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2010277998754382</v>
+        <v>2.2004220578737823</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.713019272034174</v>
+        <v>48.712720603667293</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2010277973445063</v>
+        <v>2.2003202428377482</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.713019242008869</v>
+        <v>48.7127353237344</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2010277988395615</v>
+        <v>2.2002839815629383</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.713019204136202</v>
+        <v>48.712729563795797</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2010277797846727</v>
+        <v>2.2002948298810994</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.71301911620926</v>
+        <v>48.712723844516212</v>
       </c>
       <c r="B290" s="0">
-        <v>2.201027770676796</v>
+        <v>2.2003070615495162</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.713019054036742</v>
+        <v>48.712712251042923</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2010277655764767</v>
+        <v>2.2003343602595806</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.713018965594266</v>
+        <v>48.712680325726375</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2010277484728733</v>
+        <v>2.2004099580748369</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.713018891792217</v>
+        <v>48.712686942707428</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2010277400639966</v>
+        <v>2.200395052750058</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.713018793779121</v>
+        <v>48.712693472027667</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2010276830419562</v>
+        <v>2.2003785923877581</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.713018770221218</v>
+        <v>48.712668345152572</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2010277391289574</v>
+        <v>2.2003686719126501</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.713018781094142</v>
+        <v>48.712661410477878</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2010277023177212</v>
+        <v>2.2003670388032362</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.713018726526336</v>
+        <v>48.712656712992562</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2010276693225332</v>
+        <v>2.2003564933649389</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.713018702407077</v>
+        <v>48.71263646747672</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2010276943474785</v>
+        <v>2.2003209378270143</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.713018546522441</v>
+        <v>48.712652767656536</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2010275871142886</v>
+        <v>2.2003040175962236</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.71301850313111</v>
+        <v>48.712618563206476</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2010275986055037</v>
+        <v>2.2003485488210459</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.713018398443815</v>
+        <v>48.712601535626177</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2010276332445255</v>
+        <v>2.20031422061605</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.713018407268031</v>
+        <v>48.712739472142573</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2010275971149365</v>
+        <v>2.2007534889728668</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.713018390073934</v>
+        <v>48.712576754456947</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2010275965680979</v>
+        <v>2.2002294285169799</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.713018331103754</v>
+        <v>48.712580508457712</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2010276014933385</v>
+        <v>2.2002192648509871</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.713018268471544</v>
+        <v>48.712594055133231</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2010275585891379</v>
+        <v>2.2002343285108341</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.71301825766998</v>
+        <v>48.712597105787339</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2010275225512279</v>
+        <v>2.2002158029580312</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.713018133204109</v>
+        <v>48.712758833604312</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2010275322547015</v>
+        <v>2.2007041122714068</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.713018091466928</v>
+        <v>48.712601941365001</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2010274909665828</v>
+        <v>2.200179753850362</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.713017993736465</v>
+        <v>48.71261461999994</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2010274726252286</v>
+        <v>2.2001919994174308</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.713017916666161</v>
+        <v>48.712622368213395</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2010274369169727</v>
+        <v>2.2001896739947568</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.713017955723387</v>
+        <v>48.712641323040899</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2010273984721795</v>
+        <v>2.2002248520700221</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.71301784517393</v>
+        <v>48.712648228895638</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2010273582669258</v>
+        <v>2.2002167299744864</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.71301779673405</v>
+        <v>48.712637280797217</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2010273638807196</v>
+        <v>2.2001563379017561</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.713017725544624</v>
+        <v>48.712637038941146</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2010273151359629</v>
+        <v>2.2001281704287297</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.713017750176903</v>
+        <v>48.712666243828359</v>
       </c>
       <c r="B315" s="0">
-        <v>2.201027315631455</v>
+        <v>2.2001911625592805</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.713112294843768</v>
+        <v>48.712683205106202</v>
       </c>
       <c r="B316" s="0">
-        <v>2.201051431844014</v>
+        <v>2.2002158356163957</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.71309400804055</v>
+        <v>48.712699985017224</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2010467613059506</v>
+        <v>2.2002430049420756</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712704211723945</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2002382039592781</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712691821076113</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001683665780933</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712713966655649</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2002084180902997</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712719774959148</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001986650408711</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712734061096128</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001025561516223</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712724579586769</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001165437511054</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712709604091153</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001429340815855</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712712980951189</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001348777048007</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712741806467967</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2000886183715611</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712709058427372</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2002079177430409</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.713098441121183</v>
+        <v>48.71273448594561</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2001208698955934</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712617378848769</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2003902792813919</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.713098441121183</v>
+        <v>48.712550167126928</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2010479757792298</v>
+        <v>2.2005508768450208</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.71315617299895</v>
+        <v>48.712554672551967</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2010625102174908</v>
+        <v>2.2005390603081909</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.713156097882092</v>
+        <v>48.712535366342273</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2010624299788515</v>
+        <v>2.2005837556045305</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.713155965038411</v>
+        <v>48.712509096697886</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2010623381677386</v>
+        <v>2.2006452741072598</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.713155925843694</v>
+        <v>48.712518371834371</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2010623538340632</v>
+        <v>2.2006225688386083</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.713155899347974</v>
+        <v>48.712513081517422</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2010622897023615</v>
+        <v>2.2006335608053744</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.713155747164848</v>
+        <v>48.712518587783762</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2010622945717815</v>
+        <v>2.2006188263603637</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.713155699098685</v>
+        <v>48.71254652502337</v>
       </c>
       <c r="B337" s="0">
-        <v>2.201062195703571</v>
+        <v>2.2005515342341244</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.713155579673</v>
+        <v>48.712634993769363</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2010621608962659</v>
+        <v>2.2003398302938297</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.713155490000879</v>
+        <v>48.712656501384608</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2010620933558167</v>
+        <v>2.2002867489286024</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.713155431461708</v>
+        <v>48.712677232254762</v>
       </c>
       <c r="B340" s="0">
-        <v>2.201062036634875</v>
+        <v>2.2002357723977202</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.713155373041282</v>
+        <v>48.712683062434856</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2010620924393609</v>
+        <v>2.2002208018829879</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.713155224108334</v>
+        <v>48.712672701889076</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2010619886744784</v>
+        <v>2.2002428474975027</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.713155102633593</v>
+        <v>48.712684610686253</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2010619610634006</v>
+        <v>2.2002124867488768</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.713155060865382</v>
+        <v>48.712684472889954</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2010619040438031</v>
+        <v>2.2002837536509259</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.713155048305531</v>
+        <v>48.712676716299292</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2010619397915465</v>
+        <v>2.2003006181408154</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.713154821460378</v>
+        <v>48.712672035540294</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2010618626911183</v>
+        <v>2.200312072720441</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.713154821642718</v>
+        <v>48.712662960571592</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2010618140900657</v>
+        <v>2.2003148970855038</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.713154664553216</v>
+        <v>48.712659179427249</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2010616934289269</v>
+        <v>2.2003025943908043</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.713154630892767</v>
+        <v>48.712639222669594</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2010617292916548</v>
+        <v>2.2002939480818906</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.713154590324926</v>
+        <v>48.71262238608891</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2010615976115431</v>
+        <v>2.2002726094840064</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.713154515642977</v>
+        <v>48.712585758321765</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2010616716978895</v>
+        <v>2.2002322555082037</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.713154348694516</v>
+        <v>48.712584803899759</v>
       </c>
       <c r="B352" s="0">
-        <v>2.201061499468246</v>
+        <v>2.2002563119510175</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.713154257899241</v>
+        <v>48.712580344928355</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2010614981285039</v>
+        <v>2.2002053598612759</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.71315408268638</v>
+        <v>48.712585536401875</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2010614743371466</v>
+        <v>2.2002161995382523</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.713154108248673</v>
+        <v>48.712589585808367</v>
       </c>
       <c r="B355" s="0">
-        <v>2.201061471277034</v>
+        <v>2.2002269303592623</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.713154036117409</v>
+        <v>48.712592332379423</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2010614236448616</v>
+        <v>2.2002233613503011</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.713153964983555</v>
+        <v>48.712582190305817</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2010613531964549</v>
+        <v>2.2001656712425626</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.713153891984369</v>
+        <v>48.712580775353473</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2010613862737065</v>
+        <v>2.200136075929112</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.713055184143357</v>
+        <v>48.712587606074813</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2010363059684916</v>
+        <v>2.2001284733123039</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712618087782808</v>
       </c>
       <c r="B360" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001934426303924</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712619912325351</v>
       </c>
       <c r="B361" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001694307820188</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.713056171887615</v>
+        <v>48.71263709704963</v>
       </c>
       <c r="B362" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001905072306722</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712630889300819</v>
       </c>
       <c r="B363" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001440702922408</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.713056171887615</v>
+        <v>48.71263708498271</v>
       </c>
       <c r="B364" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001338464167786</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712656721414838</v>
       </c>
       <c r="B365" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001661927458609</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712653798542696</v>
       </c>
       <c r="B366" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001294357652452</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712660128220499</v>
       </c>
       <c r="B367" s="0">
-        <v>2.201036556032018</v>
+        <v>2.200121117550343</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712677645580129</v>
       </c>
       <c r="B368" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001428615569032</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712704259778775</v>
       </c>
       <c r="B369" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001918687760407</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712706880742076</v>
       </c>
       <c r="B370" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001774012233235</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712696383331206</v>
       </c>
       <c r="B371" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001153169187839</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712716869820902</v>
       </c>
       <c r="B372" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001681098461656</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.713056171887615</v>
+        <v>48.71273042284821</v>
       </c>
       <c r="B373" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001788942520411</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.713056171887615</v>
+        <v>48.712710061261248</v>
       </c>
       <c r="B374" s="0">
-        <v>2.201036556032018</v>
+        <v>2.2001448776813262</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.713072226218159</v>
+        <v>48.712700187563307</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2010403582655038</v>
+        <v>2.2001431501349482</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.713094494805794</v>
+        <v>48.712701588871518</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2010459651186269</v>
+        <v>2.2001724576214867</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.713219015069655</v>
+        <v>48.712726975962823</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2010774276169531</v>
+        <v>2.2001401354295034</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.713219015069655</v>
+        <v>48.712727892386539</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2010774276169531</v>
+        <v>2.2001482239442738</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.713219015069655</v>
+        <v>48.710719307304686</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2010774276169531</v>
+        <v>2.2049712280318645</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.713219015069655</v>
+        <v>48.712721388977101</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2010774276169531</v>
+        <v>2.2001535854817891</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.713716758706326</v>
+        <v>48.712669775613314</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2012033954543715</v>
+        <v>2.2003012950448966</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.713716758706326</v>
+        <v>48.712674054775789</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2012033954543715</v>
+        <v>2.20030965041069</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.713716758706326</v>
+        <v>48.71265739357213</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2012033954543715</v>
+        <v>2.2003490452906402</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712626345419316</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2004211149240955</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712612871451455</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2004489692581326</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712596424732858</v>
       </c>
       <c r="B386" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2004882671521404</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712584573026042</v>
       </c>
       <c r="B387" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2005163465872264</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712591306251007</v>
       </c>
       <c r="B388" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2004978101267714</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>48.714089475420579</v>
+        <v>48.712596116270213</v>
       </c>
       <c r="B389" s="0">
-        <v>2.2012974069000717</v>
+        <v>2.2004857286913384</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>48.714833447525493</v>
+        <v>48.712606152294541</v>
       </c>
       <c r="B390" s="0">
-        <v>2.2014849680219379</v>
+        <v>2.2004608875575653</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>48.714791428604173</v>
+        <v>48.712627922943767</v>
       </c>
       <c r="B391" s="0">
-        <v>2.2014742816062731</v>
+        <v>2.2004074963773568</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>48.714770075660191</v>
+        <v>48.712670735385288</v>
       </c>
       <c r="B392" s="0">
-        <v>2.2014688121909614</v>
+        <v>2.2003056321015673</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>48.714769664514861</v>
+        <v>48.712685960140014</v>
       </c>
       <c r="B393" s="0">
-        <v>2.2014686260823608</v>
+        <v>2.200268077680152</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>48.714768846251452</v>
+        <v>48.712680551865773</v>
       </c>
       <c r="B394" s="0">
-        <v>2.2014682720531029</v>
+        <v>2.2002791957316803</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>48.714710272521799</v>
+        <v>48.712674560489234</v>
       </c>
       <c r="B395" s="0">
-        <v>2.201453460098572</v>
+        <v>2.2002910886969871</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>48.714689580344761</v>
+        <v>48.712660134558057</v>
       </c>
       <c r="B396" s="0">
-        <v>2.2014482106823188</v>
+        <v>2.2003275720538999</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>48.714707828520261</v>
+        <v>48.712663228178087</v>
       </c>
       <c r="B397" s="0">
-        <v>2.2014526142725788</v>
+        <v>2.2003195725676088</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>48.714707506329603</v>
+        <v>48.712640397939765</v>
       </c>
       <c r="B398" s="0">
-        <v>2.2014524665794557</v>
+        <v>2.200373071518599</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>48.714706975028051</v>
+        <v>48.712659030803309</v>
       </c>
       <c r="B399" s="0">
-        <v>2.2014521911307097</v>
+        <v>2.2003389475418667</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>48.714706616249835</v>
+        <v>48.712660357452826</v>
       </c>
       <c r="B400" s="0">
-        <v>2.2014520080032121</v>
+        <v>2.2003117049105425</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>48.714706169803357</v>
+        <v>48.712648372989584</v>
       </c>
       <c r="B401" s="0">
-        <v>2.2014517227076715</v>
+        <v>2.2003054665233219</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>48.714683531442112</v>
+        <v>48.71262058486284</v>
       </c>
       <c r="B402" s="0">
-        <v>2.2014459192951024</v>
+        <v>2.2002528899996099</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>48.714709010200693</v>
+        <v>48.712621889669038</v>
       </c>
       <c r="B403" s="0">
-        <v>2.2014522186143366</v>
+        <v>2.2002811624700054</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>48.714708465949997</v>
+        <v>48.712587759295147</v>
       </c>
       <c r="B404" s="0">
-        <v>2.2014519677358346</v>
+        <v>2.200298887899864</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>48.714708007586431</v>
+        <v>48.712569439314073</v>
       </c>
       <c r="B405" s="0">
-        <v>2.2014518191849581</v>
+        <v>2.2002825363915761</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>48.714748971464339</v>
+        <v>48.71257425770537</v>
       </c>
       <c r="B406" s="0">
-        <v>2.2014620306978485</v>
+        <v>2.2002676772857894</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>48.714748603759389</v>
+        <v>48.712578058160865</v>
       </c>
       <c r="B407" s="0">
-        <v>2.20146183317254</v>
+        <v>2.2003096325386955</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>48.714748179521429</v>
+        <v>48.712582925802252</v>
       </c>
       <c r="B408" s="0">
-        <v>2.2014615451059609</v>
+        <v>2.2003211061256556</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>48.714747580660344</v>
+        <v>48.712570797044137</v>
       </c>
       <c r="B409" s="0">
-        <v>2.2014612250757186</v>
+        <v>2.2002750945255962</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>48.714747212789227</v>
+        <v>48.712566986177833</v>
       </c>
       <c r="B410" s="0">
-        <v>2.2014610487579795</v>
+        <v>2.2002398005428732</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>48.714746705280859</v>
+        <v>48.71256357329785</v>
       </c>
       <c r="B411" s="0">
-        <v>2.2014608227367982</v>
+        <v>2.2002062367615105</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>48.714746258703094</v>
+        <v>48.712581460459212</v>
       </c>
       <c r="B412" s="0">
-        <v>2.2014606358301938</v>
+        <v>2.2002326107551018</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>48.714637531825368</v>
+        <v>48.71259049537661</v>
       </c>
       <c r="B413" s="0">
-        <v>2.2014331308794559</v>
+        <v>2.2002315696256391</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>48.714636898925861</v>
+        <v>48.712595808330534</v>
       </c>
       <c r="B414" s="0">
-        <v>2.2014329586023527</v>
+        <v>2.2002194382767244</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>48.714622101875456</v>
+        <v>48.712611053639868</v>
       </c>
       <c r="B415" s="0">
-        <v>2.2014290872904412</v>
+        <v>2.200236449812885</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>48.71460631809942</v>
+        <v>48.712612230252162</v>
       </c>
       <c r="B416" s="0">
-        <v>2.2014250258475632</v>
+        <v>2.2002100241440754</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>48.71460631809942</v>
+        <v>48.712611372319742</v>
       </c>
       <c r="B417" s="0">
-        <v>2.2014250258475632</v>
+        <v>2.2001827202959818</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>48.714574918839531</v>
+        <v>48.712624477825571</v>
       </c>
       <c r="B418" s="0">
-        <v>2.2014169494020952</v>
+        <v>2.200190980349729</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>48.714549078718044</v>
+        <v>48.712624374094418</v>
       </c>
       <c r="B419" s="0">
-        <v>2.2014103453323508</v>
+        <v>2.2001669429376691</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>48.714549078718044</v>
+        <v>48.712631203967327</v>
       </c>
       <c r="B420" s="0">
-        <v>2.2014103453323508</v>
+        <v>2.2001579933734594</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>48.714497293904699</v>
+        <v>48.712657934460964</v>
       </c>
       <c r="B421" s="0">
-        <v>2.2013970876605686</v>
+        <v>2.2002015297633974</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>48.714496586933336</v>
+        <v>48.712666326476267</v>
       </c>
       <c r="B422" s="0">
-        <v>2.2013969123303667</v>
+        <v>2.2001922164073178</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>48.714518331112394</v>
+        <v>48.712676962471754</v>
       </c>
       <c r="B423" s="0">
-        <v>2.2014021735859393</v>
+        <v>2.2001893185159549</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>48.714518092390414</v>
+        <v>48.712678965652465</v>
       </c>
       <c r="B424" s="0">
-        <v>2.2014020188563332</v>
+        <v>2.200169297635072</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>48.714517642693814</v>
+        <v>48.712699397118108</v>
       </c>
       <c r="B425" s="0">
-        <v>2.2014018929259764</v>
+        <v>2.2001967313408413</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>48.714520359130745</v>
+        <v>48.71273434262848</v>
       </c>
       <c r="B426" s="0">
-        <v>2.2014024058667023</v>
+        <v>2.200163855669222</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>48.714529265255706</v>
+        <v>48.712724129568578</v>
       </c>
       <c r="B427" s="0">
-        <v>2.2014045546782124</v>
+        <v>2.2002000984689918</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>48.714528991488777</v>
+        <v>48.712722669452248</v>
       </c>
       <c r="B428" s="0">
-        <v>2.201404320010965</v>
+        <v>2.200168416530897</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>48.714528464392416</v>
+        <v>48.712746090611077</v>
       </c>
       <c r="B429" s="0">
-        <v>2.2014041280240257</v>
+        <v>2.2001439320279652</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>48.714525982496063</v>
+        <v>48.712739435891436</v>
       </c>
       <c r="B430" s="0">
-        <v>2.2014034089504029</v>
+        <v>2.2001415956521329</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>48.7145168933815</v>
+        <v>48.712753881038282</v>
       </c>
       <c r="B431" s="0">
-        <v>2.2014010056295721</v>
+        <v>2.2001805929441871</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>48.714516270683681</v>
+        <v>48.712837352663605</v>
       </c>
       <c r="B432" s="0">
-        <v>2.2014007697827784</v>
+        <v>2.2006188898781143</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>48.714516011469471</v>
+        <v>48.712756019103075</v>
       </c>
       <c r="B433" s="0">
-        <v>2.2014006936079404</v>
+        <v>2.2002887131783062</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>48.714515644964941</v>
+        <v>48.712724831017503</v>
       </c>
       <c r="B434" s="0">
-        <v>2.2014003994820244</v>
+        <v>2.2003589158483705</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>48.714505375302075</v>
+        <v>48.712714947335833</v>
       </c>
       <c r="B435" s="0">
-        <v>2.201397698072868</v>
+        <v>2.2003847377999737</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>48.714505009650246</v>
+        <v>48.712678139786469</v>
       </c>
       <c r="B436" s="0">
-        <v>2.201397555348648</v>
+        <v>2.2004696226159868</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>48.71450463471642</v>
+        <v>48.712666485282838</v>
       </c>
       <c r="B437" s="0">
-        <v>2.2013972848916503</v>
+        <v>2.2004950333468716</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>48.71450421767404</v>
+        <v>48.712677581586519</v>
       </c>
       <c r="B438" s="0">
-        <v>2.2013971084260135</v>
+        <v>2.2004691836588211</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>48.714451168907168</v>
+        <v>48.712672105296456</v>
       </c>
       <c r="B439" s="0">
-        <v>2.2013836916590965</v>
+        <v>2.2004776366516925</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712648977425971</v>
       </c>
       <c r="B440" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2005328000249773</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712643241961743</v>
       </c>
       <c r="B441" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2005462039448269</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712636718610774</v>
       </c>
       <c r="B442" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2005610336944836</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712649146773451</v>
       </c>
       <c r="B443" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2005298703879772</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712725513453485</v>
       </c>
       <c r="B444" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2003460743129137</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712724891779992</v>
       </c>
       <c r="B445" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2003462943286318</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>48.714454470017586</v>
+        <v>48.71276776725945</v>
       </c>
       <c r="B446" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2002725102789391</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>48.714454470017586</v>
+        <v>48.712741714952642</v>
       </c>
       <c r="B447" s="0">
-        <v>2.2013845087284474</v>
+        <v>2.2003322412579069</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>48.714481170907782</v>
+        <v>48.712736961308693</v>
       </c>
       <c r="B448" s="0">
-        <v>2.2013904340024948</v>
+        <v>2.2003450391109363</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>48.714497591055284</v>
+        <v>48.712732439073911</v>
       </c>
       <c r="B449" s="0">
-        <v>2.2013943769948221</v>
+        <v>2.2003565913493084</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>48.714508285802154</v>
+        <v>48.712727217596814</v>
       </c>
       <c r="B450" s="0">
-        <v>2.2013969286897721</v>
+        <v>2.2003697390486661</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>48.714420018526852</v>
+        <v>48.712733085651784</v>
       </c>
       <c r="B451" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.2003523128536182</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>48.714420018526852</v>
+        <v>48.712727720041499</v>
       </c>
       <c r="B452" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.2003646380247437</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>48.714420018526852</v>
+        <v>48.712719418017265</v>
       </c>
       <c r="B453" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.2003696195849356</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>48.714420018526852</v>
+        <v>48.71272159185299</v>
       </c>
       <c r="B454" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.2003312539296145</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>48.714420018526852</v>
+        <v>48.712669893828419</v>
       </c>
       <c r="B455" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.20035680462466</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>48.714420018526852</v>
+        <v>48.712676448057664</v>
       </c>
       <c r="B456" s="0">
-        <v>2.2013748249246863</v>
+        <v>2.2004143102157126</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>48.713890281037372</v>
+        <v>48.712636051378809</v>
       </c>
       <c r="B457" s="0">
-        <v>2.2012424496223262</v>
+        <v>2.2003379630179052</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712653976593323</v>
       </c>
       <c r="B458" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2003426472442316</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>48.713896347172742</v>
+        <v>48.71261930363476</v>
       </c>
       <c r="B459" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2002616053004131</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712623302789481</v>
       </c>
       <c r="B460" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2002731662400095</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712631988799892</v>
       </c>
       <c r="B461" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2002930653889212</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712632187955144</v>
       </c>
       <c r="B462" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2002935347142021</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712631962645311</v>
       </c>
       <c r="B463" s="0">
-        <v>2.2012439402981006</v>
+        <v>2.2002937582915671</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>48.713896347172742</v>
+        <v>48.712631789907121</v>
       </c>
       <c r="B464" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B465" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B466" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B467" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B468" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B469" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B470" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B471" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B472" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B473" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B474" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B475" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B476" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B477" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B478" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="0">
-        <v>48.713896347172742</v>
-      </c>
-      <c r="B479" s="0">
-        <v>2.2012439402981006</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="0">
-        <v>48.714028558801026</v>
-      </c>
-      <c r="B480" s="0">
-        <v>2.2012750257687728</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="0">
-        <v>48.71403258806302</v>
-      </c>
-      <c r="B481" s="0">
-        <v>2.2012759550102947</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="0">
-        <v>48.71403215471549</v>
-      </c>
-      <c r="B482" s="0">
-        <v>2.2012757504956988</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="0">
-        <v>48.71403215471549</v>
-      </c>
-      <c r="B483" s="0">
-        <v>2.2012757504956988</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="0">
-        <v>48.71403215471549</v>
-      </c>
-      <c r="B484" s="0">
-        <v>2.2012757504956988</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="0">
-        <v>48.71403215471549</v>
-      </c>
-      <c r="B485" s="0">
-        <v>2.2012757504956988</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="0">
-        <v>48.71403215471549</v>
-      </c>
-      <c r="B486" s="0">
-        <v>2.2012757504956988</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="0">
-        <v>48.714030225075554</v>
-      </c>
-      <c r="B487" s="0">
-        <v>2.2012748007509564</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="0">
-        <v>48.714062206815775</v>
-      </c>
-      <c r="B488" s="0">
-        <v>2.2012826300353372</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="0">
-        <v>48.714061951020675</v>
-      </c>
-      <c r="B489" s="0">
-        <v>2.2012825051125309</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B490" s="0">
-        <v>2.2012822620542916</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B491" s="0">
-        <v>2.2012822620542916</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B492" s="0">
-        <v>2.2012822620542916</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B493" s="0">
-        <v>2.2012822620542916</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B494" s="0">
-        <v>2.2012822620542916</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="0">
-        <v>48.714061567911294</v>
-      </c>
-      <c r="B495" s="0">
-        <v>2.2012822620542916</v>
+        <v>2.2002937921804295</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B464"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3714 +65,3082 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.712782017724237</v>
+        <v>48.713138051662561</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2008250050212426</v>
+        <v>2.2199025169947975</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.712786419594046</v>
+        <v>48.71313803111353</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2008437255153695</v>
+        <v>2.2199024954065236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.712789738319948</v>
+        <v>48.713138035194213</v>
       </c>
       <c r="B3" s="0">
-        <v>2.2008584538606342</v>
+        <v>2.219902477525642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.712792148337115</v>
+        <v>48.713138101640787</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2008686759235938</v>
+        <v>2.2199024382087718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.712792890670471</v>
+        <v>48.713138082480583</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2008716628501737</v>
+        <v>2.2199024729352348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.712792874550018</v>
+        <v>48.713138064499169</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2008715866297433</v>
+        <v>2.2199024760045969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.712792949475691</v>
+        <v>48.713138091454546</v>
       </c>
       <c r="B7" s="0">
-        <v>2.2008716258389924</v>
+        <v>2.219902459175501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.712792939271793</v>
+        <v>48.713138127111627</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2008716283237213</v>
+        <v>2.2199024099160791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.712792968834428</v>
+        <v>48.713138158458719</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2008716013484242</v>
+        <v>2.2199024131117775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.712792927528184</v>
+        <v>48.713138183009072</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2008716030162931</v>
+        <v>2.2199023866380006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.712792961059755</v>
+        <v>48.713138219001941</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2008715334521472</v>
+        <v>2.2199024310445261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.712793001746817</v>
+        <v>48.713138210262407</v>
       </c>
       <c r="B12" s="0">
-        <v>2.200871500579793</v>
+        <v>2.219902395332054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.712792970886973</v>
+        <v>48.713138190118109</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2008714771677607</v>
+        <v>2.2199023908998949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.712793058534082</v>
+        <v>48.713138227744715</v>
       </c>
       <c r="B14" s="0">
-        <v>2.2008719033812105</v>
+        <v>2.219902366738403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.712793115650129</v>
+        <v>48.71313823142377</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2008719238239469</v>
+        <v>2.2199023572364154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.712782633642561</v>
+        <v>48.713138237625252</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2008275225894502</v>
+        <v>2.2199023524679875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.712780881691089</v>
+        <v>48.713138231215872</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2008200015698902</v>
+        <v>2.2199023396994306</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.712780877628447</v>
+        <v>48.713138252472845</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2008199485025175</v>
+        <v>2.2199023226444776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.712780903943759</v>
+        <v>48.713138301273183</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2008200603468868</v>
+        <v>2.2199023323564013</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.712780904170998</v>
+        <v>48.713138301613668</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2008200742339734</v>
+        <v>2.2199023098847302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.712780868974392</v>
+        <v>48.713138327925982</v>
       </c>
       <c r="B21" s="0">
-        <v>2.2008200922095056</v>
+        <v>2.219902311100328</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.712780798116988</v>
+        <v>48.713138299914029</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2008200475201765</v>
+        <v>2.2199023349647948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.712780917224158</v>
+        <v>48.713138325896402</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2008199943593381</v>
+        <v>2.2199023226963988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.712780916322167</v>
+        <v>48.713138342541178</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2008201788427586</v>
+        <v>2.2199022949818406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.71278092285084</v>
+        <v>48.713138338917062</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2008200877508104</v>
+        <v>2.2199022639395358</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.712780838047259</v>
+        <v>48.713138360379105</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2008202244435595</v>
+        <v>2.2199022708003469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.712780746436238</v>
+        <v>48.713138370973212</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2008202105117354</v>
+        <v>2.2199023062211061</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.712780776208</v>
+        <v>48.713138370845044</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2008203402253193</v>
+        <v>2.2199022198207343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.71273224230255</v>
+        <v>48.713138380222709</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2006454508403603</v>
+        <v>2.2199022232154726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.712762529342626</v>
+        <v>48.713138392260532</v>
       </c>
       <c r="B30" s="0">
-        <v>2.2007665246905859</v>
+        <v>2.219902196197399</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.712761414849119</v>
+        <v>48.713138424450683</v>
       </c>
       <c r="B31" s="0">
-        <v>2.200752823089208</v>
+        <v>2.2199022408069094</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.712774412431123</v>
+        <v>48.713138439391628</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2007870928330595</v>
+        <v>2.2199021942503361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.712767016643319</v>
+        <v>48.713138439404617</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2007372599950812</v>
+        <v>2.2199022113829794</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.71277260909303</v>
+        <v>48.713138459407425</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2007369673243797</v>
+        <v>2.2199021693529622</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.712782298934243</v>
+        <v>48.713138464700179</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2007567875611405</v>
+        <v>2.2199021962080159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.712784445065225</v>
+        <v>48.713138491589824</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2007423292749624</v>
+        <v>2.219902206831144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.712791885840929</v>
+        <v>48.713138532167072</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2007522071194758</v>
+        <v>2.2199021931710572</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.712780242478523</v>
+        <v>48.713138476204478</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2006785349626155</v>
+        <v>2.2199021480626313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.712801883845018</v>
+        <v>48.713138528559448</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2007441532532157</v>
+        <v>2.2199021187677173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.712801139498367</v>
+        <v>48.713138513781061</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2007191749807551</v>
+        <v>2.2199020934455582</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.712805251518852</v>
+        <v>48.713138548647592</v>
       </c>
       <c r="B41" s="0">
-        <v>2.2007101371912632</v>
+        <v>2.219902122585129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.712811431672812</v>
+        <v>48.713138614719348</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2007102271274976</v>
+        <v>2.2199020998666801</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.712814123118896</v>
+        <v>48.71313852682173</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2006967399668569</v>
+        <v>2.2199020556273874</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.712825594972607</v>
+        <v>48.713138598426603</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2007192149382306</v>
+        <v>2.2199020846962423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.712844815733874</v>
+        <v>48.713138634846999</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2007744649884589</v>
+        <v>2.2199021067133349</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.712833713509625</v>
+        <v>48.713138647273368</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2007038883459056</v>
+        <v>2.2199020471980679</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.71284878772795</v>
+        <v>48.713138600676203</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2007398356406398</v>
+        <v>2.2199020497829358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.712856693981479</v>
+        <v>48.713138614231532</v>
       </c>
       <c r="B48" s="0">
-        <v>2.2007454280832119</v>
+        <v>2.219901996703419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.712873622526225</v>
+        <v>48.713138666785404</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2007891271970119</v>
+        <v>2.2199020547481228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.712876389586121</v>
+        <v>48.71313866268509</v>
       </c>
       <c r="B50" s="0">
-        <v>2.200777093820784</v>
+        <v>2.2199020632376119</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.71288521931875</v>
+        <v>48.713138685690211</v>
       </c>
       <c r="B51" s="0">
-        <v>2.20078619666103</v>
+        <v>2.2199020201675599</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.712888730986499</v>
+        <v>48.713138727651796</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2007769816717437</v>
+        <v>2.2199020256920146</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.712869414013348</v>
+        <v>48.713138734588732</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2008135368856308</v>
+        <v>2.2199019727886355</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.712814435937844</v>
+        <v>48.713138732528144</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2007800322881388</v>
+        <v>2.2199020130731597</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.712828843017199</v>
+        <v>48.713138767677279</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2007851088920774</v>
+        <v>2.2199019949079508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.712842055664169</v>
+        <v>48.713138793264584</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2008183757790048</v>
+        <v>2.2199019680870298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.712875317481313</v>
+        <v>48.713138775233396</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2007126202879439</v>
+        <v>2.2199019787111842</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.712895140142258</v>
+        <v>48.713138804077175</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2006448778772203</v>
+        <v>2.2199019780979956</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.712903171971227</v>
+        <v>48.713138819981616</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2006519848102393</v>
+        <v>2.2199019402405589</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.712869499396078</v>
+        <v>48.713138844531514</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2007170494898398</v>
+        <v>2.2199019838746978</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.712858195012181</v>
+        <v>48.713138848066663</v>
       </c>
       <c r="B61" s="0">
-        <v>2.2007592812255812</v>
+        <v>2.219901953685548</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.712865642897285</v>
+        <v>48.713138818562783</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2007923323049972</v>
+        <v>2.2199019057469536</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.712843937945237</v>
+        <v>48.713138864160023</v>
       </c>
       <c r="B63" s="0">
-        <v>2.200852098884527</v>
+        <v>2.219901924448497</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.712828460433833</v>
+        <v>48.713138884674372</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2009126658101455</v>
+        <v>2.2199019306426604</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.712785999603277</v>
+        <v>48.713138885740179</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2010098681992498</v>
+        <v>2.2199018365580385</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.712751748221628</v>
+        <v>48.713138931011564</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2010893844267208</v>
+        <v>2.2199018462465707</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.7127384903457</v>
+        <v>48.713138914443789</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2011189428563132</v>
+        <v>2.2199018482921709</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.712741134910957</v>
+        <v>48.713138927701756</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2011113822851622</v>
+        <v>2.2199018548871683</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.712751366129723</v>
+        <v>48.71313888105103</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2010890272109842</v>
+        <v>2.2199018631034177</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.712744480394939</v>
+        <v>48.713138937117826</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2011040744477479</v>
+        <v>2.2199018514423292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.712747877764556</v>
+        <v>48.713138960172955</v>
       </c>
       <c r="B71" s="0">
-        <v>2.2010945080331603</v>
+        <v>2.219901771317363</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.712738440694132</v>
+        <v>48.713138934632689</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2011176315735614</v>
+        <v>2.2199018379119404</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.712728979833109</v>
+        <v>48.713139073255157</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2011390551211361</v>
+        <v>2.2199017525639611</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.712739876088854</v>
+        <v>48.713139010983397</v>
       </c>
       <c r="B74" s="0">
-        <v>2.2011130654402882</v>
+        <v>2.219901791918629</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.712753206946367</v>
+        <v>48.713138988309161</v>
       </c>
       <c r="B75" s="0">
-        <v>2.201083040728665</v>
+        <v>2.2199018061835463</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.712761545992883</v>
+        <v>48.713139020036898</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2010628669707106</v>
+        <v>2.2199017441690612</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.712773020105082</v>
+        <v>48.713139045063478</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2010373670393957</v>
+        <v>2.2199017756191397</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.712834836618008</v>
+        <v>48.71313904997924</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2008924584800918</v>
+        <v>2.2199017464230852</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.712828944908331</v>
+        <v>48.71313904062837</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2009043696510569</v>
+        <v>2.2199017302577975</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.712847356515575</v>
+        <v>48.713139090477469</v>
       </c>
       <c r="B80" s="0">
-        <v>2.200864135864288</v>
+        <v>2.2199017458727814</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.712843332719153</v>
+        <v>48.713139087033426</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2008751526006791</v>
+        <v>2.2199016978714803</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.71283854191087</v>
+        <v>48.713139086617375</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2008854751578451</v>
+        <v>2.2199017287613803</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.712834507092723</v>
+        <v>48.713139135298093</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2008969755129297</v>
+        <v>2.2199017112264716</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.712820257696045</v>
+        <v>48.713139148000721</v>
       </c>
       <c r="B84" s="0">
-        <v>2.2009040953900745</v>
+        <v>2.219901672929451</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.712786758878899</v>
+        <v>48.713139142555477</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2009213696442163</v>
+        <v>2.2199016559760372</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.712751385508938</v>
+        <v>48.713139143542705</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2010379249327925</v>
+        <v>2.2199017052298875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.712784599468272</v>
+        <v>48.713139214018646</v>
       </c>
       <c r="B87" s="0">
-        <v>2.200848656512739</v>
+        <v>2.2199016577089346</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.712748771679578</v>
+        <v>48.713139205316622</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2007329963593132</v>
+        <v>2.2199016697752425</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.712750588546534</v>
+        <v>48.713139193375618</v>
       </c>
       <c r="B89" s="0">
-        <v>2.200708448728931</v>
+        <v>2.2199016406203858</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.712728095498783</v>
+        <v>48.713139220355252</v>
       </c>
       <c r="B90" s="0">
-        <v>2.2005648143023366</v>
+        <v>2.2199016338163884</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.712759675475432</v>
+        <v>48.713139241749296</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2007171376382888</v>
+        <v>2.2199016068130275</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.71275379557234</v>
+        <v>48.713139278847329</v>
       </c>
       <c r="B92" s="0">
-        <v>2.200734725790547</v>
+        <v>2.2199016080556913</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.712625967880072</v>
+        <v>48.71313931418301</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2002213737532976</v>
+        <v>2.2199016163796732</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.712628390466115</v>
+        <v>48.713139253711944</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2002172732984331</v>
+        <v>2.2199015923230348</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.712638465484986</v>
+        <v>48.713139302260927</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2002328834277018</v>
+        <v>2.2199015976534868</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.712644444172618</v>
+        <v>48.713139314431523</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2002270838386302</v>
+        <v>2.2199015351740052</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.71266684158001</v>
+        <v>48.713139330005042</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2002853634452544</v>
+        <v>2.2199015746022921</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.712644155384815</v>
+        <v>48.713139315554798</v>
       </c>
       <c r="B98" s="0">
-        <v>2.20016819708031</v>
+        <v>2.2199015562262137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.712670957259355</v>
+        <v>48.713139353440354</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2002413902193143</v>
+        <v>2.2199015412020815</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.712679075253419</v>
+        <v>48.713139391043924</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2002425242414629</v>
+        <v>2.2199015263607098</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.712691967930631</v>
+        <v>48.713139397074777</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2002634259705616</v>
+        <v>2.2199015367575039</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.712700243195549</v>
+        <v>48.713139389994794</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2002635834529412</v>
+        <v>2.2199015195593264</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.712695273577957</v>
+        <v>48.713139414633815</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2002133572618394</v>
+        <v>2.2199015622015756</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.712708749088506</v>
+        <v>48.713139438754268</v>
       </c>
       <c r="B104" s="0">
-        <v>2.200235583994814</v>
+        <v>2.2199014873823244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.712719869074263</v>
+        <v>48.713139419181275</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2002479048897272</v>
+        <v>2.2199014673624573</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.712720512562456</v>
+        <v>48.713139419633244</v>
       </c>
       <c r="B106" s="0">
-        <v>2.200222600169818</v>
+        <v>2.2199014587073789</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.712728110547083</v>
+        <v>48.713139501207579</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2002245697571157</v>
+        <v>2.2199014180731576</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.712748844785018</v>
+        <v>48.713139461046929</v>
       </c>
       <c r="B108" s="0">
-        <v>2.2002759395679159</v>
+        <v>2.219901417213122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.712740906373377</v>
+        <v>48.713139448666816</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2002158184491241</v>
+        <v>2.2199014393378214</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.712746412855736</v>
+        <v>48.713139454356977</v>
       </c>
       <c r="B110" s="0">
-        <v>2.200210364177452</v>
+        <v>2.2199013548778033</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.712744800374118</v>
+        <v>48.713139490236024</v>
       </c>
       <c r="B111" s="0">
-        <v>2.2002423669018185</v>
+        <v>2.2199014207087382</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.712742046425937</v>
+        <v>48.713139471827532</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2002846101740139</v>
+        <v>2.2199013814362796</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.712736197588576</v>
+        <v>48.713139530073285</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2002284434503152</v>
+        <v>2.2199013827236303</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.712722069873273</v>
+        <v>48.713139539957346</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2002634686639984</v>
+        <v>2.2199013873937612</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.712739911509836</v>
+        <v>48.713139578283325</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2002835431574646</v>
+        <v>2.2199013573081561</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.712747246792361</v>
+        <v>48.713139576681989</v>
       </c>
       <c r="B116" s="0">
-        <v>2.200296451773013</v>
+        <v>2.2199013575294244</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.71273166960335</v>
+        <v>48.713139585704973</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2003280694999892</v>
+        <v>2.2199013179769036</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.71273723039247</v>
+        <v>48.713139612404966</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2003030251777091</v>
+        <v>2.2199013074131315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.712741472471564</v>
+        <v>48.713139628662759</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2003051263833018</v>
+        <v>2.2199013149428537</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.712730791962507</v>
+        <v>48.713139633569327</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2003354729407265</v>
+        <v>2.2199013191634336</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.712692616734572</v>
+        <v>48.713139641062149</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2004187141107488</v>
+        <v>2.2199012628792949</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.71266503618439</v>
+        <v>48.713139629743665</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2004855013088323</v>
+        <v>2.2199012647262086</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.712652009119957</v>
+        <v>48.713139697218061</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2005161713639794</v>
+        <v>2.2199012689926114</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.712651733407768</v>
+        <v>48.713139734206798</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2005196489932524</v>
+        <v>2.2199012251458421</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.712632375784111</v>
+        <v>48.71313971563854</v>
       </c>
       <c r="B125" s="0">
-        <v>2.200566734550296</v>
+        <v>2.2199011976514798</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.712622532458603</v>
+        <v>48.713139687838009</v>
       </c>
       <c r="B126" s="0">
-        <v>2.200588966569204</v>
+        <v>2.2199011934302528</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.712601989592692</v>
+        <v>48.713139709566519</v>
       </c>
       <c r="B127" s="0">
-        <v>2.2006389147904231</v>
+        <v>2.219901211710344</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.71261831306726</v>
+        <v>48.71313972608052</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2006019452411909</v>
+        <v>2.2199012057780796</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.712603583453827</v>
+        <v>48.713139726264323</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2006373802671022</v>
+        <v>2.2199011773177659</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.712609251603659</v>
+        <v>48.713139762729021</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2006250683857878</v>
+        <v>2.2199011685216519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.712627769280857</v>
+        <v>48.713139762618297</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2005835674608938</v>
+        <v>2.2199011714676034</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.712664759651666</v>
+        <v>48.71313981198702</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2004959361724059</v>
+        <v>2.2199011447535568</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.712633743416617</v>
+        <v>48.713139826038031</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2005692714354712</v>
+        <v>2.2199011498972015</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.712712932636606</v>
+        <v>48.713139852603305</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2003863199486529</v>
+        <v>2.2199011077171966</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.712746321689508</v>
+        <v>48.713139816008805</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2003092287943868</v>
+        <v>2.219901130516599</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.712715436036255</v>
+        <v>48.713139848353556</v>
       </c>
       <c r="B136" s="0">
-        <v>2.2003824873678748</v>
+        <v>2.219901149676824</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.712705684271704</v>
+        <v>48.713139879142105</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2004071576153361</v>
+        <v>2.2199011410238692</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.712700812124815</v>
+        <v>48.713139865309835</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2004193393884104</v>
+        <v>2.2199011019455366</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.712701974311578</v>
+        <v>48.713139867549792</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2004158977176669</v>
+        <v>2.2199011181020034</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.712682906545688</v>
+        <v>48.713139933434206</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2004618770563877</v>
+        <v>2.2199010676135433</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.712666085448241</v>
+        <v>48.713139910069032</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2003868273789235</v>
+        <v>2.2199011115782779</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.712676786500921</v>
+        <v>48.71313993900722</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2004113148370839</v>
+        <v>2.2199011189405229</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.712636892612409</v>
+        <v>48.713139935343449</v>
       </c>
       <c r="B143" s="0">
-        <v>2.2002946704715671</v>
+        <v>2.21990112137349</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.712640155923957</v>
+        <v>48.713139959980694</v>
       </c>
       <c r="B144" s="0">
-        <v>2.2003374900759534</v>
+        <v>2.219901036760422</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.712642797429815</v>
+        <v>48.713139943436659</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2003015972203488</v>
+        <v>2.2199011007548628</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.712631298588285</v>
+        <v>48.713139959456626</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2002866276956477</v>
+        <v>2.2199010318450716</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.712642733497731</v>
+        <v>48.713139985803856</v>
       </c>
       <c r="B147" s="0">
-        <v>2.200256240444165</v>
+        <v>2.2199010551377407</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.712645213313252</v>
+        <v>48.713140002251663</v>
       </c>
       <c r="B148" s="0">
-        <v>2.2002646196903903</v>
+        <v>2.219901017049803</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.712638756973583</v>
+        <v>48.713140025389393</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2002213034360869</v>
+        <v>2.2199010004082842</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.712654391726332</v>
+        <v>48.713140030577264</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2002463497135523</v>
+        <v>2.2199009968647254</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.712656607869974</v>
+        <v>48.713140066178284</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2002228932676644</v>
+        <v>2.2199010002586133</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.712657270136425</v>
+        <v>48.713140091795694</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2001917673653986</v>
+        <v>2.2199009903151832</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.712685046271929</v>
+        <v>48.713140091124252</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2002659709722945</v>
+        <v>2.2199009649455301</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.712691666990075</v>
+        <v>48.713140098541963</v>
       </c>
       <c r="B154" s="0">
-        <v>2.2002591937131686</v>
+        <v>2.219901000001324</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.712697996926373</v>
+        <v>48.713140095649202</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2002502989682009</v>
+        <v>2.2199009083380545</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.712704308050185</v>
+        <v>48.713140120419269</v>
       </c>
       <c r="B156" s="0">
-        <v>2.20024335541149</v>
+        <v>2.2199009739541977</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.712721541399276</v>
+        <v>48.713140134893912</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2002777917679608</v>
+        <v>2.2199009395787348</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.712728859240329</v>
+        <v>48.713140156109269</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2002744789192081</v>
+        <v>2.2199009314968787</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.712742867164494</v>
+        <v>48.71314017114436</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2002949612118328</v>
+        <v>2.2199009487326995</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.71274035202665</v>
+        <v>48.713140176125585</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2002512119005244</v>
+        <v>2.2199008972018279</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.712744153516063</v>
+        <v>48.713140194835638</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2002363899966673</v>
+        <v>2.2199009191086749</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.712755617101926</v>
+        <v>48.713140181972811</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2002444161791455</v>
+        <v>2.2199009331021769</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.712769171341869</v>
+        <v>48.713140244675678</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2002645947977615</v>
+        <v>2.2199008694436522</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.712753857665874</v>
+        <v>48.713140249896533</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2001827500222975</v>
+        <v>2.2199008551077619</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.71274297029602</v>
+        <v>48.71314027745963</v>
       </c>
       <c r="B165" s="0">
-        <v>2.2002311906635694</v>
+        <v>2.219900826912359</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.71283562050543</v>
+        <v>48.71314027373456</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2005506222757334</v>
+        <v>2.2199008481752713</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.712736380466943</v>
+        <v>48.71314026466078</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2002771743180309</v>
+        <v>2.2199008657738495</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.712729927895339</v>
+        <v>48.713140285559391</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2003391061759174</v>
+        <v>2.2199008269991407</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.712725229163055</v>
+        <v>48.713140281502511</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2003093621451733</v>
+        <v>2.2199008605315367</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.712730080029303</v>
+        <v>48.71314032384349</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2002922792834898</v>
+        <v>2.2199008404244052</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.712746495433983</v>
+        <v>48.713140345782904</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2003197328554633</v>
+        <v>2.2199007924687559</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.712745393114517</v>
+        <v>48.713140330052994</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2003157558256223</v>
+        <v>2.2199008327221481</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.712733444869656</v>
+        <v>48.713140355523606</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2003472334166752</v>
+        <v>2.2199007995938662</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.712711799434473</v>
+        <v>48.713140368331317</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2003954315884395</v>
+        <v>2.2199007513774887</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.712697665028642</v>
+        <v>48.713140429175596</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2004271641612592</v>
+        <v>2.2199007616296362</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.712672518047924</v>
+        <v>48.713140420453449</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2004841893604006</v>
+        <v>2.2199007238730997</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.712669618301696</v>
+        <v>48.713140426776526</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2004898912697763</v>
+        <v>2.2199007329897018</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.712644065891603</v>
+        <v>48.713140427003758</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2005488053844555</v>
+        <v>2.2199007533577744</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.712615737197318</v>
+        <v>48.713140438701281</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2006150682093377</v>
+        <v>2.2199006902074943</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.712600304386122</v>
+        <v>48.71314044399351</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2006510379982869</v>
+        <v>2.2199006710921894</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.712603589282267</v>
+        <v>48.713140461841938</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2006418687588982</v>
+        <v>2.2199006895100926</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.712588125941679</v>
+        <v>48.713140448999397</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2006782859626148</v>
+        <v>2.2199007098877419</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.712595550378921</v>
+        <v>48.713140440834849</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2006622973040675</v>
+        <v>2.2199006614410837</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.712599882950393</v>
+        <v>48.713140492048453</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2006534883482276</v>
+        <v>2.2199006204099012</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.712643210967734</v>
+        <v>48.713140529949996</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2005529969159836</v>
+        <v>2.2199006255198106</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.712726135846225</v>
+        <v>48.713140548221567</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2003597562014705</v>
+        <v>2.2199006063438858</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.712725691419927</v>
+        <v>48.713140489432028</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2003613977565806</v>
+        <v>2.2199006358322193</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.712720130294493</v>
+        <v>48.713140557054544</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2003741076808869</v>
+        <v>2.2199005859255929</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.712714014699543</v>
+        <v>48.713140578077741</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2003866407948514</v>
+        <v>2.2199005778924006</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.712698003345672</v>
+        <v>48.713140575393943</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2004488531200064</v>
+        <v>2.2199005592237655</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.712718796762665</v>
+        <v>48.713140611223203</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2004147096668461</v>
+        <v>2.2199006023088312</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.712684930855765</v>
+        <v>48.713140591822864</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2004743400097393</v>
+        <v>2.2199005316513172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.712691779746542</v>
+        <v>48.713140590701627</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2003877595225898</v>
+        <v>2.2199005368208886</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.71277084736689</v>
+        <v>48.713140634522119</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2007064991878171</v>
+        <v>2.2199005338075732</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.712656285563441</v>
+        <v>48.713140632985912</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2003277800345398</v>
+        <v>2.2199005095673048</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.712648757135739</v>
+        <v>48.713140671800616</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2003352946196242</v>
+        <v>2.2199004666381712</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.712627445172309</v>
+        <v>48.713140730126824</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2002885117535329</v>
+        <v>2.2199004563095599</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.712751069747718</v>
+        <v>48.713140702706184</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2007509341836524</v>
+        <v>2.2199004628961672</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.71275100390023</v>
+        <v>48.713140733114514</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2007500164139491</v>
+        <v>2.2199004588306601</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.712751653709013</v>
+        <v>48.713140775041666</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2007458391149055</v>
+        <v>2.2199004567576006</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.712568469939321</v>
+        <v>48.713140768492963</v>
       </c>
       <c r="B201" s="0">
-        <v>2.200058486666594</v>
+        <v>2.2199004598289469</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.712584738288697</v>
+        <v>48.713140776200461</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2000879750857409</v>
+        <v>2.2199004714113975</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.712767576552906</v>
+        <v>48.713140830446662</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2007121412866346</v>
+        <v>2.2199004470802017</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.712618172575255</v>
+        <v>48.713140822955666</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2001471763510243</v>
+        <v>2.2199004189615552</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.712778373330721</v>
+        <v>48.713140794126993</v>
       </c>
       <c r="B205" s="0">
-        <v>2.2006883374891593</v>
+        <v>2.219900428909106</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.712651690781996</v>
+        <v>48.71314082526537</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2002049060765354</v>
+        <v>2.2199003827748949</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.712662129538849</v>
+        <v>48.713140870539021</v>
       </c>
       <c r="B207" s="0">
-        <v>2.200211547621691</v>
+        <v>2.2199003834821305</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.712667660463623</v>
+        <v>48.713140873583754</v>
       </c>
       <c r="B208" s="0">
-        <v>2.20020215745549</v>
+        <v>2.2199004719915716</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.712673008869018</v>
+        <v>48.713140882102259</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2001916539477136</v>
+        <v>2.2199003854208588</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.71268919918375</v>
+        <v>48.713140915295462</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2002192480316349</v>
+        <v>2.2199003372959938</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.71268354752447</v>
+        <v>48.71314090760157</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2001683018937457</v>
+        <v>2.2199003688763548</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.712703507936382</v>
+        <v>48.713140900218193</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2002097035630164</v>
+        <v>2.2199003130578476</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.712709928772767</v>
+        <v>48.713140894045374</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2002025539818218</v>
+        <v>2.2199003051252766</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.712730723183874</v>
+        <v>48.713140938969609</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2002436924441278</v>
+        <v>2.2199002562510484</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.7127304014369</v>
+        <v>48.713140943884376</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2002136089612501</v>
+        <v>2.2199002881251957</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.712720998089978</v>
+        <v>48.713140965347861</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2001878785072844</v>
+        <v>2.2199003019724812</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.712729556915548</v>
+        <v>48.713141023077547</v>
       </c>
       <c r="B217" s="0">
-        <v>2.200185309734275</v>
+        <v>2.2199002418491234</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.712680191104482</v>
+        <v>48.71314100552938</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2002910946864862</v>
+        <v>2.2199002737458589</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.712731713345434</v>
+        <v>48.71314101579361</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2001788809672691</v>
+        <v>2.2199002850171503</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.71272916789848</v>
+        <v>48.713141034934083</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2001686357967447</v>
+        <v>2.2199002487934951</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.712741327608299</v>
+        <v>48.713141037148056</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2001844906247237</v>
+        <v>2.2199002495240849</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.712750945195523</v>
+        <v>48.713141045015981</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2002011824141952</v>
+        <v>2.2199002650808857</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.712770548328877</v>
+        <v>48.713141082463025</v>
       </c>
       <c r="B223" s="0">
-        <v>2.200234679072075</v>
+        <v>2.2199002077244861</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.712749393480301</v>
+        <v>48.713141100119728</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2002200941564172</v>
+        <v>2.2199001929848916</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.712733651612879</v>
+        <v>48.713141094338503</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2002503115703878</v>
+        <v>2.2199002381571495</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.712671627014828</v>
+        <v>48.713141144722052</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2003960067474613</v>
+        <v>2.2199001694583327</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.712642197112899</v>
+        <v>48.713141126671005</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2004663465990446</v>
+        <v>2.2199001490931454</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.712627442782363</v>
+        <v>48.713141147249196</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2005002939415981</v>
+        <v>2.2199001754284282</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.712614400905835</v>
+        <v>48.713141168016897</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2005331522110181</v>
+        <v>2.2199001131905596</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.712606535000724</v>
+        <v>48.713141177258166</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2005534880667486</v>
+        <v>2.2199001632273374</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.71259430963179</v>
+        <v>48.713141190323562</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2005826223757881</v>
+        <v>2.2199001209751072</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.712612236312474</v>
+        <v>48.713141232614646</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2005402421148474</v>
+        <v>2.2199001113547463</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.712616677877328</v>
+        <v>48.71314120929452</v>
       </c>
       <c r="B233" s="0">
-        <v>2.200528864774951</v>
+        <v>2.2199000821606836</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.712600996964952</v>
+        <v>48.713141241598848</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2005648264808762</v>
+        <v>2.2199001190734635</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.712672420067428</v>
+        <v>48.713141263443653</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2003949354557233</v>
+        <v>2.219900099699633</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.712704677701488</v>
+        <v>48.713141295362796</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2003197503799194</v>
+        <v>2.2199001080705885</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.712700850560104</v>
+        <v>48.713141307927089</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2003285000200608</v>
+        <v>2.2199000700923839</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.71269519889789</v>
+        <v>48.713141287972071</v>
       </c>
       <c r="B238" s="0">
-        <v>2.200340372077358</v>
+        <v>2.2199001046219609</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.712689726933611</v>
+        <v>48.713141305460724</v>
       </c>
       <c r="B239" s="0">
-        <v>2.200352853038742</v>
+        <v>2.2199000873429706</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.712706946842502</v>
+        <v>48.713141293015759</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2003113569823549</v>
+        <v>2.2199000698703224</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.712700730239682</v>
+        <v>48.713141313371992</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2003235938992005</v>
+        <v>2.2199000841633874</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.71269500240075</v>
+        <v>48.713141355188888</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2003362001757134</v>
+        <v>2.2199000933061059</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.712670746257473</v>
+        <v>48.713141308270885</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2004311807295558</v>
+        <v>2.2199000337931194</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.712662063158383</v>
+        <v>48.713141338355811</v>
       </c>
       <c r="B244" s="0">
-        <v>2.200433191769037</v>
+        <v>2.2199000369549062</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.712661992611565</v>
+        <v>48.713141377559133</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2003883835521267</v>
+        <v>2.2199000010717902</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.712635346006479</v>
+        <v>48.713141408324859</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2003107282665635</v>
+        <v>2.2198999793656191</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.712622538220089</v>
+        <v>48.713141408427255</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2002981655601213</v>
+        <v>2.2198999420061676</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.712620615679292</v>
+        <v>48.713141438885238</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2003217196657308</v>
+        <v>2.2198999599559266</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.712603987922733</v>
+        <v>48.71314139979188</v>
       </c>
       <c r="B249" s="0">
-        <v>2.2002904977363826</v>
+        <v>2.219899966690071</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.712612280257581</v>
+        <v>48.713141456160464</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2002475770015586</v>
+        <v>2.2198999000904305</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.712592217944419</v>
+        <v>48.713141427534069</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2001792452497511</v>
+        <v>2.2198999323454878</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.712610803390895</v>
+        <v>48.71314148503987</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2002245046597491</v>
+        <v>2.2198999182153942</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.712629036716642</v>
+        <v>48.713141492025315</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2002553018225828</v>
+        <v>2.2198998739794646</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.712626720649219</v>
+        <v>48.713141520827385</v>
       </c>
       <c r="B254" s="0">
-        <v>2.2002148046470853</v>
+        <v>2.219899846627253</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.712637118470909</v>
+        <v>48.713141501934224</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2002196408846708</v>
+        <v>2.2198998614975816</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.712636409088127</v>
+        <v>48.713141557029779</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2001882950761877</v>
+        <v>2.2198998626909146</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.712651364623561</v>
+        <v>48.713141559319595</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2002092135311684</v>
+        <v>2.2198998019743037</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.712661427278654</v>
+        <v>48.713141583980885</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2002142586405338</v>
+        <v>2.2198998043280311</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.712663386470311</v>
+        <v>48.713141615853374</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2001940998138108</v>
+        <v>2.2198997929475124</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.712669847503186</v>
+        <v>48.71314155955249</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2001814644373323</v>
+        <v>2.2198998147241502</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.712675837249783</v>
+        <v>48.713141595331017</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2001744236261147</v>
+        <v>2.2198997865643717</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.712689741816888</v>
+        <v>48.713141588391188</v>
       </c>
       <c r="B262" s="0">
-        <v>2.200190466577848</v>
+        <v>2.219899768348272</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.712691813050782</v>
+        <v>48.713141608600161</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2001673931894077</v>
+        <v>2.2198997439148775</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.71270329790547</v>
+        <v>48.713141648272455</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2001761386452738</v>
+        <v>2.2198997686958064</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.71272321965521</v>
+        <v>48.713141665450749</v>
       </c>
       <c r="B265" s="0">
-        <v>2.2002119102762681</v>
+        <v>2.219899722282642</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.712727987947574</v>
+        <v>48.713141664690149</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2002095518633911</v>
+        <v>2.2198997284564954</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.712726903248175</v>
+        <v>48.713141728215753</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2001727079991791</v>
+        <v>2.2198996789638428</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.712736748221239</v>
+        <v>48.713141737053697</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2001744726481025</v>
+        <v>2.2198997382517716</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.71272960879643</v>
+        <v>48.713141754843264</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2002683965684455</v>
+        <v>2.2198996714389612</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.712703065624041</v>
+        <v>48.713141736097597</v>
       </c>
       <c r="B270" s="0">
-        <v>2.200336916918662</v>
+        <v>2.2198996782277369</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.712712602339813</v>
+        <v>48.713141789793717</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2003165569955652</v>
+        <v>2.2198996379577998</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.712746175159779</v>
+        <v>48.713141804119637</v>
       </c>
       <c r="B272" s="0">
-        <v>2.2002369775099289</v>
+        <v>2.219899702675769</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.712743450966826</v>
+        <v>48.713141771843354</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2002792476453896</v>
+        <v>2.2198996222069267</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.712736846638812</v>
+        <v>48.713141825416884</v>
       </c>
       <c r="B274" s="0">
-        <v>2.2003039670793845</v>
+        <v>2.219899606578327</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.712735494231403</v>
+        <v>48.713141848958706</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2003175631321965</v>
+        <v>2.2198996183524411</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.71272397387849</v>
+        <v>48.713141835804237</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2003220663516596</v>
+        <v>2.2198996261176474</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.712732562180946</v>
+        <v>48.713141868579015</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2003011602781801</v>
+        <v>2.2198995558640924</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.712720012873824</v>
+        <v>48.713141833529079</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2003278063572429</v>
+        <v>2.2198995614381305</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.71270578247082</v>
+        <v>48.713141879945013</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2003616693104133</v>
+        <v>2.2198995339223422</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.712684358160587</v>
+        <v>48.713141918309596</v>
       </c>
       <c r="B280" s="0">
-        <v>2.200411589709296</v>
+        <v>2.2198995746188621</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.712658855606506</v>
+        <v>48.713141928784999</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2004690036565053</v>
+        <v>2.2198995170632014</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.712623766770506</v>
+        <v>48.713141911120047</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2005520483903718</v>
+        <v>2.2198995190500748</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.712592694752587</v>
+        <v>48.71314197684346</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2006259681156042</v>
+        <v>2.2198995531307033</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.71259171637066</v>
+        <v>48.71314200916764</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2006266256690141</v>
+        <v>2.2198994735265765</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.712599101505745</v>
+        <v>48.713142017249133</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2006099319582368</v>
+        <v>2.2198994858699339</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.712678338392067</v>
+        <v>48.713142002652425</v>
       </c>
       <c r="B286" s="0">
-        <v>2.2004220578737823</v>
+        <v>2.219899517173193</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.712720603667293</v>
+        <v>48.713142037183189</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2003202428377482</v>
+        <v>2.2198994910537859</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.7127353237344</v>
+        <v>48.713142015967954</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2002839815629383</v>
+        <v>2.2198994354443666</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.712729563795797</v>
+        <v>48.713142084674949</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2002948298810994</v>
+        <v>2.2198994270504726</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.712723844516212</v>
+        <v>48.713142107877658</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2003070615495162</v>
+        <v>2.2198994238104146</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.712712251042923</v>
+        <v>48.713142121132911</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2003343602595806</v>
+        <v>2.2198993798084255</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.712680325726375</v>
+        <v>48.71314212874794</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2004099580748369</v>
+        <v>2.2198993510083578</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.712686942707428</v>
+        <v>48.713142114040345</v>
       </c>
       <c r="B293" s="0">
-        <v>2.200395052750058</v>
+        <v>2.2198993860743213</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.712693472027667</v>
+        <v>48.713142131818344</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2003785923877581</v>
+        <v>2.2198993693140405</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.712668345152572</v>
+        <v>48.713142174369651</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2003686719126501</v>
+        <v>2.2198993290066009</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.712661410477878</v>
+        <v>48.713142162720267</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2003670388032362</v>
+        <v>2.2198993253462285</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.712656712992562</v>
+        <v>48.713142204120082</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2003564933649389</v>
+        <v>2.2198992980938468</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.71263646747672</v>
+        <v>48.713142202033097</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2003209378270143</v>
+        <v>2.2198992929793562</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.712652767656536</v>
+        <v>48.713142219841466</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2003040175962236</v>
+        <v>2.2198992607274124</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.712618563206476</v>
+        <v>48.713142252607859</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2003485488210459</v>
+        <v>2.2198992581932115</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.712601535626177</v>
+        <v>48.713142232077573</v>
       </c>
       <c r="B301" s="0">
-        <v>2.20031422061605</v>
+        <v>2.2198992778056761</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.712739472142573</v>
+        <v>48.713142248201983</v>
       </c>
       <c r="B302" s="0">
-        <v>2.2007534889728668</v>
+        <v>2.219899239825121</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.712576754456947</v>
+        <v>48.713142258274544</v>
       </c>
       <c r="B303" s="0">
-        <v>2.2002294285169799</v>
+        <v>2.219899225098958</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.712580508457712</v>
+        <v>48.713142312026299</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2002192648509871</v>
+        <v>2.2198992028920821</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.712594055133231</v>
+        <v>48.713142306759821</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2002343285108341</v>
+        <v>2.2198992106642157</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.712597105787339</v>
+        <v>48.713142300429396</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2002158029580312</v>
+        <v>2.2198991944007274</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.712758833604312</v>
+        <v>48.713142345612461</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2007041122714068</v>
+        <v>2.2198991451869512</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.712601941365001</v>
+        <v>48.713142333937164</v>
       </c>
       <c r="B308" s="0">
-        <v>2.200179753850362</v>
+        <v>2.2198991900734066</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.71261461999994</v>
+        <v>48.713142362252789</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2001919994174308</v>
+        <v>2.2198991126240033</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.712622368213395</v>
+        <v>48.71314238665245</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2001896739947568</v>
+        <v>2.2198991087666631</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.712641323040899</v>
+        <v>48.713142411899121</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2002248520700221</v>
+        <v>2.2198991619783746</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.712648228895638</v>
+        <v>48.71314243072667</v>
       </c>
       <c r="B312" s="0">
-        <v>2.2002167299744864</v>
+        <v>2.219899127795113</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.712637280797217</v>
+        <v>48.713142456739576</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2001563379017561</v>
+        <v>2.2198990801352574</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.712637038941146</v>
+        <v>48.713142478858295</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2001281704287297</v>
+        <v>2.2198990836775185</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.712666243828359</v>
+        <v>48.713142447254477</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2001911625592805</v>
+        <v>2.2198990810580877</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.712683205106202</v>
+        <v>48.713142501848118</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2002158356163957</v>
+        <v>2.2198990676298229</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.712699985017224</v>
+        <v>48.713142478876819</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2002430049420756</v>
+        <v>2.2198990288822271</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.712704211723945</v>
+        <v>48.713142467311116</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2002382039592781</v>
+        <v>2.2198989703268657</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.712691821076113</v>
+        <v>48.713142534408654</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2001683665780933</v>
+        <v>2.2198990199951849</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.712713966655649</v>
+        <v>48.713142521820629</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2002084180902997</v>
+        <v>2.2198990162721235</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.712719774959148</v>
+        <v>48.713142547317425</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2001986650408711</v>
+        <v>2.2198989902888884</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.712734061096128</v>
+        <v>48.71314256366388</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2001025561516223</v>
+        <v>2.2198989340078605</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.712724579586769</v>
+        <v>48.713142588361393</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2001165437511054</v>
+        <v>2.2198989390634165</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.712709604091153</v>
+        <v>48.713142594321823</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2001429340815855</v>
+        <v>2.2198989333979227</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.712712980951189</v>
+        <v>48.713142617940584</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2001348777048007</v>
+        <v>2.2198989332141683</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.712741806467967</v>
+        <v>48.713142632057476</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2000886183715611</v>
+        <v>2.2198989522712913</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.712709058427372</v>
+        <v>48.713142672025704</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2002079177430409</v>
+        <v>2.2198988566330793</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.71273448594561</v>
+        <v>48.713142680629687</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2001208698955934</v>
+        <v>2.2198988919953635</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.712617378848769</v>
+        <v>48.713142661207854</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2003902792813919</v>
+        <v>2.2198989061377676</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.712550167126928</v>
+        <v>48.713142691655172</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2005508768450208</v>
+        <v>2.2198988418163195</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.712554672551967</v>
+        <v>48.713142723557716</v>
       </c>
       <c r="B331" s="0">
-        <v>2.2005390603081909</v>
+        <v>2.219898843221777</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.712535366342273</v>
+        <v>48.713142682655977</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2005837556045305</v>
+        <v>2.2198988584681723</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.712509096697886</v>
+        <v>48.713142737951472</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2006452741072598</v>
+        <v>2.2198987945150557</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.712518371834371</v>
+        <v>48.713142791230005</v>
       </c>
       <c r="B334" s="0">
-        <v>2.2006225688386083</v>
+        <v>2.219898809768007</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.712513081517422</v>
+        <v>48.713142734897602</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2006335608053744</v>
+        <v>2.2198987952141178</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.712518587783762</v>
+        <v>48.713142763484655</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2006188263603637</v>
+        <v>2.2198988228472167</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.71254652502337</v>
+        <v>48.713142800453952</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2005515342341244</v>
+        <v>2.2198987729411432</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.712634993769363</v>
+        <v>48.713142798539622</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2003398302938297</v>
+        <v>2.2198987782137802</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.712656501384608</v>
+        <v>48.713142837637371</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2002867489286024</v>
+        <v>2.2198987379702313</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.712677232254762</v>
+        <v>48.713142873196638</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2002357723977202</v>
+        <v>2.2198987387243663</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.712683062434856</v>
+        <v>48.713142878920792</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2002208018829879</v>
+        <v>2.2198986926387763</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.712672701889076</v>
+        <v>48.713142860549766</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2002428474975027</v>
+        <v>2.2198986993093661</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.712684610686253</v>
+        <v>48.713142893547108</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2002124867488768</v>
+        <v>2.2198987185493588</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.712684472889954</v>
+        <v>48.713142892085052</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2002837536509259</v>
+        <v>2.2198986661606859</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.712676716299292</v>
+        <v>48.713142909726081</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2003006181408154</v>
+        <v>2.2198986786685651</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.712672035540294</v>
+        <v>48.713142900425112</v>
       </c>
       <c r="B346" s="0">
-        <v>2.200312072720441</v>
+        <v>2.2198986249171844</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.712662960571592</v>
+        <v>48.713142917372679</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2003148970855038</v>
+        <v>2.2198986322466463</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.712659179427249</v>
+        <v>48.713142975569163</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2003025943908043</v>
+        <v>2.2198986313234053</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.712639222669594</v>
+        <v>48.713142964123748</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2002939480818906</v>
+        <v>2.2198986062200423</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.71262238608891</v>
+        <v>48.713142998720493</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2002726094840064</v>
+        <v>2.2198986215035967</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.712585758321765</v>
+        <v>48.713143001612537</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2002322555082037</v>
+        <v>2.2198985809289389</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.712584803899759</v>
+        <v>48.713143023346241</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2002563119510175</v>
+        <v>2.2198985917127989</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.712580344928355</v>
+        <v>48.713143071988455</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2002053598612759</v>
+        <v>2.2198985582822099</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.712585536401875</v>
+        <v>48.713143077649725</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2002161995382523</v>
+        <v>2.2198985971682221</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.712589585808367</v>
+        <v>48.713143043794076</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2002269303592623</v>
+        <v>2.2198986124934539</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.712592332379423</v>
+        <v>48.7131430648097</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2002233613503011</v>
+        <v>2.2198985945804646</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.712582190305817</v>
+        <v>48.713143093242145</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2001656712425626</v>
+        <v>2.2198985444170703</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.712580775353473</v>
+        <v>48.713143090103443</v>
       </c>
       <c r="B358" s="0">
-        <v>2.200136075929112</v>
+        <v>2.2198984836837354</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.712587606074813</v>
+        <v>48.713143094825718</v>
       </c>
       <c r="B359" s="0">
-        <v>2.2001284733123039</v>
+        <v>2.219898517558689</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.712618087782808</v>
+        <v>48.713143119418049</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2001934426303924</v>
+        <v>2.2198984657199738</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.712619912325351</v>
+        <v>48.713143123745262</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2001694307820188</v>
+        <v>2.2198984328754166</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.71263709704963</v>
+        <v>48.713143124734053</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2001905072306722</v>
+        <v>2.2198984458361184</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.712630889300819</v>
+        <v>48.713143225632763</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2001440702922408</v>
+        <v>2.2198984559780475</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.71263708498271</v>
+        <v>48.713143161022842</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2001338464167786</v>
+        <v>2.2198984525259307</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.712656721414838</v>
+        <v>48.71314320226162</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2001661927458609</v>
+        <v>2.2198984394744454</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.712653798542696</v>
+        <v>48.713143154533654</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2001294357652452</v>
+        <v>2.2198984323507696</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.712660128220499</v>
+        <v>48.713143254548399</v>
       </c>
       <c r="B367" s="0">
-        <v>2.200121117550343</v>
+        <v>2.2198984362421612</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.712677645580129</v>
+        <v>48.713143286580696</v>
       </c>
       <c r="B368" s="0">
-        <v>2.2001428615569032</v>
+        <v>2.219898433178745</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.712704259778775</v>
+        <v>48.713143268160941</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2001918687760407</v>
+        <v>2.2198984042601651</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.712706880742076</v>
+        <v>48.713143296020938</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2001774012233235</v>
+        <v>2.2198983733481743</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.712696383331206</v>
+        <v>48.713143298732525</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2001153169187839</v>
+        <v>2.2198983504287853</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.712716869820902</v>
+        <v>48.713143277544319</v>
       </c>
       <c r="B372" s="0">
-        <v>2.2001681098461656</v>
+        <v>2.219898349033651</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.71273042284821</v>
+        <v>48.713143335978863</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2001788942520411</v>
+        <v>2.2198983233881338</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.712710061261248</v>
+        <v>48.713143358470347</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2001448776813262</v>
+        <v>2.2198982812350061</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.712700187563307</v>
+        <v>48.713143369725991</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2001431501349482</v>
+        <v>2.2198982730535297</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.712701588871518</v>
+        <v>48.71314339986268</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2001724576214867</v>
+        <v>2.2198982865066128</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.712726975962823</v>
+        <v>48.713143421559821</v>
       </c>
       <c r="B377" s="0">
-        <v>2.2001401354295034</v>
+        <v>2.219898249055043</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.712727892386539</v>
+        <v>48.713143448962711</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2001482239442738</v>
+        <v>2.2198982075159863</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.710719307304686</v>
+        <v>48.713143457422305</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2049712280318645</v>
+        <v>2.2198982562303256</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.712721388977101</v>
+        <v>48.713143460429414</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2001535854817891</v>
+        <v>2.2198982223144728</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.712669775613314</v>
+        <v>48.713143516304207</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2003012950448966</v>
+        <v>2.2198981654377712</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.712674054775789</v>
+        <v>48.713143504864384</v>
       </c>
       <c r="B382" s="0">
-        <v>2.20030965041069</v>
+        <v>2.2198981373120508</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.71265739357213</v>
+        <v>48.713143521379998</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2003490452906402</v>
+        <v>2.2198981742060142</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.712626345419316</v>
+        <v>48.713143547687245</v>
       </c>
       <c r="B384" s="0">
-        <v>2.2004211149240955</v>
+        <v>2.21989814300444</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.712612871451455</v>
+        <v>48.713143527360742</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2004489692581326</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="0">
-        <v>48.712596424732858</v>
-      </c>
-      <c r="B386" s="0">
-        <v>2.2004882671521404</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="0">
-        <v>48.712584573026042</v>
-      </c>
-      <c r="B387" s="0">
-        <v>2.2005163465872264</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="0">
-        <v>48.712591306251007</v>
-      </c>
-      <c r="B388" s="0">
-        <v>2.2004978101267714</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="0">
-        <v>48.712596116270213</v>
-      </c>
-      <c r="B389" s="0">
-        <v>2.2004857286913384</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="0">
-        <v>48.712606152294541</v>
-      </c>
-      <c r="B390" s="0">
-        <v>2.2004608875575653</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="0">
-        <v>48.712627922943767</v>
-      </c>
-      <c r="B391" s="0">
-        <v>2.2004074963773568</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="0">
-        <v>48.712670735385288</v>
-      </c>
-      <c r="B392" s="0">
-        <v>2.2003056321015673</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="0">
-        <v>48.712685960140014</v>
-      </c>
-      <c r="B393" s="0">
-        <v>2.200268077680152</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="0">
-        <v>48.712680551865773</v>
-      </c>
-      <c r="B394" s="0">
-        <v>2.2002791957316803</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="0">
-        <v>48.712674560489234</v>
-      </c>
-      <c r="B395" s="0">
-        <v>2.2002910886969871</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="0">
-        <v>48.712660134558057</v>
-      </c>
-      <c r="B396" s="0">
-        <v>2.2003275720538999</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="0">
-        <v>48.712663228178087</v>
-      </c>
-      <c r="B397" s="0">
-        <v>2.2003195725676088</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="0">
-        <v>48.712640397939765</v>
-      </c>
-      <c r="B398" s="0">
-        <v>2.200373071518599</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="0">
-        <v>48.712659030803309</v>
-      </c>
-      <c r="B399" s="0">
-        <v>2.2003389475418667</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="0">
-        <v>48.712660357452826</v>
-      </c>
-      <c r="B400" s="0">
-        <v>2.2003117049105425</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="0">
-        <v>48.712648372989584</v>
-      </c>
-      <c r="B401" s="0">
-        <v>2.2003054665233219</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="0">
-        <v>48.71262058486284</v>
-      </c>
-      <c r="B402" s="0">
-        <v>2.2002528899996099</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="0">
-        <v>48.712621889669038</v>
-      </c>
-      <c r="B403" s="0">
-        <v>2.2002811624700054</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="0">
-        <v>48.712587759295147</v>
-      </c>
-      <c r="B404" s="0">
-        <v>2.200298887899864</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="0">
-        <v>48.712569439314073</v>
-      </c>
-      <c r="B405" s="0">
-        <v>2.2002825363915761</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="0">
-        <v>48.71257425770537</v>
-      </c>
-      <c r="B406" s="0">
-        <v>2.2002676772857894</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="0">
-        <v>48.712578058160865</v>
-      </c>
-      <c r="B407" s="0">
-        <v>2.2003096325386955</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="0">
-        <v>48.712582925802252</v>
-      </c>
-      <c r="B408" s="0">
-        <v>2.2003211061256556</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="0">
-        <v>48.712570797044137</v>
-      </c>
-      <c r="B409" s="0">
-        <v>2.2002750945255962</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="0">
-        <v>48.712566986177833</v>
-      </c>
-      <c r="B410" s="0">
-        <v>2.2002398005428732</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="0">
-        <v>48.71256357329785</v>
-      </c>
-      <c r="B411" s="0">
-        <v>2.2002062367615105</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="0">
-        <v>48.712581460459212</v>
-      </c>
-      <c r="B412" s="0">
-        <v>2.2002326107551018</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="0">
-        <v>48.71259049537661</v>
-      </c>
-      <c r="B413" s="0">
-        <v>2.2002315696256391</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="0">
-        <v>48.712595808330534</v>
-      </c>
-      <c r="B414" s="0">
-        <v>2.2002194382767244</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="0">
-        <v>48.712611053639868</v>
-      </c>
-      <c r="B415" s="0">
-        <v>2.200236449812885</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="0">
-        <v>48.712612230252162</v>
-      </c>
-      <c r="B416" s="0">
-        <v>2.2002100241440754</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="0">
-        <v>48.712611372319742</v>
-      </c>
-      <c r="B417" s="0">
-        <v>2.2001827202959818</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="0">
-        <v>48.712624477825571</v>
-      </c>
-      <c r="B418" s="0">
-        <v>2.200190980349729</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="0">
-        <v>48.712624374094418</v>
-      </c>
-      <c r="B419" s="0">
-        <v>2.2001669429376691</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="0">
-        <v>48.712631203967327</v>
-      </c>
-      <c r="B420" s="0">
-        <v>2.2001579933734594</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="0">
-        <v>48.712657934460964</v>
-      </c>
-      <c r="B421" s="0">
-        <v>2.2002015297633974</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="0">
-        <v>48.712666326476267</v>
-      </c>
-      <c r="B422" s="0">
-        <v>2.2001922164073178</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="0">
-        <v>48.712676962471754</v>
-      </c>
-      <c r="B423" s="0">
-        <v>2.2001893185159549</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="0">
-        <v>48.712678965652465</v>
-      </c>
-      <c r="B424" s="0">
-        <v>2.200169297635072</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="0">
-        <v>48.712699397118108</v>
-      </c>
-      <c r="B425" s="0">
-        <v>2.2001967313408413</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="0">
-        <v>48.71273434262848</v>
-      </c>
-      <c r="B426" s="0">
-        <v>2.200163855669222</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="0">
-        <v>48.712724129568578</v>
-      </c>
-      <c r="B427" s="0">
-        <v>2.2002000984689918</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="0">
-        <v>48.712722669452248</v>
-      </c>
-      <c r="B428" s="0">
-        <v>2.200168416530897</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="0">
-        <v>48.712746090611077</v>
-      </c>
-      <c r="B429" s="0">
-        <v>2.2001439320279652</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="0">
-        <v>48.712739435891436</v>
-      </c>
-      <c r="B430" s="0">
-        <v>2.2001415956521329</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="0">
-        <v>48.712753881038282</v>
-      </c>
-      <c r="B431" s="0">
-        <v>2.2001805929441871</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="0">
-        <v>48.712837352663605</v>
-      </c>
-      <c r="B432" s="0">
-        <v>2.2006188898781143</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="0">
-        <v>48.712756019103075</v>
-      </c>
-      <c r="B433" s="0">
-        <v>2.2002887131783062</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="0">
-        <v>48.712724831017503</v>
-      </c>
-      <c r="B434" s="0">
-        <v>2.2003589158483705</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="0">
-        <v>48.712714947335833</v>
-      </c>
-      <c r="B435" s="0">
-        <v>2.2003847377999737</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="0">
-        <v>48.712678139786469</v>
-      </c>
-      <c r="B436" s="0">
-        <v>2.2004696226159868</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="0">
-        <v>48.712666485282838</v>
-      </c>
-      <c r="B437" s="0">
-        <v>2.2004950333468716</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="0">
-        <v>48.712677581586519</v>
-      </c>
-      <c r="B438" s="0">
-        <v>2.2004691836588211</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0">
-        <v>48.712672105296456</v>
-      </c>
-      <c r="B439" s="0">
-        <v>2.2004776366516925</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="0">
-        <v>48.712648977425971</v>
-      </c>
-      <c r="B440" s="0">
-        <v>2.2005328000249773</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="0">
-        <v>48.712643241961743</v>
-      </c>
-      <c r="B441" s="0">
-        <v>2.2005462039448269</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="0">
-        <v>48.712636718610774</v>
-      </c>
-      <c r="B442" s="0">
-        <v>2.2005610336944836</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="0">
-        <v>48.712649146773451</v>
-      </c>
-      <c r="B443" s="0">
-        <v>2.2005298703879772</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0">
-        <v>48.712725513453485</v>
-      </c>
-      <c r="B444" s="0">
-        <v>2.2003460743129137</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="0">
-        <v>48.712724891779992</v>
-      </c>
-      <c r="B445" s="0">
-        <v>2.2003462943286318</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="0">
-        <v>48.71276776725945</v>
-      </c>
-      <c r="B446" s="0">
-        <v>2.2002725102789391</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="0">
-        <v>48.712741714952642</v>
-      </c>
-      <c r="B447" s="0">
-        <v>2.2003322412579069</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="0">
-        <v>48.712736961308693</v>
-      </c>
-      <c r="B448" s="0">
-        <v>2.2003450391109363</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="0">
-        <v>48.712732439073911</v>
-      </c>
-      <c r="B449" s="0">
-        <v>2.2003565913493084</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="0">
-        <v>48.712727217596814</v>
-      </c>
-      <c r="B450" s="0">
-        <v>2.2003697390486661</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="0">
-        <v>48.712733085651784</v>
-      </c>
-      <c r="B451" s="0">
-        <v>2.2003523128536182</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="0">
-        <v>48.712727720041499</v>
-      </c>
-      <c r="B452" s="0">
-        <v>2.2003646380247437</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="0">
-        <v>48.712719418017265</v>
-      </c>
-      <c r="B453" s="0">
-        <v>2.2003696195849356</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="0">
-        <v>48.71272159185299</v>
-      </c>
-      <c r="B454" s="0">
-        <v>2.2003312539296145</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="0">
-        <v>48.712669893828419</v>
-      </c>
-      <c r="B455" s="0">
-        <v>2.20035680462466</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0">
-        <v>48.712676448057664</v>
-      </c>
-      <c r="B456" s="0">
-        <v>2.2004143102157126</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="0">
-        <v>48.712636051378809</v>
-      </c>
-      <c r="B457" s="0">
-        <v>2.2003379630179052</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="0">
-        <v>48.712653976593323</v>
-      </c>
-      <c r="B458" s="0">
-        <v>2.2003426472442316</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0">
-        <v>48.71261930363476</v>
-      </c>
-      <c r="B459" s="0">
-        <v>2.2002616053004131</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="0">
-        <v>48.712623302789481</v>
-      </c>
-      <c r="B460" s="0">
-        <v>2.2002731662400095</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="0">
-        <v>48.712631988799892</v>
-      </c>
-      <c r="B461" s="0">
-        <v>2.2002930653889212</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0">
-        <v>48.712632187955144</v>
-      </c>
-      <c r="B462" s="0">
-        <v>2.2002935347142021</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="0">
-        <v>48.712631962645311</v>
-      </c>
-      <c r="B463" s="0">
-        <v>2.2002937582915671</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="0">
-        <v>48.712631789907121</v>
-      </c>
-      <c r="B464" s="0">
-        <v>2.2002937921804295</v>
+        <v>2.2198981206018011</v>
       </c>
     </row>
   </sheetData>

--- a/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
+++ b/CalculePos_quasi_RTK/PosWGS84_phase.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -65,3082 +65,3274 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>48.713138051662561</v>
+        <v>48.713045031222258</v>
       </c>
       <c r="B1" s="0">
-        <v>2.2199025169947975</v>
+        <v>2.2002070298376983</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.71313803111353</v>
+        <v>48.713053308731063</v>
       </c>
       <c r="B2" s="0">
-        <v>2.2199024954065236</v>
+        <v>2.2002271900488748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.713138035194213</v>
+        <v>48.713074828702212</v>
       </c>
       <c r="B3" s="0">
-        <v>2.219902477525642</v>
+        <v>2.2002796731989012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.713138101640787</v>
+        <v>48.713103144985197</v>
       </c>
       <c r="B4" s="0">
-        <v>2.2199024382087718</v>
+        <v>2.2003482564966999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.713138082480583</v>
+        <v>48.713162561805163</v>
       </c>
       <c r="B5" s="0">
-        <v>2.2199024729352348</v>
+        <v>2.2004243309931524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.713138064499169</v>
+        <v>48.713185912501935</v>
       </c>
       <c r="B6" s="0">
-        <v>2.2199024760045969</v>
+        <v>2.2004714019935769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.713138091454546</v>
+        <v>48.713188178953175</v>
       </c>
       <c r="B7" s="0">
-        <v>2.219902459175501</v>
+        <v>2.2004709223279466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.713138127111627</v>
+        <v>48.713192855036006</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2199024099160791</v>
+        <v>2.2004747346299975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.713138158458719</v>
+        <v>48.713200318561995</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2199024131117775</v>
+        <v>2.2004810865560223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.713138183009072</v>
+        <v>48.713195683624967</v>
       </c>
       <c r="B10" s="0">
-        <v>2.2199023866380006</v>
+        <v>2.2004772141171158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.713138219001941</v>
+        <v>48.71318508076785</v>
       </c>
       <c r="B11" s="0">
-        <v>2.2199024310445261</v>
+        <v>2.2004682984343815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.713138210262407</v>
+        <v>48.713177908174984</v>
       </c>
       <c r="B12" s="0">
-        <v>2.219902395332054</v>
+        <v>2.2004622226721784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.713138190118109</v>
+        <v>48.713221076305473</v>
       </c>
       <c r="B13" s="0">
-        <v>2.2199023908998949</v>
+        <v>2.2005755876034399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.713138227744715</v>
+        <v>48.71322119972718</v>
       </c>
       <c r="B14" s="0">
-        <v>2.219902366738403</v>
+        <v>2.2005989980166634</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.71313823142377</v>
+        <v>48.713210894330828</v>
       </c>
       <c r="B15" s="0">
-        <v>2.2199023572364154</v>
+        <v>2.2005802579669784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.713138237625252</v>
+        <v>48.713200091077752</v>
       </c>
       <c r="B16" s="0">
-        <v>2.2199023524679875</v>
+        <v>2.2005702932068019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.713138231215872</v>
+        <v>48.713208656501266</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2199023396994306</v>
+        <v>2.2005852860111368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.713138252472845</v>
+        <v>48.713216704963791</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2199023226444776</v>
+        <v>2.2006080532109311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.713138301273183</v>
+        <v>48.713192583866125</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2199023323564013</v>
+        <v>2.2006521279164102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.713138301613668</v>
+        <v>48.713171805554296</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2199023098847302</v>
+        <v>2.2006802126992038</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.713138327925982</v>
+        <v>48.713187197342037</v>
       </c>
       <c r="B21" s="0">
-        <v>2.219902311100328</v>
+        <v>2.2007046241755619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.713138299914029</v>
+        <v>48.713174860478333</v>
       </c>
       <c r="B22" s="0">
-        <v>2.2199023349647948</v>
+        <v>2.2006715316893457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.713138325896402</v>
+        <v>48.713180065192965</v>
       </c>
       <c r="B23" s="0">
-        <v>2.2199023226963988</v>
+        <v>2.2006711735026885</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.713138342541178</v>
+        <v>48.713228854912202</v>
       </c>
       <c r="B24" s="0">
-        <v>2.2199022949818406</v>
+        <v>2.2006557229507</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.713138338917062</v>
+        <v>48.713363491094611</v>
       </c>
       <c r="B25" s="0">
-        <v>2.2199022639395358</v>
+        <v>2.2007505519879977</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.713138360379105</v>
+        <v>48.713332519936024</v>
       </c>
       <c r="B26" s="0">
-        <v>2.2199022708003469</v>
+        <v>2.20069986455922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.713138370973212</v>
+        <v>48.713306251088596</v>
       </c>
       <c r="B27" s="0">
-        <v>2.2199023062211061</v>
+        <v>2.2006397267240416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.713138370845044</v>
+        <v>48.713287925268396</v>
       </c>
       <c r="B28" s="0">
-        <v>2.2199022198207343</v>
+        <v>2.200580298878176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.713138380222709</v>
+        <v>48.713255404776731</v>
       </c>
       <c r="B29" s="0">
-        <v>2.2199022232154726</v>
+        <v>2.2005136298786234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.713138392260532</v>
+        <v>48.713182748479881</v>
       </c>
       <c r="B30" s="0">
-        <v>2.219902196197399</v>
+        <v>2.2003959641580559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.713138424450683</v>
+        <v>48.713166193325677</v>
       </c>
       <c r="B31" s="0">
-        <v>2.2199022408069094</v>
+        <v>2.2003230265567773</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.713138439391628</v>
+        <v>48.71312523201312</v>
       </c>
       <c r="B32" s="0">
-        <v>2.2199021942503361</v>
+        <v>2.2002349491822391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.713138439404617</v>
+        <v>48.713113263789325</v>
       </c>
       <c r="B33" s="0">
-        <v>2.2199022113829794</v>
+        <v>2.2002249478052134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.713138459407425</v>
+        <v>48.713108891558278</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2199021693529622</v>
+        <v>2.2002214856916993</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.713138464700179</v>
+        <v>48.713072965390374</v>
       </c>
       <c r="B35" s="0">
-        <v>2.2199021962080159</v>
+        <v>2.2001913421373467</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.713138491589824</v>
+        <v>48.713061936811336</v>
       </c>
       <c r="B36" s="0">
-        <v>2.219902206831144</v>
+        <v>2.2001819892708467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.713138532167072</v>
+        <v>48.713015336626668</v>
       </c>
       <c r="B37" s="0">
-        <v>2.2199021931710572</v>
+        <v>2.2003023201319536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.713138476204478</v>
+        <v>48.713005297281249</v>
       </c>
       <c r="B38" s="0">
-        <v>2.2199021480626313</v>
+        <v>2.2002507866333794</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.713138528559448</v>
+        <v>48.713002620794121</v>
       </c>
       <c r="B39" s="0">
-        <v>2.2199021187677173</v>
+        <v>2.2002668135968349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.713138513781061</v>
+        <v>48.71296708127597</v>
       </c>
       <c r="B40" s="0">
-        <v>2.2199020934455582</v>
+        <v>2.2002143855651077</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.713138548647592</v>
+        <v>48.712984801718854</v>
       </c>
       <c r="B41" s="0">
-        <v>2.219902122585129</v>
+        <v>2.2002145108536557</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.713138614719348</v>
+        <v>48.712961730890228</v>
       </c>
       <c r="B42" s="0">
-        <v>2.2199020998666801</v>
+        <v>2.2002422645185273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.71313852682173</v>
+        <v>48.712983611226981</v>
       </c>
       <c r="B43" s="0">
-        <v>2.2199020556273874</v>
+        <v>2.2002015330017843</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.713138598426603</v>
+        <v>48.712955353712793</v>
       </c>
       <c r="B44" s="0">
-        <v>2.2199020846962423</v>
+        <v>2.2001575731909253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.713138634846999</v>
+        <v>48.712909293033725</v>
       </c>
       <c r="B45" s="0">
-        <v>2.2199021067133349</v>
+        <v>2.2001192023371159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.713138647273368</v>
+        <v>48.712892426671061</v>
       </c>
       <c r="B46" s="0">
-        <v>2.2199020471980679</v>
+        <v>2.2001050293023847</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.713138600676203</v>
+        <v>48.712890084995195</v>
       </c>
       <c r="B47" s="0">
-        <v>2.2199020497829358</v>
+        <v>2.2001028825531113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.713138614231532</v>
+        <v>48.712867356783335</v>
       </c>
       <c r="B48" s="0">
-        <v>2.219901996703419</v>
+        <v>2.2000840721345307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.713138666785404</v>
+        <v>48.712858669355974</v>
       </c>
       <c r="B49" s="0">
-        <v>2.2199020547481228</v>
+        <v>2.2000772494036385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>48.71313866268509</v>
+        <v>48.712848736228907</v>
       </c>
       <c r="B50" s="0">
-        <v>2.2199020632376119</v>
+        <v>2.2000690634513669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>48.713138685690211</v>
+        <v>48.712807311538441</v>
       </c>
       <c r="B51" s="0">
-        <v>2.2199020201675599</v>
+        <v>2.1999640319542544</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>48.713138727651796</v>
+        <v>48.712825741482647</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2199020256920146</v>
+        <v>2.1999678262752616</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>48.713138734588732</v>
+        <v>48.712852593799404</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2199019727886355</v>
+        <v>2.2000082519416462</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>48.713138732528144</v>
+        <v>48.712892593226933</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2199020130731597</v>
+        <v>2.2000527128971004</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>48.713138767677279</v>
+        <v>48.712923359466863</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2199019949079508</v>
+        <v>2.2000735980651878</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>48.713138793264584</v>
+        <v>48.712890593437187</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2199019680870298</v>
+        <v>2.2001280064315503</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>48.713138775233396</v>
+        <v>48.712956984476662</v>
       </c>
       <c r="B57" s="0">
-        <v>2.2199019787111842</v>
+        <v>2.2001126848692469</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>48.713138804077175</v>
+        <v>48.712878195070452</v>
       </c>
       <c r="B58" s="0">
-        <v>2.2199019780979956</v>
+        <v>2.200291867426929</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>48.713138819981616</v>
+        <v>48.712902729910191</v>
       </c>
       <c r="B59" s="0">
-        <v>2.2199019402405589</v>
+        <v>2.2003455367081375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>48.713138844531514</v>
+        <v>48.712920848173013</v>
       </c>
       <c r="B60" s="0">
-        <v>2.2199019838746978</v>
+        <v>2.200352506965662</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>48.713138848066663</v>
+        <v>48.712937691960029</v>
       </c>
       <c r="B61" s="0">
-        <v>2.219901953685548</v>
+        <v>2.2003929972528678</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>48.713138818562783</v>
+        <v>48.713052741211023</v>
       </c>
       <c r="B62" s="0">
-        <v>2.2199019057469536</v>
+        <v>2.20052347366348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>48.713138864160023</v>
+        <v>48.713059622213265</v>
       </c>
       <c r="B63" s="0">
-        <v>2.219901924448497</v>
+        <v>2.2005369832588157</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>48.713138884674372</v>
+        <v>48.713067044273075</v>
       </c>
       <c r="B64" s="0">
-        <v>2.2199019306426604</v>
+        <v>2.2005550030967132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>48.713138885740179</v>
+        <v>48.713094474624718</v>
       </c>
       <c r="B65" s="0">
-        <v>2.2199018365580385</v>
+        <v>2.2005323624708222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>48.713138931011564</v>
+        <v>48.713091482557758</v>
       </c>
       <c r="B66" s="0">
-        <v>2.2199018462465707</v>
+        <v>2.2005342573033007</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>48.713138914443789</v>
+        <v>48.713153692189564</v>
       </c>
       <c r="B67" s="0">
-        <v>2.2199018482921709</v>
+        <v>2.2004596301926998</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>48.713138927701756</v>
+        <v>48.713244340498811</v>
       </c>
       <c r="B68" s="0">
-        <v>2.2199018548871683</v>
+        <v>2.2005201750055612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>48.71313888105103</v>
+        <v>48.713249516735338</v>
       </c>
       <c r="B69" s="0">
-        <v>2.2199018631034177</v>
+        <v>2.2005249446894748</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>48.713138937117826</v>
+        <v>48.71323960690718</v>
       </c>
       <c r="B70" s="0">
-        <v>2.2199018514423292</v>
+        <v>2.2005162567764929</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>48.713138960172955</v>
+        <v>48.713236729666726</v>
       </c>
       <c r="B71" s="0">
-        <v>2.219901771317363</v>
+        <v>2.200513669503732</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>48.713138934632689</v>
+        <v>56.480294827780391</v>
       </c>
       <c r="B72" s="0">
-        <v>2.2199018379119404</v>
+        <v>53.126566455518763</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>48.713139073255157</v>
+        <v>56.479361013356986</v>
       </c>
       <c r="B73" s="0">
-        <v>2.2199017525639611</v>
+        <v>53.134653877240588</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>48.713139010983397</v>
+        <v>56.478318444170561</v>
       </c>
       <c r="B74" s="0">
-        <v>2.219901791918629</v>
+        <v>53.142758485054962</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>48.713138988309161</v>
+        <v>56.477401525735964</v>
       </c>
       <c r="B75" s="0">
-        <v>2.2199018061835463</v>
+        <v>53.150872336020591</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>48.713139020036898</v>
+        <v>56.476469989537875</v>
       </c>
       <c r="B76" s="0">
-        <v>2.2199017441690612</v>
+        <v>53.158969650745178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>48.713139045063478</v>
+        <v>56.475542437295395</v>
       </c>
       <c r="B77" s="0">
-        <v>2.2199017756191397</v>
+        <v>53.167047602218375</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>48.71313904997924</v>
+        <v>56.47461475212031</v>
       </c>
       <c r="B78" s="0">
-        <v>2.2199017464230852</v>
+        <v>53.175119745265434</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>48.71313904062837</v>
+        <v>56.473689487959071</v>
       </c>
       <c r="B79" s="0">
-        <v>2.2199017302577975</v>
+        <v>53.183196245400069</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>48.713139090477469</v>
+        <v>56.472768427924841</v>
       </c>
       <c r="B80" s="0">
-        <v>2.2199017458727814</v>
+        <v>53.191268719677574</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>48.713139087033426</v>
+        <v>56.471835550616667</v>
       </c>
       <c r="B81" s="0">
-        <v>2.2199016978714803</v>
+        <v>53.19937680570898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>48.713139086617375</v>
+        <v>56.470906643000724</v>
       </c>
       <c r="B82" s="0">
-        <v>2.2199017287613803</v>
+        <v>53.207483683300097</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>48.713139135298093</v>
+        <v>56.46997114458204</v>
       </c>
       <c r="B83" s="0">
-        <v>2.2199017112264716</v>
+        <v>53.215614575241666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>48.713139148000721</v>
+        <v>56.469047052511137</v>
       </c>
       <c r="B84" s="0">
-        <v>2.219901672929451</v>
+        <v>53.223726298153956</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>48.713139142555477</v>
+        <v>56.468123434632119</v>
       </c>
       <c r="B85" s="0">
-        <v>2.2199016559760372</v>
+        <v>53.231845010187229</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>48.713139143542705</v>
+        <v>56.467200272877136</v>
       </c>
       <c r="B86" s="0">
-        <v>2.2199017052298875</v>
+        <v>53.239970553196628</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>48.713139214018646</v>
+        <v>56.466286443009466</v>
       </c>
       <c r="B87" s="0">
-        <v>2.2199016577089346</v>
+        <v>53.247984855913224</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>48.713139205316622</v>
+        <v>56.465363882028186</v>
       </c>
       <c r="B88" s="0">
-        <v>2.2199016697752425</v>
+        <v>53.256130419469272</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>48.713139193375618</v>
+        <v>56.464442358133944</v>
       </c>
       <c r="B89" s="0">
-        <v>2.2199016406203858</v>
+        <v>53.264276678641423</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>48.713139220355252</v>
+        <v>56.463521203294498</v>
       </c>
       <c r="B90" s="0">
-        <v>2.2199016338163884</v>
+        <v>53.272429454680008</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>48.713139241749296</v>
+        <v>56.462600819955291</v>
       </c>
       <c r="B91" s="0">
-        <v>2.2199016068130275</v>
+        <v>53.280588739831465</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>48.713139278847329</v>
+        <v>56.461680823474993</v>
       </c>
       <c r="B92" s="0">
-        <v>2.2199016080556913</v>
+        <v>53.288755426297968</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>48.71313931418301</v>
+        <v>56.460761314263877</v>
       </c>
       <c r="B93" s="0">
-        <v>2.2199016163796732</v>
+        <v>53.296929081224889</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>48.713139253711944</v>
+        <v>56.459842207537953</v>
       </c>
       <c r="B94" s="0">
-        <v>2.2199015923230348</v>
+        <v>53.30510947640056</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>48.713139302260927</v>
+        <v>56.458923548235518</v>
       </c>
       <c r="B95" s="0">
-        <v>2.2199015976534868</v>
+        <v>53.313296463723987</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>48.713139314431523</v>
+        <v>56.458005570595447</v>
       </c>
       <c r="B96" s="0">
-        <v>2.2199015351740052</v>
+        <v>53.321490932103082</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>48.713139330005042</v>
+        <v>56.45702091503513</v>
       </c>
       <c r="B97" s="0">
-        <v>2.2199015746022921</v>
+        <v>53.329685650928909</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>48.713139315554798</v>
+        <v>56.456099141136306</v>
       </c>
       <c r="B98" s="0">
-        <v>2.2199015562262137</v>
+        <v>53.337892948077332</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>48.713139353440354</v>
+        <v>56.455182675140229</v>
       </c>
       <c r="B99" s="0">
-        <v>2.2199015412020815</v>
+        <v>53.34610763368822</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>48.713139391043924</v>
+        <v>56.454266673055088</v>
       </c>
       <c r="B100" s="0">
-        <v>2.2199015263607098</v>
+        <v>53.354329363257712</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>48.713139397074777</v>
+        <v>56.453351313432208</v>
       </c>
       <c r="B101" s="0">
-        <v>2.2199015367575039</v>
+        <v>53.362558494703883</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>48.713139389994794</v>
+        <v>56.452436404362857</v>
       </c>
       <c r="B102" s="0">
-        <v>2.2199015195593264</v>
+        <v>53.370793469140608</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.713139414633815</v>
+        <v>56.451551737924611</v>
       </c>
       <c r="B103" s="0">
-        <v>2.2199015622015756</v>
+        <v>53.379021867224814</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.713139438754268</v>
+        <v>56.450749663038238</v>
       </c>
       <c r="B104" s="0">
-        <v>2.2199014873823244</v>
+        <v>53.387336621855752</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>48.713139419181275</v>
+        <v>56.449836345597852</v>
       </c>
       <c r="B105" s="0">
-        <v>2.2199014673624573</v>
+        <v>53.395593061604096</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>48.713139419633244</v>
+        <v>56.448923461617845</v>
       </c>
       <c r="B106" s="0">
-        <v>2.2199014587073789</v>
+        <v>53.403856168771753</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>48.713139501207579</v>
+        <v>56.448055711465251</v>
       </c>
       <c r="B107" s="0">
-        <v>2.2199014180731576</v>
+        <v>53.412296283236799</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>48.713139461046929</v>
+        <v>56.447144304286916</v>
       </c>
       <c r="B108" s="0">
-        <v>2.219901417213122</v>
+        <v>53.420567208271564</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>48.713139448666816</v>
+        <v>56.446498557802514</v>
       </c>
       <c r="B109" s="0">
-        <v>2.2199014393378214</v>
+        <v>53.429289152312265</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>48.713139454356977</v>
+        <v>56.445633443727885</v>
       </c>
       <c r="B110" s="0">
-        <v>2.2199013548778033</v>
+        <v>53.437669080270389</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>48.713139490236024</v>
+        <v>56.444737566379296</v>
       </c>
       <c r="B111" s="0">
-        <v>2.2199014207087382</v>
+        <v>53.445970248183656</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>48.713139471827532</v>
+        <v>56.443809338174425</v>
       </c>
       <c r="B112" s="0">
-        <v>2.2199013814362796</v>
+        <v>53.454378669325337</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>48.713139530073285</v>
+        <v>56.442909630481552</v>
       </c>
       <c r="B113" s="0">
-        <v>2.2199013827236303</v>
+        <v>53.462650111988012</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>48.713139539957346</v>
+        <v>56.441993568849853</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2199013873937612</v>
+        <v>53.470938518529721</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>48.713139578283325</v>
+        <v>56.441025056767536</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2199013573081561</v>
+        <v>53.479216069971848</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>48.713139576681989</v>
+        <v>56.440056360042227</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2199013575294244</v>
+        <v>53.48756478102873</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>48.713139585704973</v>
+        <v>56.439096488473645</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2199013179769036</v>
+        <v>53.495882575109761</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>48.713139612404966</v>
+        <v>56.438130677196512</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2199013074131315</v>
+        <v>53.504184000366479</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>48.713139628662759</v>
+        <v>56.437158132932645</v>
       </c>
       <c r="B119" s="0">
-        <v>2.2199013149428537</v>
+        <v>53.512430600801551</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>48.713139633569327</v>
+        <v>56.4361921885694</v>
       </c>
       <c r="B120" s="0">
-        <v>2.2199013191634336</v>
+        <v>53.520747211804974</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>48.713139641062149</v>
+        <v>56.435232560275011</v>
       </c>
       <c r="B121" s="0">
-        <v>2.2199012628792949</v>
+        <v>53.52904767710924</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>48.713139629743665</v>
+        <v>56.434275353274245</v>
       </c>
       <c r="B122" s="0">
-        <v>2.2199012647262086</v>
+        <v>53.537354920967445</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>48.713139697218061</v>
+        <v>56.433332743104202</v>
       </c>
       <c r="B123" s="0">
-        <v>2.2199012689926114</v>
+        <v>53.545727039130441</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>48.713139734206798</v>
+        <v>56.432359654456533</v>
       </c>
       <c r="B124" s="0">
-        <v>2.2199012251458421</v>
+        <v>53.554088150097158</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>48.71313971563854</v>
+        <v>56.431458482197769</v>
       </c>
       <c r="B125" s="0">
-        <v>2.2199011976514798</v>
+        <v>53.562511489816117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>48.713139687838009</v>
+        <v>56.430524755662972</v>
       </c>
       <c r="B126" s="0">
-        <v>2.2199011934302528</v>
+        <v>53.570862891267964</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>48.713139709566519</v>
+        <v>56.429614478096525</v>
       </c>
       <c r="B127" s="0">
-        <v>2.219901211710344</v>
+        <v>53.579193386993573</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>48.71313972608052</v>
+        <v>56.428687440736965</v>
       </c>
       <c r="B128" s="0">
-        <v>2.2199012057780796</v>
+        <v>53.587558328493692</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>48.713139726264323</v>
+        <v>56.427773741710062</v>
       </c>
       <c r="B129" s="0">
-        <v>2.2199011773177659</v>
+        <v>53.595954087695638</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>48.713139762729021</v>
+        <v>56.426865946507228</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2199011685216519</v>
+        <v>53.60432860485156</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>48.713139762618297</v>
+        <v>56.425965267083463</v>
       </c>
       <c r="B131" s="0">
-        <v>2.2199011714676034</v>
+        <v>53.6127586457064</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>48.71313981198702</v>
+        <v>56.425058336070414</v>
       </c>
       <c r="B132" s="0">
-        <v>2.2199011447535568</v>
+        <v>53.621191734569109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>48.713139826038031</v>
+        <v>56.424167352149851</v>
       </c>
       <c r="B133" s="0">
-        <v>2.2199011498972015</v>
+        <v>53.629604825842556</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>48.713139852603305</v>
+        <v>56.423303739702611</v>
       </c>
       <c r="B134" s="0">
-        <v>2.2199011077171966</v>
+        <v>53.638103068054193</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>48.713139816008805</v>
+        <v>56.42242098806684</v>
       </c>
       <c r="B135" s="0">
-        <v>2.219901130516599</v>
+        <v>53.646570555995908</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>48.713139848353556</v>
+        <v>56.421500572313647</v>
       </c>
       <c r="B136" s="0">
-        <v>2.219901149676824</v>
+        <v>53.655037169324054</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>48.713139879142105</v>
+        <v>56.420619997082973</v>
       </c>
       <c r="B137" s="0">
-        <v>2.2199011410238692</v>
+        <v>53.663581827990719</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>48.713139865309835</v>
+        <v>56.419744180681299</v>
       </c>
       <c r="B138" s="0">
-        <v>2.2199011019455366</v>
+        <v>53.672126372227829</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>48.713139867549792</v>
+        <v>48.713043993663526</v>
       </c>
       <c r="B139" s="0">
-        <v>2.2199011181020034</v>
+        <v>2.2005454124697152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>48.713139933434206</v>
+        <v>48.713063634526605</v>
       </c>
       <c r="B140" s="0">
-        <v>2.2199010676135433</v>
+        <v>2.2005148369706413</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>48.713139910069032</v>
+        <v>48.713086193336515</v>
       </c>
       <c r="B141" s="0">
-        <v>2.2199011115782779</v>
+        <v>2.200479923532443</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>48.71313993900722</v>
+        <v>56.416276469565602</v>
       </c>
       <c r="B142" s="0">
-        <v>2.2199011189405229</v>
+        <v>53.706424194351342</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>48.713139935343449</v>
+        <v>56.415376591483565</v>
       </c>
       <c r="B143" s="0">
-        <v>2.21990112137349</v>
+        <v>53.714938044062485</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>48.713139959980694</v>
+        <v>56.414508904964393</v>
       </c>
       <c r="B144" s="0">
-        <v>2.219901036760422</v>
+        <v>53.723507280782684</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>48.713139943436659</v>
+        <v>56.413686589281774</v>
       </c>
       <c r="B145" s="0">
-        <v>2.2199011007548628</v>
+        <v>53.732196932908565</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>48.713139959456626</v>
+        <v>56.412808798960818</v>
       </c>
       <c r="B146" s="0">
-        <v>2.2199010318450716</v>
+        <v>53.740785133324856</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>48.713139985803856</v>
+        <v>56.41196510578974</v>
       </c>
       <c r="B147" s="0">
-        <v>2.2199010551377407</v>
+        <v>53.749399396420316</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>48.713140002251663</v>
+        <v>56.411096816478995</v>
       </c>
       <c r="B148" s="0">
-        <v>2.219901017049803</v>
+        <v>53.758018822769792</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>48.713140025389393</v>
+        <v>56.410247073953443</v>
       </c>
       <c r="B149" s="0">
-        <v>2.2199010004082842</v>
+        <v>53.766604676319908</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>48.713140030577264</v>
+        <v>56.409385107084091</v>
       </c>
       <c r="B150" s="0">
-        <v>2.2199009968647254</v>
+        <v>53.775215976131641</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>48.713140066178284</v>
+        <v>56.408503281375047</v>
       </c>
       <c r="B151" s="0">
-        <v>2.2199010002586133</v>
+        <v>53.783775161106362</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>48.713140091795694</v>
+        <v>56.40763371025605</v>
       </c>
       <c r="B152" s="0">
-        <v>2.2199009903151832</v>
+        <v>53.792382796800567</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>48.713140091124252</v>
+        <v>56.406777200608872</v>
       </c>
       <c r="B153" s="0">
-        <v>2.2199009649455301</v>
+        <v>53.800987987556347</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>48.713140098541963</v>
+        <v>56.405905063082791</v>
       </c>
       <c r="B154" s="0">
-        <v>2.219901000001324</v>
+        <v>53.809554598796922</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>48.713140095649202</v>
+        <v>56.405091978136881</v>
       </c>
       <c r="B155" s="0">
-        <v>2.2199009083380545</v>
+        <v>53.818118906037569</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>48.713140120419269</v>
+        <v>56.404198526020387</v>
       </c>
       <c r="B156" s="0">
-        <v>2.2199009739541977</v>
+        <v>53.826720792332829</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>48.713140134893912</v>
+        <v>56.403320129837503</v>
       </c>
       <c r="B157" s="0">
-        <v>2.2199009395787348</v>
+        <v>53.835333540184386</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>48.713140156109269</v>
+        <v>56.402447978569462</v>
       </c>
       <c r="B158" s="0">
-        <v>2.2199009314968787</v>
+        <v>53.843917353568074</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>48.71314017114436</v>
+        <v>56.401595258954025</v>
       </c>
       <c r="B159" s="0">
-        <v>2.2199009487326995</v>
+        <v>53.852585500555819</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>48.713140176125585</v>
+        <v>56.400715654106918</v>
       </c>
       <c r="B160" s="0">
-        <v>2.2199008972018279</v>
+        <v>53.861231739762971</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>48.713140194835638</v>
+        <v>56.399807974905727</v>
       </c>
       <c r="B161" s="0">
-        <v>2.2199009191086749</v>
+        <v>53.869871574709009</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>48.713140181972811</v>
+        <v>56.39889789009559</v>
       </c>
       <c r="B162" s="0">
-        <v>2.2199009331021769</v>
+        <v>53.878446869297925</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>48.713140244675678</v>
+        <v>56.397979102484797</v>
       </c>
       <c r="B163" s="0">
-        <v>2.2199008694436522</v>
+        <v>53.887069461622424</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>48.713140249896533</v>
+        <v>56.397098027170237</v>
       </c>
       <c r="B164" s="0">
-        <v>2.2199008551077619</v>
+        <v>53.89568237007056</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>48.71314027745963</v>
+        <v>56.396112478137894</v>
       </c>
       <c r="B165" s="0">
-        <v>2.219900826912359</v>
+        <v>53.905276414468233</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>48.71314027373456</v>
+        <v>56.39519465640813</v>
       </c>
       <c r="B166" s="0">
-        <v>2.2199008481752713</v>
+        <v>53.913992073596162</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>48.71314026466078</v>
+        <v>56.394276010868126</v>
       </c>
       <c r="B167" s="0">
-        <v>2.2199008657738495</v>
+        <v>53.922648027774244</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>48.713140285559391</v>
+        <v>56.393344687648266</v>
       </c>
       <c r="B168" s="0">
-        <v>2.2199008269991407</v>
+        <v>53.931266858844097</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>48.713140281502511</v>
+        <v>56.392407656788528</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2199008605315367</v>
+        <v>53.939895103883245</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>48.71314032384349</v>
+        <v>56.391528919276816</v>
       </c>
       <c r="B170" s="0">
-        <v>2.2199008404244052</v>
+        <v>53.94862429055285</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>48.713140345782904</v>
+        <v>56.390654310581212</v>
       </c>
       <c r="B171" s="0">
-        <v>2.2199007924687559</v>
+        <v>53.957375741405976</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>48.713140330052994</v>
+        <v>56.389770619085013</v>
       </c>
       <c r="B172" s="0">
-        <v>2.2199008327221481</v>
+        <v>53.966151270976006</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>48.713140355523606</v>
+        <v>56.388903978795796</v>
       </c>
       <c r="B173" s="0">
-        <v>2.2199007995938662</v>
+        <v>53.974876055185355</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>48.713140368331317</v>
+        <v>56.388027591685486</v>
       </c>
       <c r="B174" s="0">
-        <v>2.2199007513774887</v>
+        <v>53.983618751100124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>48.713140429175596</v>
+        <v>56.387156913823681</v>
       </c>
       <c r="B175" s="0">
-        <v>2.2199007616296362</v>
+        <v>53.992368172691826</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>48.713140420453449</v>
+        <v>56.386292657651822</v>
       </c>
       <c r="B176" s="0">
-        <v>2.2199007238730997</v>
+        <v>54.001134341242278</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>48.713140426776526</v>
+        <v>54.732767732530533</v>
       </c>
       <c r="B177" s="0">
-        <v>2.2199007329897018</v>
+        <v>53.896606695373158</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>48.713140427003758</v>
+        <v>56.384557166000107</v>
       </c>
       <c r="B178" s="0">
-        <v>2.2199007533577744</v>
+        <v>54.018785329179529</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>48.713140438701281</v>
+        <v>56.383685553545384</v>
       </c>
       <c r="B179" s="0">
-        <v>2.2199006902074943</v>
+        <v>54.027529037484747</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>48.71314044399351</v>
+        <v>56.382806234727063</v>
       </c>
       <c r="B180" s="0">
-        <v>2.2199006710921894</v>
+        <v>54.036406426161435</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>48.713140461841938</v>
+        <v>56.381922662817779</v>
       </c>
       <c r="B181" s="0">
-        <v>2.2199006895100926</v>
+        <v>54.045245815327839</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>48.713140448999397</v>
+        <v>56.381039907595458</v>
       </c>
       <c r="B182" s="0">
-        <v>2.2199007098877419</v>
+        <v>54.054083337556861</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>48.713140440834849</v>
+        <v>56.379807172041467</v>
       </c>
       <c r="B183" s="0">
-        <v>2.2199006614410837</v>
+        <v>54.062380826034676</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>48.713140492048453</v>
+        <v>56.378938932483607</v>
       </c>
       <c r="B184" s="0">
-        <v>2.2199006204099012</v>
+        <v>54.0711941041464</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>48.713140529949996</v>
+        <v>56.378066659968319</v>
       </c>
       <c r="B185" s="0">
-        <v>2.2199006255198106</v>
+        <v>54.080024808132691</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>48.713140548221567</v>
+        <v>56.377201593139112</v>
       </c>
       <c r="B186" s="0">
-        <v>2.2199006063438858</v>
+        <v>54.088790770704613</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>48.713140489432028</v>
+        <v>56.376334242421272</v>
       </c>
       <c r="B187" s="0">
-        <v>2.2199006358322193</v>
+        <v>54.097594601558058</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>48.713140557054544</v>
+        <v>56.375439062973172</v>
       </c>
       <c r="B188" s="0">
-        <v>2.2199005859255929</v>
+        <v>54.106552411405559</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>48.713140578077741</v>
+        <v>56.374566110361904</v>
       </c>
       <c r="B189" s="0">
-        <v>2.2199005778924006</v>
+        <v>54.115444981101447</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>48.713140575393943</v>
+        <v>56.373696219309423</v>
       </c>
       <c r="B190" s="0">
-        <v>2.2199005592237655</v>
+        <v>54.124316221066764</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>48.713140611223203</v>
+        <v>56.372826482854059</v>
       </c>
       <c r="B191" s="0">
-        <v>2.2199006023088312</v>
+        <v>54.133197642685708</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>48.713140591822864</v>
+        <v>56.37195583741655</v>
       </c>
       <c r="B192" s="0">
-        <v>2.2199005316513172</v>
+        <v>54.142105229857819</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>48.713140590701627</v>
+        <v>56.371131261800528</v>
       </c>
       <c r="B193" s="0">
-        <v>2.2199005368208886</v>
+        <v>54.151037646134121</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>48.713140634522119</v>
+        <v>56.370314098839501</v>
       </c>
       <c r="B194" s="0">
-        <v>2.2199005338075732</v>
+        <v>54.159671143813554</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>48.713140632985912</v>
+        <v>56.369473229828323</v>
       </c>
       <c r="B195" s="0">
-        <v>2.2199005095673048</v>
+        <v>54.16845846241079</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>48.713140671800616</v>
+        <v>56.36862249388426</v>
       </c>
       <c r="B196" s="0">
-        <v>2.2199004666381712</v>
+        <v>54.177319735709553</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>48.713140730126824</v>
+        <v>56.367791120897451</v>
       </c>
       <c r="B197" s="0">
-        <v>2.2199004563095599</v>
+        <v>54.186021224052688</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>48.713140702706184</v>
+        <v>56.366889604920296</v>
       </c>
       <c r="B198" s="0">
-        <v>2.2199004628961672</v>
+        <v>54.194980751374523</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>48.713140733114514</v>
+        <v>56.366075847465567</v>
       </c>
       <c r="B199" s="0">
-        <v>2.2199004588306601</v>
+        <v>54.203951001236533</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>48.713140775041666</v>
+        <v>56.365252695505852</v>
       </c>
       <c r="B200" s="0">
-        <v>2.2199004567576006</v>
+        <v>54.212959228554332</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>48.713140768492963</v>
+        <v>56.364438568895707</v>
       </c>
       <c r="B201" s="0">
-        <v>2.2199004598289469</v>
+        <v>54.221986045146487</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>48.713140776200461</v>
+        <v>56.363614909571368</v>
       </c>
       <c r="B202" s="0">
-        <v>2.2199004714113975</v>
+        <v>54.231016818503406</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>48.713140830446662</v>
+        <v>56.362789943415493</v>
       </c>
       <c r="B203" s="0">
-        <v>2.2199004470802017</v>
+        <v>54.240033593212431</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>48.713140822955666</v>
+        <v>56.361941017470827</v>
       </c>
       <c r="B204" s="0">
-        <v>2.2199004189615552</v>
+        <v>54.249011565962441</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>48.713140794126993</v>
+        <v>56.361102170051772</v>
       </c>
       <c r="B205" s="0">
-        <v>2.219900428909106</v>
+        <v>54.258014170711469</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>48.71314082526537</v>
+        <v>56.360272747734712</v>
       </c>
       <c r="B206" s="0">
-        <v>2.2199003827748949</v>
+        <v>54.26701434212859</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>48.713140870539021</v>
+        <v>56.359419970371008</v>
       </c>
       <c r="B207" s="0">
-        <v>2.2199003834821305</v>
+        <v>54.276002660832816</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>48.713140873583754</v>
+        <v>56.358576373634122</v>
       </c>
       <c r="B208" s="0">
-        <v>2.2199004719915716</v>
+        <v>54.285033535236174</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>48.713140882102259</v>
+        <v>56.357731828964489</v>
       </c>
       <c r="B209" s="0">
-        <v>2.2199003854208588</v>
+        <v>54.294052373670056</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>48.713140915295462</v>
+        <v>56.356866134987371</v>
       </c>
       <c r="B210" s="0">
-        <v>2.2199003372959938</v>
+        <v>54.303163905687505</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>48.71314090760157</v>
+        <v>56.356012850729172</v>
       </c>
       <c r="B211" s="0">
-        <v>2.2199003688763548</v>
+        <v>54.312176790480798</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>48.713140900218193</v>
+        <v>56.355183000176581</v>
       </c>
       <c r="B212" s="0">
-        <v>2.2199003130578476</v>
+        <v>54.32117687117703</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>48.713140894045374</v>
+        <v>56.354307443231072</v>
       </c>
       <c r="B213" s="0">
-        <v>2.2199003051252766</v>
+        <v>54.330122871820841</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>48.713140938969609</v>
+        <v>56.353434908654712</v>
       </c>
       <c r="B214" s="0">
-        <v>2.2199002562510484</v>
+        <v>54.339072790461529</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>48.713140943884376</v>
+        <v>56.352574680705111</v>
       </c>
       <c r="B215" s="0">
-        <v>2.2199002881251957</v>
+        <v>54.348106803226756</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>48.713140965347861</v>
+        <v>56.351723845238787</v>
       </c>
       <c r="B216" s="0">
-        <v>2.2199003019724812</v>
+        <v>54.357108603989211</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>48.713141023077547</v>
+        <v>56.350862699616883</v>
       </c>
       <c r="B217" s="0">
-        <v>2.2199002418491234</v>
+        <v>54.366151377377903</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>48.71314100552938</v>
+        <v>56.349988471087912</v>
       </c>
       <c r="B218" s="0">
-        <v>2.2199002737458589</v>
+        <v>54.375221046340087</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>48.71314101579361</v>
+        <v>56.349134204087825</v>
       </c>
       <c r="B219" s="0">
-        <v>2.2199002850171503</v>
+        <v>54.384325107710232</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>48.713141034934083</v>
+        <v>56.348266700631875</v>
       </c>
       <c r="B220" s="0">
-        <v>2.2199002487934951</v>
+        <v>54.393462796146864</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>48.713141037148056</v>
+        <v>56.347434978894945</v>
       </c>
       <c r="B221" s="0">
-        <v>2.2199002495240849</v>
+        <v>54.402528045576474</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>48.713141045015981</v>
+        <v>56.346598992088595</v>
       </c>
       <c r="B222" s="0">
-        <v>2.2199002650808857</v>
+        <v>54.411623882862337</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>48.713141082463025</v>
+        <v>56.345709634006994</v>
       </c>
       <c r="B223" s="0">
-        <v>2.2199002077244861</v>
+        <v>54.420727773364028</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>48.713141100119728</v>
+        <v>56.344809789658562</v>
       </c>
       <c r="B224" s="0">
-        <v>2.2199001929848916</v>
+        <v>54.429730100818155</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>48.713141094338503</v>
+        <v>56.343909247825067</v>
       </c>
       <c r="B225" s="0">
-        <v>2.2199002381571495</v>
+        <v>54.438720214654616</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>48.713141144722052</v>
+        <v>56.343033926411501</v>
       </c>
       <c r="B226" s="0">
-        <v>2.2199001694583327</v>
+        <v>54.447730771101291</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>48.713141126671005</v>
+        <v>56.342147302719134</v>
       </c>
       <c r="B227" s="0">
-        <v>2.2199001490931454</v>
+        <v>54.456785246039821</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>48.713141147249196</v>
+        <v>56.341262441911475</v>
       </c>
       <c r="B228" s="0">
-        <v>2.2199001754284282</v>
+        <v>54.465857535718321</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>48.713141168016897</v>
+        <v>56.340396040585581</v>
       </c>
       <c r="B229" s="0">
-        <v>2.2199001131905596</v>
+        <v>54.47495244973161</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>48.713141177258166</v>
+        <v>56.339513790699122</v>
       </c>
       <c r="B230" s="0">
-        <v>2.2199001632273374</v>
+        <v>54.484051114280412</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>48.713141190323562</v>
+        <v>56.338643648066125</v>
       </c>
       <c r="B231" s="0">
-        <v>2.2199001209751072</v>
+        <v>54.493174092446914</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>48.713141232614646</v>
+        <v>56.33775072146701</v>
       </c>
       <c r="B232" s="0">
-        <v>2.2199001113547463</v>
+        <v>54.502318180036994</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>48.71314120929452</v>
+        <v>56.336895523103628</v>
       </c>
       <c r="B233" s="0">
-        <v>2.2199000821606836</v>
+        <v>54.511519042301856</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>48.713141241598848</v>
+        <v>56.336035897969339</v>
       </c>
       <c r="B234" s="0">
-        <v>2.2199001190734635</v>
+        <v>54.520741219938472</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>48.713141263443653</v>
+        <v>56.335191634227108</v>
       </c>
       <c r="B235" s="0">
-        <v>2.219900099699633</v>
+        <v>54.529930104629962</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>48.713141295362796</v>
+        <v>56.33434793928587</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2199001080705885</v>
+        <v>54.53912805833081</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>48.713141307927089</v>
+        <v>56.333504647519696</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2199000700923839</v>
+        <v>54.548333200149983</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>48.713141287972071</v>
+        <v>56.332661831131702</v>
       </c>
       <c r="B238" s="0">
-        <v>2.2199001046219609</v>
+        <v>54.557545903776564</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>48.713141305460724</v>
+        <v>56.331819686348119</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2199000873429706</v>
+        <v>54.566766034111616</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>48.713141293015759</v>
+        <v>56.33097800544239</v>
       </c>
       <c r="B240" s="0">
-        <v>2.2199000698703224</v>
+        <v>54.575993742882972</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>48.713141313371992</v>
+        <v>56.330137140900547</v>
       </c>
       <c r="B241" s="0">
-        <v>2.2199000841633874</v>
+        <v>54.585229133482891</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>48.713141355188888</v>
+        <v>56.329350084320858</v>
       </c>
       <c r="B242" s="0">
-        <v>2.2199000933061059</v>
+        <v>54.594562157550023</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>48.713141308270885</v>
+        <v>56.328424661735319</v>
       </c>
       <c r="B243" s="0">
-        <v>2.2199000337931194</v>
+        <v>54.60366750921763</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>48.713141338355811</v>
+        <v>56.32745037207453</v>
       </c>
       <c r="B244" s="0">
-        <v>2.2199000369549062</v>
+        <v>54.612696171348198</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>48.713141377559133</v>
+        <v>56.326651546713151</v>
       </c>
       <c r="B245" s="0">
-        <v>2.2199000010717902</v>
+        <v>54.622029147934768</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>48.713141408324859</v>
+        <v>56.325820727631033</v>
       </c>
       <c r="B246" s="0">
-        <v>2.2198999793656191</v>
+        <v>54.631314723446927</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>48.713141408427255</v>
+        <v>56.32494706567406</v>
       </c>
       <c r="B247" s="0">
-        <v>2.2198999420061676</v>
+        <v>54.640533529614807</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>48.713141438885238</v>
+        <v>56.324156331206609</v>
       </c>
       <c r="B248" s="0">
-        <v>2.2198999599559266</v>
+        <v>54.649900470128415</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>48.71314139979188</v>
+        <v>56.32330356380124</v>
       </c>
       <c r="B249" s="0">
-        <v>2.219899966690071</v>
+        <v>54.659337859744923</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>48.713141456160464</v>
+        <v>56.322552714794775</v>
       </c>
       <c r="B250" s="0">
-        <v>2.2198999000904305</v>
+        <v>54.668714254483582</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>48.713141427534069</v>
+        <v>54.461821744068786</v>
       </c>
       <c r="B251" s="0">
-        <v>2.2198999323454878</v>
+        <v>54.598875763838294</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>48.71314148503987</v>
+        <v>56.321019492643359</v>
       </c>
       <c r="B252" s="0">
-        <v>2.2198999182153942</v>
+        <v>54.687536828268371</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>48.713141492025315</v>
+        <v>56.320122053820434</v>
       </c>
       <c r="B253" s="0">
-        <v>2.2198998739794646</v>
+        <v>54.696842248613351</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>48.713141520827385</v>
+        <v>56.319262750409692</v>
       </c>
       <c r="B254" s="0">
-        <v>2.219899846627253</v>
+        <v>54.706158541414148</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>48.713141501934224</v>
+        <v>56.318431224538429</v>
       </c>
       <c r="B255" s="0">
-        <v>2.2198998614975816</v>
+        <v>54.715478287320614</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>48.713141557029779</v>
+        <v>56.317597538703367</v>
       </c>
       <c r="B256" s="0">
-        <v>2.2198998626909146</v>
+        <v>54.724835309246721</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>48.713141559319595</v>
+        <v>56.316762834132525</v>
       </c>
       <c r="B257" s="0">
-        <v>2.2198998019743037</v>
+        <v>54.73422162516254</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>48.713141583980885</v>
+        <v>56.315929701185148</v>
       </c>
       <c r="B258" s="0">
-        <v>2.2198998043280311</v>
+        <v>54.743599967504174</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>48.713141615853374</v>
+        <v>56.315098234185726</v>
       </c>
       <c r="B259" s="0">
-        <v>2.2198997929475124</v>
+        <v>54.752976172412055</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>48.71314155955249</v>
+        <v>56.314266981622907</v>
       </c>
       <c r="B260" s="0">
-        <v>2.2198998147241502</v>
+        <v>54.762361078769189</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>48.713141595331017</v>
+        <v>56.313430814000107</v>
       </c>
       <c r="B261" s="0">
-        <v>2.2198997865643717</v>
+        <v>54.771817351873523</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>48.713141588391188</v>
+        <v>56.312597992774641</v>
       </c>
       <c r="B262" s="0">
-        <v>2.219899768348272</v>
+        <v>54.781247960339272</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>48.713141608600161</v>
+        <v>56.311765349447896</v>
       </c>
       <c r="B263" s="0">
-        <v>2.2198997439148775</v>
+        <v>54.790690605928461</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>48.713141648272455</v>
+        <v>56.310934586330369</v>
       </c>
       <c r="B264" s="0">
-        <v>2.2198997686958064</v>
+        <v>54.800127028209651</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>48.713141665450749</v>
+        <v>56.310105235704171</v>
       </c>
       <c r="B265" s="0">
-        <v>2.219899722282642</v>
+        <v>54.809560642301257</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>48.713141664690149</v>
+        <v>56.309278005382552</v>
       </c>
       <c r="B266" s="0">
-        <v>2.2198997284564954</v>
+        <v>54.818984843824737</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>48.713141728215753</v>
+        <v>56.308451238021405</v>
       </c>
       <c r="B267" s="0">
-        <v>2.2198996789638428</v>
+        <v>54.828416122756693</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>48.713141737053697</v>
+        <v>56.307625144163957</v>
       </c>
       <c r="B268" s="0">
-        <v>2.2198997382517716</v>
+        <v>54.837855293101086</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>48.713141754843264</v>
+        <v>56.306799586724125</v>
       </c>
       <c r="B269" s="0">
-        <v>2.2198996714389612</v>
+        <v>54.847301877155907</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>48.713141736097597</v>
+        <v>56.305974537360449</v>
       </c>
       <c r="B270" s="0">
-        <v>2.2198996782277369</v>
+        <v>54.856756012355277</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>48.713141789793717</v>
+        <v>56.305150133723366</v>
       </c>
       <c r="B271" s="0">
-        <v>2.2198996379577998</v>
+        <v>54.866217860296061</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>48.713141804119637</v>
+        <v>56.304326172050466</v>
       </c>
       <c r="B272" s="0">
-        <v>2.219899702675769</v>
+        <v>54.875687203829941</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>48.713141771843354</v>
+        <v>56.303502885623743</v>
       </c>
       <c r="B273" s="0">
-        <v>2.2198996222069267</v>
+        <v>54.88516442153476</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>48.713141825416884</v>
+        <v>56.302691302241762</v>
       </c>
       <c r="B274" s="0">
-        <v>2.219899606578327</v>
+        <v>54.894523700914107</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>48.713141848958706</v>
+        <v>56.301869212419696</v>
       </c>
       <c r="B275" s="0">
-        <v>2.2198996183524411</v>
+        <v>54.904015793155537</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>48.713141835804237</v>
+        <v>56.301047447512133</v>
       </c>
       <c r="B276" s="0">
-        <v>2.2198996261176474</v>
+        <v>54.913515641946873</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>48.713141868579015</v>
+        <v>56.300226406312049</v>
       </c>
       <c r="B277" s="0">
-        <v>2.2198995558640924</v>
+        <v>54.923023435484474</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>48.713141833529079</v>
+        <v>56.299405870433375</v>
       </c>
       <c r="B278" s="0">
-        <v>2.2198995614381305</v>
+        <v>54.932538285806295</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>48.713141879945013</v>
+        <v>56.298585982428811</v>
       </c>
       <c r="B279" s="0">
-        <v>2.2198995339223422</v>
+        <v>54.942061151525138</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>48.713141918309596</v>
+        <v>56.297766493875237</v>
       </c>
       <c r="B280" s="0">
-        <v>2.2198995746188621</v>
+        <v>54.951591724107289</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>48.713141928784999</v>
+        <v>56.29694761545197</v>
       </c>
       <c r="B281" s="0">
-        <v>2.2198995170632014</v>
+        <v>54.961129798261936</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>48.713141911120047</v>
+        <v>56.296129416192592</v>
       </c>
       <c r="B282" s="0">
-        <v>2.2198995190500748</v>
+        <v>54.970675469078159</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>48.71314197684346</v>
+        <v>56.295290927544365</v>
       </c>
       <c r="B283" s="0">
-        <v>2.2198995531307033</v>
+        <v>54.980286098074885</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>48.71314200916764</v>
+        <v>56.294475023672916</v>
       </c>
       <c r="B284" s="0">
-        <v>2.2198994735265765</v>
+        <v>54.989844254008922</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>48.713142017249133</v>
+        <v>56.293654614401397</v>
       </c>
       <c r="B285" s="0">
-        <v>2.2198994858699339</v>
+        <v>54.999423272841959</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>48.713142002652425</v>
+        <v>56.292835692517009</v>
       </c>
       <c r="B286" s="0">
-        <v>2.219899517173193</v>
+        <v>55.00900788133805</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>48.713142037183189</v>
+        <v>56.292017291739086</v>
       </c>
       <c r="B287" s="0">
-        <v>2.2198994910537859</v>
+        <v>55.018600490693046</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>48.713142015967954</v>
+        <v>56.291199762823389</v>
       </c>
       <c r="B288" s="0">
-        <v>2.2198994354443666</v>
+        <v>55.028199976377913</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>48.713142084674949</v>
+        <v>56.290386237247653</v>
       </c>
       <c r="B289" s="0">
-        <v>2.2198994270504726</v>
+        <v>55.037797659666936</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>48.713142107877658</v>
+        <v>56.289573838161523</v>
       </c>
       <c r="B290" s="0">
-        <v>2.2198994238104146</v>
+        <v>55.047400869933782</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>48.713142121132911</v>
+        <v>56.288763973437632</v>
       </c>
       <c r="B291" s="0">
-        <v>2.2198993798084255</v>
+        <v>55.057006630364448</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>48.71314212874794</v>
+        <v>56.287950501140479</v>
       </c>
       <c r="B292" s="0">
-        <v>2.2198993510083578</v>
+        <v>55.066631514818212</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>48.713142114040345</v>
+        <v>56.287136393439063</v>
       </c>
       <c r="B293" s="0">
-        <v>2.2198993860743213</v>
+        <v>55.076268384154084</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>48.713142131818344</v>
+        <v>56.286322314328707</v>
       </c>
       <c r="B294" s="0">
-        <v>2.2198993693140405</v>
+        <v>55.085913328459995</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>48.713142174369651</v>
+        <v>56.285510850594449</v>
       </c>
       <c r="B295" s="0">
-        <v>2.2198993290066009</v>
+        <v>55.095560452413494</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>48.713142162720267</v>
+        <v>56.284701859504011</v>
       </c>
       <c r="B296" s="0">
-        <v>2.2198993253462285</v>
+        <v>55.105210664565327</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>48.713142204120082</v>
+        <v>56.284035644119349</v>
       </c>
       <c r="B297" s="0">
-        <v>2.2198992980938468</v>
+        <v>55.113351579109939</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>48.713142202033097</v>
+        <v>56.283220849374246</v>
       </c>
       <c r="B298" s="0">
-        <v>2.2198992929793562</v>
+        <v>55.123053602751782</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>48.713142219841466</v>
+        <v>56.282409652405875</v>
       </c>
       <c r="B299" s="0">
-        <v>2.2198992607274124</v>
+        <v>55.132757063212736</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>48.713142252607859</v>
+        <v>56.281636539694908</v>
       </c>
       <c r="B300" s="0">
-        <v>2.2198992581932115</v>
+        <v>55.14263203812294</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>48.713142232077573</v>
+        <v>56.280838756538401</v>
       </c>
       <c r="B301" s="0">
-        <v>2.2198992778056761</v>
+        <v>55.152448236703854</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>48.713142248201983</v>
+        <v>56.280051119694505</v>
       </c>
       <c r="B302" s="0">
-        <v>2.219899239825121</v>
+        <v>55.16235465889519</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>48.713142258274544</v>
+        <v>56.279236865118428</v>
       </c>
       <c r="B303" s="0">
-        <v>2.219899225098958</v>
+        <v>55.172146351089019</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>48.713142312026299</v>
+        <v>56.278418989586413</v>
       </c>
       <c r="B304" s="0">
-        <v>2.2198992028920821</v>
+        <v>55.18198941896442</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>48.713142306759821</v>
+        <v>56.277609486523467</v>
       </c>
       <c r="B305" s="0">
-        <v>2.2198992106642157</v>
+        <v>55.191755023073043</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>48.713142300429396</v>
+        <v>56.276789848288061</v>
       </c>
       <c r="B306" s="0">
-        <v>2.2198991944007274</v>
+        <v>55.201644213092465</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>48.713142345612461</v>
+        <v>56.275979152978053</v>
       </c>
       <c r="B307" s="0">
-        <v>2.2198991451869512</v>
+        <v>55.211453251652671</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>48.713142333937164</v>
+        <v>56.275164085724519</v>
       </c>
       <c r="B308" s="0">
-        <v>2.2198991900734066</v>
+        <v>55.221321164869998</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>48.713142362252789</v>
+        <v>56.274357258495144</v>
       </c>
       <c r="B309" s="0">
-        <v>2.2198991126240033</v>
+        <v>55.231116456836169</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>48.71314238665245</v>
+        <v>56.273554715036319</v>
       </c>
       <c r="B310" s="0">
-        <v>2.2198991087666631</v>
+        <v>55.240879028114662</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>48.713142411899121</v>
+        <v>56.272753054035107</v>
       </c>
       <c r="B311" s="0">
-        <v>2.2198991619783746</v>
+        <v>55.25064824345116</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>48.71314243072667</v>
+        <v>56.271951916541738</v>
       </c>
       <c r="B312" s="0">
-        <v>2.219899127795113</v>
+        <v>55.260425728448112</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>48.713142456739576</v>
+        <v>56.271151335564014</v>
       </c>
       <c r="B313" s="0">
-        <v>2.2198990801352574</v>
+        <v>55.270210886742845</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>48.713142478858295</v>
+        <v>56.270351370385157</v>
       </c>
       <c r="B314" s="0">
-        <v>2.2198990836775185</v>
+        <v>55.280004088352484</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>48.713142447254477</v>
+        <v>56.269551792774344</v>
       </c>
       <c r="B315" s="0">
-        <v>2.2198990810580877</v>
+        <v>55.28980494137749</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>48.713142501848118</v>
+        <v>56.268752975678638</v>
       </c>
       <c r="B316" s="0">
-        <v>2.2198990676298229</v>
+        <v>55.299613579402013</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>48.713142478876819</v>
+        <v>56.267954784088943</v>
       </c>
       <c r="B317" s="0">
-        <v>2.2198990288822271</v>
+        <v>55.309430217066108</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>48.713142467311116</v>
+        <v>56.267157011364162</v>
       </c>
       <c r="B318" s="0">
-        <v>2.2198989703268657</v>
+        <v>55.319254521006435</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>48.713142534408654</v>
+        <v>56.266359818795415</v>
       </c>
       <c r="B319" s="0">
-        <v>2.2198990199951849</v>
+        <v>55.329086233943855</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>48.713142521820629</v>
+        <v>56.26558334990429</v>
       </c>
       <c r="B320" s="0">
-        <v>2.2198990162721235</v>
+        <v>55.338869307050423</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>48.713142547317425</v>
+        <v>56.264786224387812</v>
       </c>
       <c r="B321" s="0">
-        <v>2.2198989902888884</v>
+        <v>55.348720098419356</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>48.71314256366388</v>
+        <v>56.263990348434774</v>
       </c>
       <c r="B322" s="0">
-        <v>2.2198989340078605</v>
+        <v>55.358576580664632</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>48.713142588361393</v>
+        <v>56.26318600101699</v>
       </c>
       <c r="B323" s="0">
-        <v>2.2198989390634165</v>
+        <v>55.368467404518015</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>48.713142594321823</v>
+        <v>56.262393226270312</v>
       </c>
       <c r="B324" s="0">
-        <v>2.2198989333979227</v>
+        <v>55.3783343456872</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>48.713142617940584</v>
+        <v>56.261589980602942</v>
       </c>
       <c r="B325" s="0">
-        <v>2.2198989332141683</v>
+        <v>55.388330788744014</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>48.713142632057476</v>
+        <v>56.260793909164796</v>
       </c>
       <c r="B326" s="0">
-        <v>2.2198989522712913</v>
+        <v>55.398232336167453</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>48.713142672025704</v>
+        <v>56.259996150248149</v>
       </c>
       <c r="B327" s="0">
-        <v>2.2198988566330793</v>
+        <v>55.408142060888075</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>48.713142680629687</v>
+        <v>56.259204180437742</v>
       </c>
       <c r="B328" s="0">
-        <v>2.2198988919953635</v>
+        <v>55.418044540053906</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>48.713142661207854</v>
+        <v>56.258412767676056</v>
       </c>
       <c r="B329" s="0">
-        <v>2.2198989061377676</v>
+        <v>55.427954925877472</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>48.713142691655172</v>
+        <v>56.257622021086689</v>
       </c>
       <c r="B330" s="0">
-        <v>2.2198988418163195</v>
+        <v>55.437873298915307</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>48.713142723557716</v>
+        <v>56.256831786644995</v>
       </c>
       <c r="B331" s="0">
-        <v>2.219898843221777</v>
+        <v>55.447799805222402</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>48.713142682655977</v>
+        <v>56.2560420308114</v>
       </c>
       <c r="B332" s="0">
-        <v>2.2198988584681723</v>
+        <v>55.45773373698691</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>48.713142737951472</v>
+        <v>56.255253037946453</v>
       </c>
       <c r="B333" s="0">
-        <v>2.2198987945150557</v>
+        <v>55.4676756980516</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>48.713142791230005</v>
+        <v>56.254554502352335</v>
       </c>
       <c r="B334" s="0">
-        <v>2.219898809768007</v>
+        <v>55.476700722165774</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>48.713142734897602</v>
+        <v>56.253783352154571</v>
       </c>
       <c r="B335" s="0">
-        <v>2.2198987952141178</v>
+        <v>55.486622924799946</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>48.713142763484655</v>
+        <v>56.25299576161067</v>
       </c>
       <c r="B336" s="0">
-        <v>2.2198988228472167</v>
+        <v>55.496590902865648</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>48.713142800453952</v>
+        <v>56.25221922170546</v>
       </c>
       <c r="B337" s="0">
-        <v>2.2198987729411432</v>
+        <v>55.506570625173659</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>48.713142798539622</v>
+        <v>56.251430989217475</v>
       </c>
       <c r="B338" s="0">
-        <v>2.2198987782137802</v>
+        <v>55.516574525925798</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>48.713142837637371</v>
+        <v>56.250680624915866</v>
       </c>
       <c r="B339" s="0">
-        <v>2.2198987379702313</v>
+        <v>55.5262038578839</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>48.713142873196638</v>
+        <v>56.249893007564488</v>
       </c>
       <c r="B340" s="0">
-        <v>2.2198987387243663</v>
+        <v>55.536229217195242</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>48.713142878920792</v>
+        <v>56.249105155926387</v>
       </c>
       <c r="B341" s="0">
-        <v>2.2198986926387763</v>
+        <v>55.546270091796451</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>48.713142860549766</v>
+        <v>56.248316534136166</v>
       </c>
       <c r="B342" s="0">
-        <v>2.2198986993093661</v>
+        <v>55.55633291437546</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>48.713142893547108</v>
+        <v>56.247534539529319</v>
       </c>
       <c r="B343" s="0">
-        <v>2.2198987185493588</v>
+        <v>55.566342877631108</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>48.713142892085052</v>
+        <v>56.246746566692103</v>
       </c>
       <c r="B344" s="0">
-        <v>2.2198986661606859</v>
+        <v>55.576428627319125</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>48.713142909726081</v>
+        <v>56.24587214159105</v>
       </c>
       <c r="B345" s="0">
-        <v>2.2198986786685651</v>
+        <v>55.586376879450121</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>48.713142900425112</v>
+        <v>56.24509713696073</v>
       </c>
       <c r="B346" s="0">
-        <v>2.2198986249171844</v>
+        <v>55.596459872399848</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>48.713142917372679</v>
+        <v>56.244277964313795</v>
       </c>
       <c r="B347" s="0">
-        <v>2.2198986322466463</v>
+        <v>55.606493578428953</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>48.713142975569163</v>
+        <v>56.243470374112718</v>
       </c>
       <c r="B348" s="0">
-        <v>2.2198986313234053</v>
+        <v>55.616592708463308</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>48.713142964123748</v>
+        <v>56.242701045754636</v>
       </c>
       <c r="B349" s="0">
-        <v>2.2198986062200423</v>
+        <v>55.626701193385223</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>48.713142998720493</v>
+        <v>56.241899695929654</v>
       </c>
       <c r="B350" s="0">
-        <v>2.2198986215035967</v>
+        <v>55.636839099703089</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>48.713143001612537</v>
+        <v>56.241105705705891</v>
       </c>
       <c r="B351" s="0">
-        <v>2.2198985809289389</v>
+        <v>55.646964301585321</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>48.713143023346241</v>
+        <v>56.240310509626113</v>
       </c>
       <c r="B352" s="0">
-        <v>2.2198985917127989</v>
+        <v>55.657077429362424</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>48.713143071988455</v>
+        <v>56.239519568086344</v>
       </c>
       <c r="B353" s="0">
-        <v>2.2198985582822099</v>
+        <v>55.667232137723303</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>48.713143077649725</v>
+        <v>56.238735539457061</v>
       </c>
       <c r="B354" s="0">
-        <v>2.2198985971682221</v>
+        <v>55.677434407492747</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>48.713143043794076</v>
+        <v>56.237986636224399</v>
       </c>
       <c r="B355" s="0">
-        <v>2.2198986124934539</v>
+        <v>55.687689826767951</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>48.7131430648097</v>
+        <v>56.23723064924387</v>
       </c>
       <c r="B356" s="0">
-        <v>2.2198985945804646</v>
+        <v>55.697969680320867</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>48.713143093242145</v>
+        <v>56.236444367727536</v>
       </c>
       <c r="B357" s="0">
-        <v>2.2198985444170703</v>
+        <v>55.708130922214757</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>48.713143090103443</v>
+        <v>56.235651638345985</v>
       </c>
       <c r="B358" s="0">
-        <v>2.2198984836837354</v>
+        <v>55.718326763028514</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>48.713143094825718</v>
+        <v>56.234833247044584</v>
       </c>
       <c r="B359" s="0">
-        <v>2.219898517558689</v>
+        <v>55.728555859552905</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>48.713143119418049</v>
+        <v>56.23404922754095</v>
       </c>
       <c r="B360" s="0">
-        <v>2.2198984657199738</v>
+        <v>55.738726396633751</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>48.713143123745262</v>
+        <v>56.233256916994698</v>
       </c>
       <c r="B361" s="0">
-        <v>2.2198984328754166</v>
+        <v>55.748840166021196</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>48.713143124734053</v>
+        <v>56.232478949593592</v>
       </c>
       <c r="B362" s="0">
-        <v>2.2198984458361184</v>
+        <v>55.75903045754805</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>48.713143225632763</v>
+        <v>56.231767576734079</v>
       </c>
       <c r="B363" s="0">
-        <v>2.2198984559780475</v>
+        <v>55.769211882677915</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>48.713143161022842</v>
+        <v>56.231004045689339</v>
       </c>
       <c r="B364" s="0">
-        <v>2.2198984525259307</v>
+        <v>55.779500213035846</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>48.71314320226162</v>
+        <v>56.230258337522464</v>
       </c>
       <c r="B365" s="0">
-        <v>2.2198984394744454</v>
+        <v>55.789869435661231</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>48.713143154533654</v>
+        <v>56.229523052990167</v>
       </c>
       <c r="B366" s="0">
-        <v>2.2198984323507696</v>
+        <v>55.800093523836168</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>48.713143254548399</v>
+        <v>56.228778084996719</v>
       </c>
       <c r="B367" s="0">
-        <v>2.2198984362421612</v>
+        <v>55.810300785760255</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>48.713143286580696</v>
+        <v>56.228042119258738</v>
       </c>
       <c r="B368" s="0">
-        <v>2.219898433178745</v>
+        <v>55.820490973293957</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>48.713143268160941</v>
+        <v>56.227305997190399</v>
       </c>
       <c r="B369" s="0">
-        <v>2.2198984042601651</v>
+        <v>55.830589624257073</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>48.713143296020938</v>
+        <v>56.226571925802318</v>
       </c>
       <c r="B370" s="0">
-        <v>2.2198983733481743</v>
+        <v>55.840754999703258</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>48.713143298732525</v>
+        <v>56.225807990259163</v>
       </c>
       <c r="B371" s="0">
-        <v>2.2198983504287853</v>
+        <v>55.85090497175711</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>48.713143277544319</v>
+        <v>56.22505902793705</v>
       </c>
       <c r="B372" s="0">
-        <v>2.219898349033651</v>
+        <v>55.861126020878991</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>48.713143335978863</v>
+        <v>56.224300897100576</v>
       </c>
       <c r="B373" s="0">
-        <v>2.2198983233881338</v>
+        <v>55.871380383568216</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>48.713143358470347</v>
+        <v>56.223542029927856</v>
       </c>
       <c r="B374" s="0">
-        <v>2.2198982812350061</v>
+        <v>55.881613259337527</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>48.713143369725991</v>
+        <v>56.222794274808642</v>
       </c>
       <c r="B375" s="0">
-        <v>2.2198982730535297</v>
+        <v>55.891866392781886</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>48.71314339986268</v>
+        <v>56.222046096331994</v>
       </c>
       <c r="B376" s="0">
-        <v>2.2198982865066128</v>
+        <v>55.902073106684881</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>48.713143421559821</v>
+        <v>56.221288335181463</v>
       </c>
       <c r="B377" s="0">
-        <v>2.219898249055043</v>
+        <v>55.912328414190675</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>48.713143448962711</v>
+        <v>56.220531624550674</v>
       </c>
       <c r="B378" s="0">
-        <v>2.2198982075159863</v>
+        <v>55.922585200506354</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>48.713143457422305</v>
+        <v>56.219763484552615</v>
       </c>
       <c r="B379" s="0">
-        <v>2.2198982562303256</v>
+        <v>55.932840080995895</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>48.713143460429414</v>
+        <v>56.219003283414381</v>
       </c>
       <c r="B380" s="0">
-        <v>2.2198982223144728</v>
+        <v>55.943098932262039</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>48.713143516304207</v>
+        <v>56.218224023964844</v>
       </c>
       <c r="B381" s="0">
-        <v>2.2198981654377712</v>
+        <v>55.953332584201853</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>48.713143504864384</v>
+        <v>56.217464281272974</v>
       </c>
       <c r="B382" s="0">
-        <v>2.2198981373120508</v>
+        <v>55.963645775447247</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>48.713143521379998</v>
+        <v>56.216676230316807</v>
       </c>
       <c r="B383" s="0">
-        <v>2.2198981742060142</v>
+        <v>55.973888122941745</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>48.713143547687245</v>
+        <v>56.215881926215978</v>
       </c>
       <c r="B384" s="0">
-        <v>2.21989814300444</v>
+        <v>55.984126753162542</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>48.713143527360742</v>
+        <v>56.215083354891846</v>
       </c>
       <c r="B385" s="0">
-        <v>2.2198981206018011</v>
+        <v>55.994425497493815</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>56.214269604917952</v>
+      </c>
+      <c r="B386" s="0">
+        <v>56.004708932834142</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>56.213488465771491</v>
+      </c>
+      <c r="B387" s="0">
+        <v>56.015047856666712</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>56.212714746336459</v>
+      </c>
+      <c r="B388" s="0">
+        <v>56.025400548617427</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>56.211934214690693</v>
+      </c>
+      <c r="B389" s="0">
+        <v>56.035793542663207</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>56.211167148216845</v>
+      </c>
+      <c r="B390" s="0">
+        <v>56.046234762672249</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>56.210369364242091</v>
+      </c>
+      <c r="B391" s="0">
+        <v>56.056630735662999</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>56.2095937113125</v>
+      </c>
+      <c r="B392" s="0">
+        <v>56.067056967280699</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>56.208824211316852</v>
+      </c>
+      <c r="B393" s="0">
+        <v>56.07753818638524</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>56.208065723610908</v>
+      </c>
+      <c r="B394" s="0">
+        <v>56.087958018286095</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>56.207328740507492</v>
+      </c>
+      <c r="B395" s="0">
+        <v>56.09842266528652</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>56.206576947328763</v>
+      </c>
+      <c r="B396" s="0">
+        <v>56.108868346682748</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>56.205825843609993</v>
+      </c>
+      <c r="B397" s="0">
+        <v>56.119321729518859</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>56.2050754228936</v>
+      </c>
+      <c r="B398" s="0">
+        <v>56.129783589729662</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>56.20432560012582</v>
+      </c>
+      <c r="B399" s="0">
+        <v>56.140253861942199</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>56.203576297809782</v>
+      </c>
+      <c r="B400" s="0">
+        <v>56.150732121952423</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>56.202884170750949</v>
+      </c>
+      <c r="B401" s="0">
+        <v>56.161217776561699</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>56.202136059933317</v>
+      </c>
+      <c r="B402" s="0">
+        <v>56.171712244964638</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>56.201388752679115</v>
+      </c>
+      <c r="B403" s="0">
+        <v>56.182213718279783</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>56.200650145729739</v>
+      </c>
+      <c r="B404" s="0">
+        <v>56.19272427042003</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>56.199899746552298</v>
+      </c>
+      <c r="B405" s="0">
+        <v>56.20324339138066</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>56.199154043098602</v>
+      </c>
+      <c r="B406" s="0">
+        <v>56.213770539528369</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>56.19840925753337</v>
+      </c>
+      <c r="B407" s="0">
+        <v>56.224306014310294</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>56.19766463064952</v>
+      </c>
+      <c r="B408" s="0">
+        <v>56.234849314164272</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>56.196920866263483</v>
+      </c>
+      <c r="B409" s="0">
+        <v>56.245401608943872</v>
       </c>
     </row>
   </sheetData>
